--- a/output/Formatted tables.xlsx
+++ b/output/Formatted tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizaandrade\Documents\GitHub\deworming\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029391CA-5BB0-4FA7-8241-6ED7F2E4B48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B030993-5531-42EC-A7C4-38DCCE20495A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" tabRatio="925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" tabRatio="925" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="39" r:id="rId1"/>
@@ -1213,7 +1213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1251,35 +1251,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1298,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1522,18 +1493,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1587,19 +1546,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1619,20 +1575,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1643,16 +1605,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1663,6 +1622,12 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1700,33 +1665,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2088,31 +2052,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115" t="s">
+      <c r="C2" s="110"/>
+      <c r="D2" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115" t="s">
+      <c r="E2" s="110"/>
+      <c r="F2" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115" t="s">
+      <c r="G2" s="110"/>
+      <c r="H2" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="112" t="s">
+      <c r="I2" s="110"/>
+      <c r="J2" s="107" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="112"/>
       <c r="B3" s="7" t="s">
         <v>80</v>
       </c>
@@ -2137,28 +2101,28 @@
       <c r="I3" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="113"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="str">
         <f>IF(t1_raw!A1&lt;&gt;"",t1_raw!A1,"")</f>
         <v>Alderman 2006</v>
       </c>
-      <c r="B5" s="111" t="str">
+      <c r="B5" s="115" t="str">
         <f>IF(t1_raw!G1&lt;&gt;0, t1_raw!G1, "")</f>
         <v>48†</v>
       </c>
@@ -2166,7 +2130,7 @@
         <f>IF(t1_raw!B1&lt;&gt;0, t1_raw!B1, "")</f>
         <v>0.15399999916553497</v>
       </c>
-      <c r="D5" s="111" t="str">
+      <c r="D5" s="115" t="str">
         <f>IF(AND(t1_raw!H1&lt;&gt;"NA",t1_raw!H1&lt;&gt;0), t1_raw!H1, "")</f>
         <v/>
       </c>
@@ -2174,7 +2138,7 @@
         <f>IF(t1_raw!C2&lt;&gt;0, t1_raw!C2, "")</f>
         <v/>
       </c>
-      <c r="F5" s="111" t="str">
+      <c r="F5" s="115" t="str">
         <f>IF(AND(t1_raw!I1&lt;&gt;"NA",t1_raw!I1&lt;&gt;0), t1_raw!I1, "")</f>
         <v/>
       </c>
@@ -2182,7 +2146,7 @@
         <f>IF(t1_raw!D2&lt;&gt;0, t1_raw!D2, "")</f>
         <v/>
       </c>
-      <c r="H5" s="111" t="str">
+      <c r="H5" s="115" t="str">
         <f>IF(AND(t1_raw!J1&lt;&gt;"NA",t1_raw!J1&lt;&gt;0), t1_raw!J1, "")</f>
         <v/>
       </c>
@@ -2190,24 +2154,24 @@
         <f>IF(t1_raw!E2&lt;&gt;0, t1_raw!E2, "")</f>
         <v/>
       </c>
-      <c r="J5" s="109">
+      <c r="J5" s="113">
         <f>t1_raw!F1</f>
         <v>0.7621428498200008</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4"/>
-      <c r="B6" s="111"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="5" t="str">
         <f>IF(t1_raw!B2&gt;0, "("&amp;ROUND(t1_raw!B2, 3)&amp;")", "")</f>
         <v>(0.089)</v>
       </c>
-      <c r="D6" s="111"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="5" t="str">
         <f>IF(t1_raw!C2&gt;0, "("&amp;ROUND(t1_raw!C2, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F6" s="111" t="str">
+      <c r="F6" s="115" t="str">
         <f>IF(t1_raw!I2&lt;&gt;0, t1_raw!I2, "")</f>
         <v/>
       </c>
@@ -2215,19 +2179,19 @@
         <f>IF(t1_raw!D2&gt;0, "("&amp;ROUND(t1_raw!D2, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H6" s="111"/>
+      <c r="H6" s="115"/>
       <c r="I6" s="5" t="str">
         <f>IF(t1_raw!E2&gt;0, "("&amp;ROUND(t1_raw!E2, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J6" s="109"/>
+      <c r="J6" s="113"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="str">
         <f>IF(t1_raw!A3&lt;&gt;"",t1_raw!A3,"")</f>
         <v>Awasthi 1995/2008</v>
       </c>
-      <c r="B7" s="111" t="str">
+      <c r="B7" s="115" t="str">
         <f>IF(t1_raw!G3&lt;&gt;0, t1_raw!G3, "")</f>
         <v>50†</v>
       </c>
@@ -2235,7 +2199,7 @@
         <f>IF(t1_raw!B3&lt;&gt;0, t1_raw!B3, "")</f>
         <v>0.98000001907348633</v>
       </c>
-      <c r="D7" s="111" t="str">
+      <c r="D7" s="115" t="str">
         <f>IF(t1_raw!H3&lt;&gt;0, t1_raw!H3, "")</f>
         <v>50†</v>
       </c>
@@ -2243,7 +2207,7 @@
         <f>IF(t1_raw!C4&lt;&gt;0, t1_raw!C4, "")</f>
         <v>1.2041594982147217</v>
       </c>
-      <c r="F7" s="111" t="str">
+      <c r="F7" s="115" t="str">
         <f>IF(AND(t1_raw!I3&lt;&gt;"NA",t1_raw!I3&lt;&gt;0), t1_raw!I3, "")</f>
         <v/>
       </c>
@@ -2251,7 +2215,7 @@
         <f>IF(t1_raw!D4&lt;&gt;0, t1_raw!D4, "")</f>
         <v/>
       </c>
-      <c r="H7" s="111" t="str">
+      <c r="H7" s="115" t="str">
         <f>IF(AND(t1_raw!J3&lt;&gt;"NA",t1_raw!J3&lt;&gt;0), t1_raw!J3, "")</f>
         <v/>
       </c>
@@ -2259,24 +2223,24 @@
         <f>IF(t1_raw!E4&lt;&gt;0, t1_raw!E4, "")</f>
         <v/>
       </c>
-      <c r="J7" s="109">
+      <c r="J7" s="113">
         <f>t1_raw!F3</f>
         <v>7.6666666815678297E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4"/>
-      <c r="B8" s="111"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="5" t="str">
         <f>IF(t1_raw!B4&gt;0, "("&amp;ROUND(t1_raw!B4, 3)&amp;")", "")</f>
         <v>(0.148)</v>
       </c>
-      <c r="D8" s="111"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="5" t="str">
         <f>IF(t1_raw!C4&gt;0, "("&amp;ROUND(t1_raw!C4, 3)&amp;")", "")</f>
         <v>(1.204)</v>
       </c>
-      <c r="F8" s="111" t="str">
+      <c r="F8" s="115" t="str">
         <f>IF(t1_raw!I4&lt;&gt;0, t1_raw!I4, "")</f>
         <v/>
       </c>
@@ -2284,19 +2248,19 @@
         <f>IF(t1_raw!D4&gt;0, "("&amp;ROUND(t1_raw!D4, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H8" s="111"/>
+      <c r="H8" s="115"/>
       <c r="I8" s="5" t="str">
         <f>IF(t1_raw!E4&gt;0, "("&amp;ROUND(t1_raw!E4, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J8" s="109"/>
+      <c r="J8" s="113"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="str">
         <f>IF(t1_raw!A5&lt;&gt;"",t1_raw!A5,"")</f>
         <v>Awasthi 2000</v>
       </c>
-      <c r="B9" s="111" t="str">
+      <c r="B9" s="115" t="str">
         <f>IF(t1_raw!G5&lt;&gt;0, t1_raw!G5, "")</f>
         <v>1045</v>
       </c>
@@ -2304,7 +2268,7 @@
         <f>IF(t1_raw!B5&lt;&gt;0, t1_raw!B5, "")</f>
         <v>-5.000000074505806E-2</v>
       </c>
-      <c r="D9" s="111" t="str">
+      <c r="D9" s="115" t="str">
         <f>IF(t1_raw!H5&lt;&gt;0, t1_raw!H5, "")</f>
         <v>1045</v>
       </c>
@@ -2312,7 +2276,7 @@
         <f>IF(t1_raw!C6&lt;&gt;0, t1_raw!C6, "")</f>
         <v>0.31389674544334412</v>
       </c>
-      <c r="F9" s="111" t="str">
+      <c r="F9" s="115" t="str">
         <f>IF(AND(t1_raw!I5&lt;&gt;"NA",t1_raw!I5&lt;&gt;0), t1_raw!I5, "")</f>
         <v/>
       </c>
@@ -2320,7 +2284,7 @@
         <f>IF(t1_raw!D6&lt;&gt;0, t1_raw!D6, "")</f>
         <v/>
       </c>
-      <c r="H9" s="111" t="str">
+      <c r="H9" s="115" t="str">
         <f>IF(t1_raw!J5&lt;&gt;0, t1_raw!J5, "")</f>
         <v>1045</v>
       </c>
@@ -2328,24 +2292,24 @@
         <f>IF(t1_raw!E6&lt;&gt;0, t1_raw!E6, "")</f>
         <v>4.0943481028079987E-2</v>
       </c>
-      <c r="J9" s="109">
+      <c r="J9" s="113">
         <f>t1_raw!F5</f>
         <v>0.12</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4"/>
-      <c r="B10" s="111"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="5" t="str">
         <f>IF(t1_raw!B6&gt;0, "("&amp;ROUND(t1_raw!B6, 3)&amp;")", "")</f>
         <v>(0.076)</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="115"/>
       <c r="E10" s="5" t="str">
         <f>IF(t1_raw!C6&gt;0, "("&amp;ROUND(t1_raw!C6, 3)&amp;")", "")</f>
         <v>(0.314)</v>
       </c>
-      <c r="F10" s="111" t="str">
+      <c r="F10" s="115" t="str">
         <f>IF(t1_raw!I6&lt;&gt;0, t1_raw!I6, "")</f>
         <v/>
       </c>
@@ -2353,19 +2317,19 @@
         <f>IF(t1_raw!D6&gt;0, "("&amp;ROUND(t1_raw!D6, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H10" s="111"/>
+      <c r="H10" s="115"/>
       <c r="I10" s="5" t="str">
         <f>IF(t1_raw!E6&gt;0, "("&amp;ROUND(t1_raw!E6, 3)&amp;")", "")</f>
         <v>(0.041)</v>
       </c>
-      <c r="J10" s="109"/>
+      <c r="J10" s="113"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="str">
         <f>IF(t1_raw!A7&lt;&gt;"",t1_raw!A7,"")</f>
         <v>Awasthi 2001</v>
       </c>
-      <c r="B11" s="111" t="str">
+      <c r="B11" s="115" t="str">
         <f>IF(t1_raw!G7&lt;&gt;0, t1_raw!G7, "")</f>
         <v>124†</v>
       </c>
@@ -2373,7 +2337,7 @@
         <f>IF(t1_raw!B7&lt;&gt;0, t1_raw!B7, "")</f>
         <v>0.17000000178813934</v>
       </c>
-      <c r="D11" s="111" t="str">
+      <c r="D11" s="115" t="str">
         <f>IF(t1_raw!H7&lt;&gt;0, t1_raw!H7, "")</f>
         <v>124†</v>
       </c>
@@ -2381,7 +2345,7 @@
         <f>IF(t1_raw!C8&lt;&gt;0, t1_raw!C8, "")</f>
         <v>0.31043145060539246</v>
       </c>
-      <c r="F11" s="111" t="str">
+      <c r="F11" s="115" t="str">
         <f>IF(AND(t1_raw!I7&lt;&gt;"NA",t1_raw!I7&lt;&gt;0), t1_raw!I7, "")</f>
         <v/>
       </c>
@@ -2389,7 +2353,7 @@
         <f>IF(t1_raw!D8&lt;&gt;0, t1_raw!D8, "")</f>
         <v/>
       </c>
-      <c r="H11" s="111" t="str">
+      <c r="H11" s="115" t="str">
         <f>IF(AND(t1_raw!J7&lt;&gt;"NA",t1_raw!J7&lt;&gt;0), t1_raw!J7, "")</f>
         <v/>
       </c>
@@ -2397,24 +2361,24 @@
         <f>IF(t1_raw!E8&lt;&gt;0, t1_raw!E8, "")</f>
         <v/>
       </c>
-      <c r="J11" s="109">
+      <c r="J11" s="113">
         <f>t1_raw!F7</f>
         <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4"/>
-      <c r="B12" s="111"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="5" t="str">
         <f>IF(t1_raw!B8&gt;0, "("&amp;ROUND(t1_raw!B8, 3)&amp;")", "")</f>
         <v>(0.065)</v>
       </c>
-      <c r="D12" s="111"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="5" t="str">
         <f>IF(t1_raw!C8&gt;0, "("&amp;ROUND(t1_raw!C8, 3)&amp;")", "")</f>
         <v>(0.31)</v>
       </c>
-      <c r="F12" s="111" t="str">
+      <c r="F12" s="115" t="str">
         <f>IF(t1_raw!I8&lt;&gt;0, t1_raw!I8, "")</f>
         <v/>
       </c>
@@ -2422,19 +2386,19 @@
         <f>IF(t1_raw!D8&gt;0, "("&amp;ROUND(t1_raw!D8, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H12" s="111"/>
+      <c r="H12" s="115"/>
       <c r="I12" s="5" t="str">
         <f>IF(t1_raw!E8&gt;0, "("&amp;ROUND(t1_raw!E8, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J12" s="109"/>
+      <c r="J12" s="113"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="str">
         <f>IF(t1_raw!A9&lt;&gt;"",t1_raw!A9,"")</f>
         <v>Carmona-Fonseca 2015a</v>
       </c>
-      <c r="B13" s="111" t="str">
+      <c r="B13" s="115" t="str">
         <f>IF(t1_raw!G9&lt;&gt;0, t1_raw!G9, "")</f>
         <v>603</v>
       </c>
@@ -2442,7 +2406,7 @@
         <f>IF(t1_raw!B9&lt;&gt;0, t1_raw!B9, "")</f>
         <v>0.20115585625171661</v>
       </c>
-      <c r="D13" s="111" t="str">
+      <c r="D13" s="115" t="str">
         <f>IF(t1_raw!H9&lt;&gt;0, t1_raw!H9, "")</f>
         <v>601</v>
       </c>
@@ -2450,7 +2414,7 @@
         <f>IF(t1_raw!C10&lt;&gt;0, t1_raw!C10, "")</f>
         <v>0.19343018531799316</v>
       </c>
-      <c r="F13" s="111" t="str">
+      <c r="F13" s="115" t="str">
         <f>IF(AND(t1_raw!I9&lt;&gt;"NA",t1_raw!I9&lt;&gt;0), t1_raw!I9, "")</f>
         <v/>
       </c>
@@ -2458,7 +2422,7 @@
         <f>IF(t1_raw!D10&lt;&gt;0, t1_raw!D10, "")</f>
         <v/>
       </c>
-      <c r="H13" s="111" t="str">
+      <c r="H13" s="115" t="str">
         <f>IF(t1_raw!J9&lt;&gt;0, t1_raw!J9, "")</f>
         <v>586</v>
       </c>
@@ -2466,24 +2430,24 @@
         <f>IF(t1_raw!E10&lt;&gt;0, t1_raw!E10, "")</f>
         <v>9.1291353106498718E-2</v>
       </c>
-      <c r="J13" s="109">
+      <c r="J13" s="113">
         <f>t1_raw!F9</f>
         <v>0.45</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4"/>
-      <c r="B14" s="111"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="5" t="str">
         <f>IF(t1_raw!B10&gt;0, "("&amp;ROUND(t1_raw!B10, 3)&amp;")", "")</f>
         <v>(0.136)</v>
       </c>
-      <c r="D14" s="111"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="5" t="str">
         <f>IF(t1_raw!C10&gt;0, "("&amp;ROUND(t1_raw!C10, 3)&amp;")", "")</f>
         <v>(0.193)</v>
       </c>
-      <c r="F14" s="111" t="str">
+      <c r="F14" s="115" t="str">
         <f>IF(t1_raw!I10&lt;&gt;0, t1_raw!I10, "")</f>
         <v/>
       </c>
@@ -2491,19 +2455,19 @@
         <f>IF(t1_raw!D10&gt;0, "("&amp;ROUND(t1_raw!D10, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H14" s="111"/>
+      <c r="H14" s="115"/>
       <c r="I14" s="5" t="str">
         <f>IF(t1_raw!E10&gt;0, "("&amp;ROUND(t1_raw!E10, 3)&amp;")", "")</f>
         <v>(0.091)</v>
       </c>
-      <c r="J14" s="109"/>
+      <c r="J14" s="113"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="str">
         <f>IF(t1_raw!A11&lt;&gt;"",t1_raw!A11,"")</f>
         <v>Carmona-Fonseca 2015b</v>
       </c>
-      <c r="B15" s="111" t="str">
+      <c r="B15" s="115" t="str">
         <f>IF(t1_raw!G11&lt;&gt;0, t1_raw!G11, "")</f>
         <v>658</v>
       </c>
@@ -2511,7 +2475,7 @@
         <f>IF(t1_raw!B11&lt;&gt;0, t1_raw!B11, "")</f>
         <v>6.1926901340484619E-2</v>
       </c>
-      <c r="D15" s="111" t="str">
+      <c r="D15" s="115" t="str">
         <f>IF(t1_raw!H11&lt;&gt;0, t1_raw!H11, "")</f>
         <v>657</v>
       </c>
@@ -2519,7 +2483,7 @@
         <f>IF(t1_raw!C12&lt;&gt;0, t1_raw!C12, "")</f>
         <v>0.19349321722984314</v>
       </c>
-      <c r="F15" s="111" t="str">
+      <c r="F15" s="115" t="str">
         <f>IF(AND(t1_raw!I11&lt;&gt;"NA",t1_raw!I11&lt;&gt;0), t1_raw!I11, "")</f>
         <v/>
       </c>
@@ -2527,7 +2491,7 @@
         <f>IF(t1_raw!D12&lt;&gt;0, t1_raw!D12, "")</f>
         <v/>
       </c>
-      <c r="H15" s="111" t="str">
+      <c r="H15" s="115" t="str">
         <f>IF(t1_raw!J11&lt;&gt;0, t1_raw!J11, "")</f>
         <v>624</v>
       </c>
@@ -2535,24 +2499,24 @@
         <f>IF(t1_raw!E12&lt;&gt;0, t1_raw!E12, "")</f>
         <v>8.1622757017612457E-2</v>
       </c>
-      <c r="J15" s="109">
+      <c r="J15" s="113">
         <f>t1_raw!F11</f>
         <v>0.45</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4"/>
-      <c r="B16" s="111"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="5" t="str">
         <f>IF(t1_raw!B12&gt;0, "("&amp;ROUND(t1_raw!B12, 3)&amp;")", "")</f>
         <v>(0.118)</v>
       </c>
-      <c r="D16" s="111"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="5" t="str">
         <f>IF(t1_raw!C12&gt;0, "("&amp;ROUND(t1_raw!C12, 3)&amp;")", "")</f>
         <v>(0.193)</v>
       </c>
-      <c r="F16" s="111" t="str">
+      <c r="F16" s="115" t="str">
         <f>IF(t1_raw!I12&lt;&gt;0, t1_raw!I12, "")</f>
         <v/>
       </c>
@@ -2560,19 +2524,19 @@
         <f>IF(t1_raw!D12&gt;0, "("&amp;ROUND(t1_raw!D12, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H16" s="111"/>
+      <c r="H16" s="115"/>
       <c r="I16" s="5" t="str">
         <f>IF(t1_raw!E12&gt;0, "("&amp;ROUND(t1_raw!E12, 3)&amp;")", "")</f>
         <v>(0.082)</v>
       </c>
-      <c r="J16" s="109"/>
+      <c r="J16" s="113"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="str">
         <f>IF(t1_raw!A13&lt;&gt;"",t1_raw!A13,"")</f>
         <v>Donnen 1998</v>
       </c>
-      <c r="B17" s="111" t="str">
+      <c r="B17" s="115" t="str">
         <f>IF(t1_raw!G13&lt;&gt;0, t1_raw!G13, "")</f>
         <v>198</v>
       </c>
@@ -2580,7 +2544,7 @@
         <f>IF(t1_raw!B13&lt;&gt;0, t1_raw!B13, "")</f>
         <v>-0.44999998807907104</v>
       </c>
-      <c r="D17" s="111" t="str">
+      <c r="D17" s="115" t="str">
         <f>IF(t1_raw!H13&lt;&gt;0, t1_raw!H13, "")</f>
         <v>198</v>
       </c>
@@ -2588,7 +2552,7 @@
         <f>IF(t1_raw!C14&lt;&gt;0, t1_raw!C14, "")</f>
         <v>0.5522913932800293</v>
       </c>
-      <c r="F17" s="111" t="str">
+      <c r="F17" s="115" t="str">
         <f>IF(t1_raw!I13&lt;&gt;0, t1_raw!I13, "")</f>
         <v>198</v>
       </c>
@@ -2596,7 +2560,7 @@
         <f>IF(t1_raw!D14&lt;&gt;0, t1_raw!D14, "")</f>
         <v>0.15404742956161499</v>
       </c>
-      <c r="H17" s="111" t="str">
+      <c r="H17" s="115" t="str">
         <f>IF(AND(t1_raw!J13&lt;&gt;"NA",t1_raw!J13&lt;&gt;0), t1_raw!J13, "")</f>
         <v/>
       </c>
@@ -2604,41 +2568,41 @@
         <f>IF(t1_raw!E14&lt;&gt;0, t1_raw!E14, "")</f>
         <v/>
       </c>
-      <c r="J17" s="109">
+      <c r="J17" s="113">
         <f>t1_raw!F13</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4"/>
-      <c r="B18" s="111"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="5" t="str">
         <f>IF(t1_raw!B14&gt;0, "("&amp;ROUND(t1_raw!B14, 3)&amp;")", "")</f>
         <v>(0.167)</v>
       </c>
-      <c r="D18" s="111"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="5" t="str">
         <f>IF(t1_raw!C14&gt;0, "("&amp;ROUND(t1_raw!C14, 3)&amp;")", "")</f>
         <v>(0.552)</v>
       </c>
-      <c r="F18" s="111"/>
+      <c r="F18" s="115"/>
       <c r="G18" s="5" t="str">
         <f>IF(t1_raw!D14&gt;0, "("&amp;ROUND(t1_raw!D14, 3)&amp;")", "")</f>
         <v>(0.154)</v>
       </c>
-      <c r="H18" s="111"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="5" t="str">
         <f>IF(t1_raw!E14&gt;0, "("&amp;ROUND(t1_raw!E14, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J18" s="109"/>
+      <c r="J18" s="113"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="str">
         <f>IF(t1_raw!A15&lt;&gt;"",t1_raw!A15,"")</f>
         <v>Dossa 2001a</v>
       </c>
-      <c r="B19" s="111" t="str">
+      <c r="B19" s="115" t="str">
         <f>IF(t1_raw!G15&lt;&gt;0, t1_raw!G15, "")</f>
         <v>65</v>
       </c>
@@ -2646,7 +2610,7 @@
         <f>IF(t1_raw!B15&lt;&gt;0, t1_raw!B15, "")</f>
         <v/>
       </c>
-      <c r="D19" s="111" t="str">
+      <c r="D19" s="115" t="str">
         <f>IF(t1_raw!H15&lt;&gt;0, t1_raw!H15, "")</f>
         <v>65</v>
       </c>
@@ -2654,7 +2618,7 @@
         <f>IF(t1_raw!C16&lt;&gt;0, t1_raw!C16, "")</f>
         <v>0.63711613416671753</v>
       </c>
-      <c r="F19" s="111" t="str">
+      <c r="F19" s="115" t="str">
         <f>IF(t1_raw!I15&lt;&gt;0, t1_raw!I15, "")</f>
         <v>65</v>
       </c>
@@ -2662,7 +2626,7 @@
         <f>IF(t1_raw!D16&lt;&gt;0, t1_raw!D16, "")</f>
         <v>0.21500201523303986</v>
       </c>
-      <c r="H19" s="111" t="str">
+      <c r="H19" s="115" t="str">
         <f>IF(t1_raw!J15&lt;&gt;0, t1_raw!J15, "")</f>
         <v>70</v>
       </c>
@@ -2670,41 +2634,41 @@
         <f>IF(t1_raw!E16&lt;&gt;0, t1_raw!E16, "")</f>
         <v>0.29912152886390686</v>
       </c>
-      <c r="J19" s="109">
+      <c r="J19" s="113">
         <f>t1_raw!F15</f>
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4"/>
-      <c r="B20" s="111"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="5" t="str">
         <f>IF(t1_raw!B16&gt;0, "("&amp;ROUND(t1_raw!B16, 3)&amp;")", "")</f>
         <v>(0.265)</v>
       </c>
-      <c r="D20" s="111"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="5" t="str">
         <f>IF(t1_raw!C16&gt;0, "("&amp;ROUND(t1_raw!C16, 3)&amp;")", "")</f>
         <v>(0.637)</v>
       </c>
-      <c r="F20" s="111"/>
+      <c r="F20" s="115"/>
       <c r="G20" s="5" t="str">
         <f>IF(t1_raw!D16&gt;0, "("&amp;ROUND(t1_raw!D16, 3)&amp;")", "")</f>
         <v>(0.215)</v>
       </c>
-      <c r="H20" s="111"/>
+      <c r="H20" s="115"/>
       <c r="I20" s="5" t="str">
         <f>IF(t1_raw!E16&gt;0, "("&amp;ROUND(t1_raw!E16, 3)&amp;")", "")</f>
         <v>(0.299)</v>
       </c>
-      <c r="J20" s="109"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="str">
         <f>IF(t1_raw!A17&lt;&gt;"",t1_raw!A17,"")</f>
         <v>Dossa 2001b</v>
       </c>
-      <c r="B21" s="111" t="str">
+      <c r="B21" s="115" t="str">
         <f>IF(t1_raw!G17&lt;&gt;0, t1_raw!G17, "")</f>
         <v>64</v>
       </c>
@@ -2712,7 +2676,7 @@
         <f>IF(t1_raw!B17&lt;&gt;0, t1_raw!B17, "")</f>
         <v/>
       </c>
-      <c r="D21" s="111" t="str">
+      <c r="D21" s="115" t="str">
         <f>IF(t1_raw!H17&lt;&gt;0, t1_raw!H17, "")</f>
         <v>64</v>
       </c>
@@ -2720,7 +2684,7 @@
         <f>IF(t1_raw!C18&lt;&gt;0, t1_raw!C18, "")</f>
         <v>0.31692251563072205</v>
       </c>
-      <c r="F21" s="111" t="str">
+      <c r="F21" s="115" t="str">
         <f>IF(t1_raw!I17&lt;&gt;0, t1_raw!I17, "")</f>
         <v>64</v>
       </c>
@@ -2728,7 +2692,7 @@
         <f>IF(t1_raw!D18&lt;&gt;0, t1_raw!D18, "")</f>
         <v>0.18761767446994781</v>
       </c>
-      <c r="H21" s="111" t="str">
+      <c r="H21" s="115" t="str">
         <f>IF(t1_raw!J17&lt;&gt;0, t1_raw!J17, "")</f>
         <v>68</v>
       </c>
@@ -2736,41 +2700,41 @@
         <f>IF(t1_raw!E18&lt;&gt;0, t1_raw!E18, "")</f>
         <v>0.32943803071975708</v>
       </c>
-      <c r="J21" s="109">
+      <c r="J21" s="113">
         <f>t1_raw!F17</f>
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4"/>
-      <c r="B22" s="111"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="5" t="str">
         <f>IF(t1_raw!B18&gt;0, "("&amp;ROUND(t1_raw!B18, 3)&amp;")", "")</f>
         <v>(0.139)</v>
       </c>
-      <c r="D22" s="111"/>
+      <c r="D22" s="115"/>
       <c r="E22" s="5" t="str">
         <f>IF(t1_raw!C18&gt;0, "("&amp;ROUND(t1_raw!C18, 3)&amp;")", "")</f>
         <v>(0.317)</v>
       </c>
-      <c r="F22" s="111"/>
+      <c r="F22" s="115"/>
       <c r="G22" s="5" t="str">
         <f>IF(t1_raw!D18&gt;0, "("&amp;ROUND(t1_raw!D18, 3)&amp;")", "")</f>
         <v>(0.188)</v>
       </c>
-      <c r="H22" s="111"/>
+      <c r="H22" s="115"/>
       <c r="I22" s="5" t="str">
         <f>IF(t1_raw!E18&gt;0, "("&amp;ROUND(t1_raw!E18, 3)&amp;")", "")</f>
         <v>(0.329)</v>
       </c>
-      <c r="J22" s="109"/>
+      <c r="J22" s="113"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="str">
         <f>IF(t1_raw!A19&lt;&gt;"",t1_raw!A19,"")</f>
         <v>Gateff 1972</v>
       </c>
-      <c r="B23" s="111" t="str">
+      <c r="B23" s="115" t="str">
         <f>IF(t1_raw!G19&lt;&gt;0, t1_raw!G19, "")</f>
         <v>280</v>
       </c>
@@ -2778,7 +2742,7 @@
         <f>IF(t1_raw!B19&lt;&gt;0, t1_raw!B19, "")</f>
         <v>0.34729999303817749</v>
       </c>
-      <c r="D23" s="111" t="str">
+      <c r="D23" s="115" t="str">
         <f>IF(AND(t1_raw!H19&lt;&gt;"NA",t1_raw!H19&lt;&gt;0), t1_raw!H19, "")</f>
         <v/>
       </c>
@@ -2786,7 +2750,7 @@
         <f>IF(t1_raw!C20&lt;&gt;0, t1_raw!C20, "")</f>
         <v/>
       </c>
-      <c r="F23" s="111" t="str">
+      <c r="F23" s="115" t="str">
         <f>IF(AND(t1_raw!I19&lt;&gt;"NA",t1_raw!I19&lt;&gt;0), t1_raw!I19, "")</f>
         <v/>
       </c>
@@ -2794,7 +2758,7 @@
         <f>IF(t1_raw!D20&lt;&gt;0, t1_raw!D20, "")</f>
         <v/>
       </c>
-      <c r="H23" s="111" t="str">
+      <c r="H23" s="115" t="str">
         <f>IF(AND(t1_raw!J19&lt;&gt;"NA",t1_raw!J19&lt;&gt;0), t1_raw!J19, "")</f>
         <v/>
       </c>
@@ -2802,14 +2766,14 @@
         <f>IF(t1_raw!E20&lt;&gt;0, t1_raw!E20, "")</f>
         <v/>
       </c>
-      <c r="J23" s="109">
+      <c r="J23" s="113">
         <f>t1_raw!F19</f>
         <v>0.7621428498200008</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4"/>
-      <c r="B24" s="111" t="str">
+      <c r="B24" s="115" t="str">
         <f>IF(t1_raw!G20&lt;&gt;0, t1_raw!G20, "")</f>
         <v/>
       </c>
@@ -2817,12 +2781,12 @@
         <f>IF(t1_raw!B20&gt;0, "("&amp;ROUND(t1_raw!B20, 3)&amp;")", "")</f>
         <v>(0.131)</v>
       </c>
-      <c r="D24" s="111"/>
+      <c r="D24" s="115"/>
       <c r="E24" s="5" t="str">
         <f>IF(t1_raw!C20&gt;0, "("&amp;ROUND(t1_raw!C20, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F24" s="111" t="str">
+      <c r="F24" s="115" t="str">
         <f>IF(t1_raw!I20&lt;&gt;0, t1_raw!I20, "")</f>
         <v/>
       </c>
@@ -2830,19 +2794,19 @@
         <f>IF(t1_raw!D20&gt;0, "("&amp;ROUND(t1_raw!D20, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H24" s="111"/>
+      <c r="H24" s="115"/>
       <c r="I24" s="5" t="str">
         <f>IF(t1_raw!E20&gt;0, "("&amp;ROUND(t1_raw!E20, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J24" s="109"/>
+      <c r="J24" s="113"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="str">
         <f>IF(t1_raw!A21&lt;&gt;"",t1_raw!A21,"")</f>
         <v>Gupta 1982a</v>
       </c>
-      <c r="B25" s="111" t="str">
+      <c r="B25" s="115" t="str">
         <f>IF(t1_raw!G21&lt;&gt;0, t1_raw!G21, "")</f>
         <v>78</v>
       </c>
@@ -2850,7 +2814,7 @@
         <f>IF(t1_raw!B21&lt;&gt;0, t1_raw!B21, "")</f>
         <v>2.6599999517202377E-2</v>
       </c>
-      <c r="D25" s="111" t="str">
+      <c r="D25" s="115" t="str">
         <f>IF(t1_raw!H21&lt;&gt;0, t1_raw!H21, "")</f>
         <v>78</v>
       </c>
@@ -2858,7 +2822,7 @@
         <f>IF(t1_raw!C22&lt;&gt;0, t1_raw!C22, "")</f>
         <v>0.44416540861129761</v>
       </c>
-      <c r="F25" s="111" t="str">
+      <c r="F25" s="115" t="str">
         <f>IF(AND(t1_raw!I21&lt;&gt;"NA",t1_raw!I21&lt;&gt;0), t1_raw!I21, "")</f>
         <v/>
       </c>
@@ -2866,7 +2830,7 @@
         <f>IF(t1_raw!D22&lt;&gt;0, t1_raw!D22, "")</f>
         <v/>
       </c>
-      <c r="H25" s="111" t="str">
+      <c r="H25" s="115" t="str">
         <f>IF(AND(t1_raw!J21&lt;&gt;"NA",t1_raw!J21&lt;&gt;0), t1_raw!J21, "")</f>
         <v/>
       </c>
@@ -2874,14 +2838,14 @@
         <f>IF(t1_raw!E22&lt;&gt;0, t1_raw!E22, "")</f>
         <v/>
       </c>
-      <c r="J25" s="109">
+      <c r="J25" s="113">
         <f>t1_raw!F21</f>
         <v>0.62</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4"/>
-      <c r="B26" s="111" t="str">
+      <c r="B26" s="115" t="str">
         <f>IF(t1_raw!G22&lt;&gt;0, t1_raw!G22, "")</f>
         <v/>
       </c>
@@ -2889,7 +2853,7 @@
         <f>IF(t1_raw!B22&gt;0, "("&amp;ROUND(t1_raw!B22, 3)&amp;")", "")</f>
         <v>(0.175)</v>
       </c>
-      <c r="D26" s="111" t="str">
+      <c r="D26" s="115" t="str">
         <f>IF(t1_raw!H22&lt;&gt;0, t1_raw!H22, "")</f>
         <v/>
       </c>
@@ -2897,7 +2861,7 @@
         <f>IF(t1_raw!C22&gt;0, "("&amp;ROUND(t1_raw!C22, 3)&amp;")", "")</f>
         <v>(0.444)</v>
       </c>
-      <c r="F26" s="111" t="str">
+      <c r="F26" s="115" t="str">
         <f>IF(t1_raw!I22&lt;&gt;0, t1_raw!I22, "")</f>
         <v/>
       </c>
@@ -2905,19 +2869,19 @@
         <f>IF(t1_raw!D22&gt;0, "("&amp;ROUND(t1_raw!D22, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H26" s="111"/>
+      <c r="H26" s="115"/>
       <c r="I26" s="5" t="str">
         <f>IF(t1_raw!E22&gt;0, "("&amp;ROUND(t1_raw!E22, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J26" s="109"/>
+      <c r="J26" s="113"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="str">
         <f>IF(t1_raw!A23&lt;&gt;"",t1_raw!A23,"")</f>
         <v>Gupta 1982b</v>
       </c>
-      <c r="B27" s="111" t="str">
+      <c r="B27" s="115" t="str">
         <f>IF(t1_raw!G23&lt;&gt;0, t1_raw!G23, "")</f>
         <v>81</v>
       </c>
@@ -2925,7 +2889,7 @@
         <f>IF(t1_raw!B23&lt;&gt;0, t1_raw!B23, "")</f>
         <v>0.12950000166893005</v>
       </c>
-      <c r="D27" s="111" t="str">
+      <c r="D27" s="115" t="str">
         <f>IF(t1_raw!H23&lt;&gt;0, t1_raw!H23, "")</f>
         <v>81</v>
       </c>
@@ -2933,7 +2897,7 @@
         <f>IF(t1_raw!C24&lt;&gt;0, t1_raw!C24, "")</f>
         <v>0.47371479868888855</v>
       </c>
-      <c r="F27" s="111" t="str">
+      <c r="F27" s="115" t="str">
         <f>IF(AND(t1_raw!I23&lt;&gt;"NA",t1_raw!I23&lt;&gt;0), t1_raw!I23, "")</f>
         <v/>
       </c>
@@ -2941,7 +2905,7 @@
         <f>IF(t1_raw!D24&lt;&gt;0, t1_raw!D24, "")</f>
         <v/>
       </c>
-      <c r="H27" s="111" t="str">
+      <c r="H27" s="115" t="str">
         <f>IF(AND(t1_raw!J23&lt;&gt;"NA",t1_raw!J23&lt;&gt;0), t1_raw!J23, "")</f>
         <v/>
       </c>
@@ -2949,14 +2913,14 @@
         <f>IF(t1_raw!E24&lt;&gt;0, t1_raw!E24, "")</f>
         <v/>
       </c>
-      <c r="J27" s="109">
+      <c r="J27" s="113">
         <f>t1_raw!F23</f>
         <v>0.59</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4"/>
-      <c r="B28" s="111" t="str">
+      <c r="B28" s="115" t="str">
         <f>IF(t1_raw!G24&lt;&gt;0, t1_raw!G24, "")</f>
         <v/>
       </c>
@@ -2964,7 +2928,7 @@
         <f>IF(t1_raw!B24&gt;0, "("&amp;ROUND(t1_raw!B24, 3)&amp;")", "")</f>
         <v>(0.148)</v>
       </c>
-      <c r="D28" s="111" t="str">
+      <c r="D28" s="115" t="str">
         <f>IF(t1_raw!H24&lt;&gt;0, t1_raw!H24, "")</f>
         <v/>
       </c>
@@ -2972,7 +2936,7 @@
         <f>IF(t1_raw!C24&gt;0, "("&amp;ROUND(t1_raw!C24, 3)&amp;")", "")</f>
         <v>(0.474)</v>
       </c>
-      <c r="F28" s="111" t="str">
+      <c r="F28" s="115" t="str">
         <f>IF(t1_raw!I24&lt;&gt;0, t1_raw!I24, "")</f>
         <v/>
       </c>
@@ -2980,19 +2944,19 @@
         <f>IF(t1_raw!D24&gt;0, "("&amp;ROUND(t1_raw!D24, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H28" s="111"/>
+      <c r="H28" s="115"/>
       <c r="I28" s="5" t="str">
         <f>IF(t1_raw!E24&gt;0, "("&amp;ROUND(t1_raw!E24, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J28" s="109"/>
+      <c r="J28" s="113"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4" t="str">
         <f>IF(t1_raw!A25&lt;&gt;"",t1_raw!A25,"")</f>
         <v>Hall 2006</v>
       </c>
-      <c r="B29" s="111" t="str">
+      <c r="B29" s="115" t="str">
         <f>IF(t1_raw!G25&lt;&gt;0, t1_raw!G25, "")</f>
         <v>80†</v>
       </c>
@@ -3000,7 +2964,7 @@
         <f>IF(t1_raw!B25&lt;&gt;0, t1_raw!B25, "")</f>
         <v>5.4233498871326447E-2</v>
       </c>
-      <c r="D29" s="111" t="str">
+      <c r="D29" s="115" t="str">
         <f>IF(t1_raw!H25&lt;&gt;0, t1_raw!H25, "")</f>
         <v>80†</v>
       </c>
@@ -3008,7 +2972,7 @@
         <f>IF(t1_raw!C26&lt;&gt;0, t1_raw!C26, "")</f>
         <v>8.2118496298789978E-2</v>
       </c>
-      <c r="F29" s="111" t="str">
+      <c r="F29" s="115" t="str">
         <f>IF(t1_raw!I25&lt;&gt;0, t1_raw!I25, "")</f>
         <v>80†</v>
       </c>
@@ -3016,7 +2980,7 @@
         <f>IF(t1_raw!D26&lt;&gt;0, t1_raw!D26, "")</f>
         <v>0.31427818536758423</v>
       </c>
-      <c r="H29" s="111" t="str">
+      <c r="H29" s="115" t="str">
         <f>IF(AND(t1_raw!J25&lt;&gt;"NA",t1_raw!J25&lt;&gt;0), t1_raw!J25, "")</f>
         <v/>
       </c>
@@ -3024,14 +2988,14 @@
         <f>IF(t1_raw!E26&lt;&gt;0, t1_raw!E26, "")</f>
         <v/>
       </c>
-      <c r="J29" s="109">
+      <c r="J29" s="113">
         <f>t1_raw!F25</f>
         <v>0.84</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4"/>
-      <c r="B30" s="111" t="str">
+      <c r="B30" s="115" t="str">
         <f>IF(t1_raw!G26&lt;&gt;0, t1_raw!G26, "")</f>
         <v/>
       </c>
@@ -3039,7 +3003,7 @@
         <f>IF(t1_raw!B26&gt;0, "("&amp;ROUND(t1_raw!B26, 3)&amp;")", "")</f>
         <v>(0.058)</v>
       </c>
-      <c r="D30" s="111" t="str">
+      <c r="D30" s="115" t="str">
         <f>IF(t1_raw!H26&lt;&gt;0, t1_raw!H26, "")</f>
         <v/>
       </c>
@@ -3047,7 +3011,7 @@
         <f>IF(t1_raw!C26&gt;0, "("&amp;ROUND(t1_raw!C26, 3)&amp;")", "")</f>
         <v>(0.082)</v>
       </c>
-      <c r="F30" s="111" t="str">
+      <c r="F30" s="115" t="str">
         <f>IF(t1_raw!I26&lt;&gt;0, t1_raw!I26, "")</f>
         <v/>
       </c>
@@ -3055,19 +3019,19 @@
         <f>IF(t1_raw!D26&gt;0, "("&amp;ROUND(t1_raw!D26, 3)&amp;")", "")</f>
         <v>(0.314)</v>
       </c>
-      <c r="H30" s="111"/>
+      <c r="H30" s="115"/>
       <c r="I30" s="5" t="str">
         <f>IF(t1_raw!E26&gt;0, "("&amp;ROUND(t1_raw!E26, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J30" s="109"/>
+      <c r="J30" s="113"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4" t="str">
         <f>IF(t1_raw!A27&lt;&gt;"",t1_raw!A27,"")</f>
         <v>Joseph 2015</v>
       </c>
-      <c r="B31" s="111" t="str">
+      <c r="B31" s="115" t="str">
         <f>IF(t1_raw!G27&lt;&gt;0, t1_raw!G27, "")</f>
         <v>777</v>
       </c>
@@ -3075,7 +3039,7 @@
         <f>IF(t1_raw!B27&lt;&gt;0, t1_raw!B27, "")</f>
         <v>3.9999999105930328E-2</v>
       </c>
-      <c r="D31" s="111" t="str">
+      <c r="D31" s="115" t="str">
         <f>IF(t1_raw!H27&lt;&gt;0, t1_raw!H27, "")</f>
         <v>777</v>
       </c>
@@ -3083,7 +3047,7 @@
         <f>IF(t1_raw!C28&lt;&gt;0, t1_raw!C28, "")</f>
         <v>0.12706573307514191</v>
       </c>
-      <c r="F31" s="111" t="str">
+      <c r="F31" s="115" t="str">
         <f>IF(AND(t1_raw!I27&lt;&gt;"NA",t1_raw!I27&lt;&gt;0), t1_raw!I27, "")</f>
         <v/>
       </c>
@@ -3091,7 +3055,7 @@
         <f>IF(t1_raw!D28&lt;&gt;0, t1_raw!D28, "")</f>
         <v/>
       </c>
-      <c r="H31" s="111" t="str">
+      <c r="H31" s="115" t="str">
         <f>IF(AND(t1_raw!J27&lt;&gt;"NA",t1_raw!J27&lt;&gt;0), t1_raw!J27, "")</f>
         <v/>
       </c>
@@ -3099,14 +3063,14 @@
         <f>IF(t1_raw!E28&lt;&gt;0, t1_raw!E28, "")</f>
         <v/>
       </c>
-      <c r="J31" s="109">
+      <c r="J31" s="113">
         <f>t1_raw!F27</f>
         <v>0.11</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="4"/>
-      <c r="B32" s="111" t="str">
+      <c r="B32" s="115" t="str">
         <f>IF(t1_raw!G28&lt;&gt;0, t1_raw!G28, "")</f>
         <v/>
       </c>
@@ -3114,7 +3078,7 @@
         <f>IF(t1_raw!B28&gt;0, "("&amp;ROUND(t1_raw!B28, 3)&amp;")", "")</f>
         <v>(0.049)</v>
       </c>
-      <c r="D32" s="111" t="str">
+      <c r="D32" s="115" t="str">
         <f>IF(t1_raw!H28&lt;&gt;0, t1_raw!H28, "")</f>
         <v/>
       </c>
@@ -3122,7 +3086,7 @@
         <f>IF(t1_raw!C28&gt;0, "("&amp;ROUND(t1_raw!C28, 3)&amp;")", "")</f>
         <v>(0.127)</v>
       </c>
-      <c r="F32" s="111" t="str">
+      <c r="F32" s="115" t="str">
         <f>IF(t1_raw!I28&lt;&gt;0, t1_raw!I28, "")</f>
         <v/>
       </c>
@@ -3130,19 +3094,19 @@
         <f>IF(t1_raw!D28&gt;0, "("&amp;ROUND(t1_raw!D28, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H32" s="111"/>
+      <c r="H32" s="115"/>
       <c r="I32" s="5" t="str">
         <f>IF(t1_raw!E28&gt;0, "("&amp;ROUND(t1_raw!E28, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J32" s="109"/>
+      <c r="J32" s="113"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4" t="str">
         <f>IF(t1_raw!A29&lt;&gt;"",t1_raw!A29,"")</f>
         <v>Kirwan 2010</v>
       </c>
-      <c r="B33" s="111" t="str">
+      <c r="B33" s="115" t="str">
         <f>IF(AND(t1_raw!G29&lt;&gt;"NA",t1_raw!G29&lt;&gt;0), t1_raw!G29, "")</f>
         <v/>
       </c>
@@ -3150,7 +3114,7 @@
         <f>IF(t1_raw!B29&lt;&gt;0, t1_raw!B29, "")</f>
         <v/>
       </c>
-      <c r="D33" s="111" t="str">
+      <c r="D33" s="115" t="str">
         <f>IF(AND(t1_raw!H29&lt;&gt;"NA",t1_raw!H29&lt;&gt;0), t1_raw!H29, "")</f>
         <v/>
       </c>
@@ -3158,7 +3122,7 @@
         <f>IF(t1_raw!C30&lt;&gt;0, t1_raw!C30, "")</f>
         <v/>
       </c>
-      <c r="F33" s="111" t="str">
+      <c r="F33" s="115" t="str">
         <f>IF(AND(t1_raw!I29&lt;&gt;"NA",t1_raw!I29&lt;&gt;0), t1_raw!I29, "")</f>
         <v/>
       </c>
@@ -3166,7 +3130,7 @@
         <f>IF(t1_raw!D30&lt;&gt;0, t1_raw!D30, "")</f>
         <v/>
       </c>
-      <c r="H33" s="111" t="str">
+      <c r="H33" s="115" t="str">
         <f>IF(t1_raw!J29&lt;&gt;0, t1_raw!J29, "")</f>
         <v>320</v>
       </c>
@@ -3174,14 +3138,14 @@
         <f>IF(t1_raw!E30&lt;&gt;0, t1_raw!E30, "")</f>
         <v>0.12070736289024353</v>
       </c>
-      <c r="J33" s="109">
+      <c r="J33" s="113">
         <f>t1_raw!F29</f>
         <v>0.46</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4"/>
-      <c r="B34" s="111" t="str">
+      <c r="B34" s="115" t="str">
         <f>IF(t1_raw!G30&lt;&gt;0, t1_raw!G30, "")</f>
         <v/>
       </c>
@@ -3189,12 +3153,12 @@
         <f>IF(t1_raw!B30&gt;0, "("&amp;ROUND(t1_raw!B30, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="D34" s="111"/>
+      <c r="D34" s="115"/>
       <c r="E34" s="5" t="str">
         <f>IF(t1_raw!C30&gt;0, "("&amp;ROUND(t1_raw!C30, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F34" s="111" t="str">
+      <c r="F34" s="115" t="str">
         <f>IF(t1_raw!I30&lt;&gt;0, t1_raw!I30, "")</f>
         <v/>
       </c>
@@ -3202,7 +3166,7 @@
         <f>IF(t1_raw!D30&gt;0, "("&amp;ROUND(t1_raw!D30, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H34" s="111" t="str">
+      <c r="H34" s="115" t="str">
         <f>IF(t1_raw!J30&lt;&gt;0, t1_raw!J30, "")</f>
         <v/>
       </c>
@@ -3210,14 +3174,14 @@
         <f>IF(t1_raw!E30&gt;0, "("&amp;ROUND(t1_raw!E30, 3)&amp;")", "")</f>
         <v>(0.121)</v>
       </c>
-      <c r="J34" s="109"/>
+      <c r="J34" s="113"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4" t="str">
         <f>IF(t1_raw!A31&lt;&gt;"",t1_raw!A31,"")</f>
         <v>Kruger 1996a</v>
       </c>
-      <c r="B35" s="111" t="str">
+      <c r="B35" s="115" t="str">
         <f>IF(t1_raw!G31&lt;&gt;0, t1_raw!G31, "")</f>
         <v>74</v>
       </c>
@@ -3225,7 +3189,7 @@
         <f>IF(t1_raw!B31&lt;&gt;0, t1_raw!B31, "")</f>
         <v>-0.37569999694824219</v>
       </c>
-      <c r="D35" s="111" t="str">
+      <c r="D35" s="115" t="str">
         <f>IF(t1_raw!H31&lt;&gt;0, t1_raw!H31, "")</f>
         <v>74</v>
       </c>
@@ -3233,7 +3197,7 @@
         <f>IF(t1_raw!C32&lt;&gt;0, t1_raw!C32, "")</f>
         <v>0.21789999306201935</v>
       </c>
-      <c r="F35" s="111" t="str">
+      <c r="F35" s="115" t="str">
         <f>IF(AND(t1_raw!I31&lt;&gt;"NA",t1_raw!I31&lt;&gt;0), t1_raw!I31, "")</f>
         <v/>
       </c>
@@ -3241,7 +3205,7 @@
         <f>IF(t1_raw!D32&lt;&gt;0, t1_raw!D32, "")</f>
         <v/>
       </c>
-      <c r="H35" s="111" t="str">
+      <c r="H35" s="115" t="str">
         <f>IF(t1_raw!J31&lt;&gt;0, t1_raw!J31, "")</f>
         <v>74</v>
       </c>
@@ -3249,14 +3213,14 @@
         <f>IF(t1_raw!E32&lt;&gt;0, t1_raw!E32, "")</f>
         <v>0.15407966077327728</v>
       </c>
-      <c r="J35" s="109">
+      <c r="J35" s="113">
         <f>t1_raw!F31</f>
         <v>0.38</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4"/>
-      <c r="B36" s="111" t="str">
+      <c r="B36" s="115" t="str">
         <f>IF(t1_raw!G32&lt;&gt;0, t1_raw!G32, "")</f>
         <v/>
       </c>
@@ -3264,7 +3228,7 @@
         <f>IF(t1_raw!B32&gt;0, "("&amp;ROUND(t1_raw!B32, 3)&amp;")", "")</f>
         <v>(0.248)</v>
       </c>
-      <c r="D36" s="111" t="str">
+      <c r="D36" s="115" t="str">
         <f>IF(t1_raw!H32&lt;&gt;0, t1_raw!H32, "")</f>
         <v/>
       </c>
@@ -3272,7 +3236,7 @@
         <f>IF(t1_raw!C32&gt;0, "("&amp;ROUND(t1_raw!C32, 3)&amp;")", "")</f>
         <v>(0.218)</v>
       </c>
-      <c r="F36" s="111" t="str">
+      <c r="F36" s="115" t="str">
         <f>IF(t1_raw!I32&lt;&gt;0, t1_raw!I32, "")</f>
         <v/>
       </c>
@@ -3280,7 +3244,7 @@
         <f>IF(t1_raw!D32&gt;0, "("&amp;ROUND(t1_raw!D32, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H36" s="111" t="str">
+      <c r="H36" s="115" t="str">
         <f>IF(t1_raw!J32&lt;&gt;0, t1_raw!J32, "")</f>
         <v/>
       </c>
@@ -3288,14 +3252,14 @@
         <f>IF(t1_raw!E32&gt;0, "("&amp;ROUND(t1_raw!E32, 3)&amp;")", "")</f>
         <v>(0.154)</v>
       </c>
-      <c r="J36" s="109"/>
+      <c r="J36" s="113"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="str">
         <f>IF(t1_raw!A33&lt;&gt;"",t1_raw!A33,"")</f>
         <v>Kruger 1996b</v>
       </c>
-      <c r="B37" s="111" t="str">
+      <c r="B37" s="115" t="str">
         <f>IF(t1_raw!G33&lt;&gt;0, t1_raw!G33, "")</f>
         <v>104</v>
       </c>
@@ -3303,7 +3267,7 @@
         <f>IF(t1_raw!B33&lt;&gt;0, t1_raw!B33, "")</f>
         <v>0.39329999685287476</v>
       </c>
-      <c r="D37" s="111" t="str">
+      <c r="D37" s="115" t="str">
         <f>IF(t1_raw!H33&lt;&gt;0, t1_raw!H33, "")</f>
         <v>104</v>
       </c>
@@ -3311,7 +3275,7 @@
         <f>IF(t1_raw!C34&lt;&gt;0, t1_raw!C34, "")</f>
         <v>0.20759999752044678</v>
       </c>
-      <c r="F37" s="111" t="str">
+      <c r="F37" s="115" t="str">
         <f>IF(AND(t1_raw!I33&lt;&gt;"NA",t1_raw!I33&lt;&gt;0), t1_raw!I33, "")</f>
         <v/>
       </c>
@@ -3319,7 +3283,7 @@
         <f>IF(t1_raw!D34&lt;&gt;0, t1_raw!D34, "")</f>
         <v/>
       </c>
-      <c r="H37" s="111" t="str">
+      <c r="H37" s="115" t="str">
         <f>IF(t1_raw!J33&lt;&gt;0, t1_raw!J33, "")</f>
         <v>104</v>
       </c>
@@ -3327,14 +3291,14 @@
         <f>IF(t1_raw!E34&lt;&gt;0, t1_raw!E34, "")</f>
         <v>0.12854571640491486</v>
       </c>
-      <c r="J37" s="109">
+      <c r="J37" s="113">
         <f>t1_raw!F33</f>
         <v>0.38</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4"/>
-      <c r="B38" s="111" t="str">
+      <c r="B38" s="115" t="str">
         <f>IF(t1_raw!G34&lt;&gt;0, t1_raw!G34, "")</f>
         <v/>
       </c>
@@ -3342,7 +3306,7 @@
         <f>IF(t1_raw!B34&gt;0, "("&amp;ROUND(t1_raw!B34, 3)&amp;")", "")</f>
         <v>(0.186)</v>
       </c>
-      <c r="D38" s="111" t="str">
+      <c r="D38" s="115" t="str">
         <f>IF(t1_raw!H34&lt;&gt;0, t1_raw!H34, "")</f>
         <v/>
       </c>
@@ -3350,7 +3314,7 @@
         <f>IF(t1_raw!C34&gt;0, "("&amp;ROUND(t1_raw!C34, 3)&amp;")", "")</f>
         <v>(0.208)</v>
       </c>
-      <c r="F38" s="111" t="str">
+      <c r="F38" s="115" t="str">
         <f>IF(t1_raw!I34&lt;&gt;0, t1_raw!I34, "")</f>
         <v/>
       </c>
@@ -3358,7 +3322,7 @@
         <f>IF(t1_raw!D34&gt;0, "("&amp;ROUND(t1_raw!D34, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H38" s="111" t="str">
+      <c r="H38" s="115" t="str">
         <f>IF(t1_raw!J34&lt;&gt;0, t1_raw!J34, "")</f>
         <v/>
       </c>
@@ -3366,14 +3330,14 @@
         <f>IF(t1_raw!E34&gt;0, "("&amp;ROUND(t1_raw!E34, 3)&amp;")", "")</f>
         <v>(0.129)</v>
       </c>
-      <c r="J38" s="109"/>
+      <c r="J38" s="113"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="str">
         <f>IF(t1_raw!A35&lt;&gt;"",t1_raw!A35,"")</f>
         <v>Le Huong 2007a</v>
       </c>
-      <c r="B39" s="111" t="str">
+      <c r="B39" s="115" t="str">
         <f>IF(AND(t1_raw!G35&lt;&gt;"NA",t1_raw!G35&lt;&gt;0), t1_raw!G35, "")</f>
         <v/>
       </c>
@@ -3381,7 +3345,7 @@
         <f>IF(t1_raw!B35&lt;&gt;0, t1_raw!B35, "")</f>
         <v/>
       </c>
-      <c r="D39" s="111" t="str">
+      <c r="D39" s="115" t="str">
         <f>IF(AND(t1_raw!H35&lt;&gt;"NA",t1_raw!H35&lt;&gt;0), t1_raw!H35, "")</f>
         <v/>
       </c>
@@ -3389,7 +3353,7 @@
         <f>IF(t1_raw!C36&lt;&gt;0, t1_raw!C36, "")</f>
         <v/>
       </c>
-      <c r="F39" s="111" t="str">
+      <c r="F39" s="115" t="str">
         <f>IF(AND(t1_raw!I35&lt;&gt;"NA",t1_raw!I35&lt;&gt;0), t1_raw!I35, "")</f>
         <v/>
       </c>
@@ -3397,7 +3361,7 @@
         <f>IF(t1_raw!D36&lt;&gt;0, t1_raw!D36, "")</f>
         <v/>
       </c>
-      <c r="H39" s="111" t="str">
+      <c r="H39" s="115" t="str">
         <f>IF(t1_raw!J35&lt;&gt;0, t1_raw!J35, "")</f>
         <v>161</v>
       </c>
@@ -3405,14 +3369,14 @@
         <f>IF(t1_raw!E36&lt;&gt;0, t1_raw!E36, "")</f>
         <v>0.1358073353767395</v>
       </c>
-      <c r="J39" s="109">
+      <c r="J39" s="113">
         <f>t1_raw!F35</f>
         <v>0.73</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4"/>
-      <c r="B40" s="111" t="str">
+      <c r="B40" s="115" t="str">
         <f>IF(t1_raw!G36&lt;&gt;0, t1_raw!G36, "")</f>
         <v/>
       </c>
@@ -3420,12 +3384,12 @@
         <f>IF(t1_raw!B36&gt;0, "("&amp;ROUND(t1_raw!B36, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="D40" s="111"/>
+      <c r="D40" s="115"/>
       <c r="E40" s="5" t="str">
         <f>IF(t1_raw!C36&gt;0, "("&amp;ROUND(t1_raw!C36, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F40" s="111" t="str">
+      <c r="F40" s="115" t="str">
         <f>IF(t1_raw!I36&lt;&gt;0, t1_raw!I36, "")</f>
         <v/>
       </c>
@@ -3433,7 +3397,7 @@
         <f>IF(t1_raw!D36&gt;0, "("&amp;ROUND(t1_raw!D36, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H40" s="111" t="str">
+      <c r="H40" s="115" t="str">
         <f>IF(t1_raw!J36&lt;&gt;0, t1_raw!J36, "")</f>
         <v/>
       </c>
@@ -3441,14 +3405,14 @@
         <f>IF(t1_raw!E36&gt;0, "("&amp;ROUND(t1_raw!E36, 3)&amp;")", "")</f>
         <v>(0.136)</v>
       </c>
-      <c r="J40" s="109"/>
+      <c r="J40" s="113"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="str">
         <f>IF(t1_raw!A37&lt;&gt;"",t1_raw!A37,"")</f>
         <v>Le Huong 2007b</v>
       </c>
-      <c r="B41" s="111" t="str">
+      <c r="B41" s="115" t="str">
         <f>IF(AND(t1_raw!G37&lt;&gt;"NA",t1_raw!G37&lt;&gt;0), t1_raw!G37, "")</f>
         <v/>
       </c>
@@ -3456,7 +3420,7 @@
         <f>IF(t1_raw!B37&lt;&gt;0, t1_raw!B37, "")</f>
         <v/>
       </c>
-      <c r="D41" s="111" t="str">
+      <c r="D41" s="115" t="str">
         <f>IF(AND(t1_raw!H37&lt;&gt;"NA",t1_raw!H37&lt;&gt;0), t1_raw!H37, "")</f>
         <v/>
       </c>
@@ -3464,7 +3428,7 @@
         <f>IF(t1_raw!C38&lt;&gt;0, t1_raw!C38, "")</f>
         <v/>
       </c>
-      <c r="F41" s="111" t="str">
+      <c r="F41" s="115" t="str">
         <f>IF(AND(t1_raw!I37&lt;&gt;"NA",t1_raw!I37&lt;&gt;0), t1_raw!I37, "")</f>
         <v/>
       </c>
@@ -3472,7 +3436,7 @@
         <f>IF(t1_raw!D38&lt;&gt;0, t1_raw!D38, "")</f>
         <v/>
       </c>
-      <c r="H41" s="111" t="str">
+      <c r="H41" s="115" t="str">
         <f>IF(t1_raw!J37&lt;&gt;0, t1_raw!J37, "")</f>
         <v>165</v>
       </c>
@@ -3480,14 +3444,14 @@
         <f>IF(t1_raw!E38&lt;&gt;0, t1_raw!E38, "")</f>
         <v>0.1289728581905365</v>
       </c>
-      <c r="J41" s="109">
+      <c r="J41" s="113">
         <f>t1_raw!F37</f>
         <v>0.73</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4"/>
-      <c r="B42" s="111" t="str">
+      <c r="B42" s="115" t="str">
         <f>IF(t1_raw!G38&lt;&gt;0, t1_raw!G38, "")</f>
         <v/>
       </c>
@@ -3495,12 +3459,12 @@
         <f>IF(t1_raw!B38&gt;0, "("&amp;ROUND(t1_raw!B38, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="D42" s="111"/>
+      <c r="D42" s="115"/>
       <c r="E42" s="5" t="str">
         <f>IF(t1_raw!C38&gt;0, "("&amp;ROUND(t1_raw!C38, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F42" s="111" t="str">
+      <c r="F42" s="115" t="str">
         <f>IF(t1_raw!I38&lt;&gt;0, t1_raw!I38, "")</f>
         <v/>
       </c>
@@ -3508,7 +3472,7 @@
         <f>IF(t1_raw!D38&gt;0, "("&amp;ROUND(t1_raw!D38, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H42" s="111" t="str">
+      <c r="H42" s="115" t="str">
         <f>IF(t1_raw!J38&lt;&gt;0, t1_raw!J38, "")</f>
         <v/>
       </c>
@@ -3516,14 +3480,14 @@
         <f>IF(t1_raw!E38&gt;0, "("&amp;ROUND(t1_raw!E38, 3)&amp;")", "")</f>
         <v>(0.129)</v>
       </c>
-      <c r="J42" s="109"/>
+      <c r="J42" s="113"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="4" t="str">
         <f>IF(t1_raw!A39&lt;&gt;"",t1_raw!A39,"")</f>
         <v>Liu 2017</v>
       </c>
-      <c r="B43" s="111" t="str">
+      <c r="B43" s="115" t="str">
         <f>IF(t1_raw!G39&lt;&gt;0, t1_raw!G39, "")</f>
         <v>112†</v>
       </c>
@@ -3531,7 +3495,7 @@
         <f>IF(t1_raw!B39&lt;&gt;0, t1_raw!B39, "")</f>
         <v>2.9999999329447746E-2</v>
       </c>
-      <c r="D43" s="111" t="str">
+      <c r="D43" s="115" t="str">
         <f>IF(t1_raw!H39&lt;&gt;0, t1_raw!H39, "")</f>
         <v>112†</v>
       </c>
@@ -3539,7 +3503,7 @@
         <f>IF(t1_raw!C40&lt;&gt;0, t1_raw!C40, "")</f>
         <v>0.35199999809265137</v>
       </c>
-      <c r="F43" s="111" t="str">
+      <c r="F43" s="115" t="str">
         <f>IF(AND(t1_raw!I39&lt;&gt;"NA",t1_raw!I39&lt;&gt;0), t1_raw!I39, "")</f>
         <v/>
       </c>
@@ -3547,7 +3511,7 @@
         <f>IF(t1_raw!D40&lt;&gt;0, t1_raw!D40, "")</f>
         <v/>
       </c>
-      <c r="H43" s="111" t="str">
+      <c r="H43" s="115" t="str">
         <f>IF(t1_raw!J39&lt;&gt;0, t1_raw!J39, "")</f>
         <v>112†</v>
       </c>
@@ -3555,14 +3519,14 @@
         <f>IF(t1_raw!E40&lt;&gt;0, t1_raw!E40, "")</f>
         <v>0.1077931672334671</v>
       </c>
-      <c r="J43" s="109">
+      <c r="J43" s="113">
         <f>t1_raw!F39</f>
         <v>0.31</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="4"/>
-      <c r="B44" s="111" t="str">
+      <c r="B44" s="115" t="str">
         <f>IF(t1_raw!G40&lt;&gt;0, t1_raw!G40, "")</f>
         <v/>
       </c>
@@ -3570,7 +3534,7 @@
         <f>IF(t1_raw!B40&gt;0, "("&amp;ROUND(t1_raw!B40, 3)&amp;")", "")</f>
         <v>(0.127)</v>
       </c>
-      <c r="D44" s="111" t="str">
+      <c r="D44" s="115" t="str">
         <f>IF(t1_raw!H40&lt;&gt;0, t1_raw!H40, "")</f>
         <v/>
       </c>
@@ -3578,7 +3542,7 @@
         <f>IF(t1_raw!C40&gt;0, "("&amp;ROUND(t1_raw!C40, 3)&amp;")", "")</f>
         <v>(0.352)</v>
       </c>
-      <c r="F44" s="111" t="str">
+      <c r="F44" s="115" t="str">
         <f>IF(t1_raw!I40&lt;&gt;0, t1_raw!I40, "")</f>
         <v/>
       </c>
@@ -3586,7 +3550,7 @@
         <f>IF(t1_raw!D40&gt;0, "("&amp;ROUND(t1_raw!D40, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H44" s="111" t="str">
+      <c r="H44" s="115" t="str">
         <f>IF(t1_raw!J40&lt;&gt;0, t1_raw!J40, "")</f>
         <v/>
       </c>
@@ -3594,14 +3558,14 @@
         <f>IF(t1_raw!E40&gt;0, "("&amp;ROUND(t1_raw!E40, 3)&amp;")", "")</f>
         <v>(0.108)</v>
       </c>
-      <c r="J44" s="109"/>
+      <c r="J44" s="113"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="4" t="str">
         <f>IF(t1_raw!A41&lt;&gt;"",t1_raw!A41,"")</f>
         <v>Miguel 2004</v>
       </c>
-      <c r="B45" s="111" t="str">
+      <c r="B45" s="115" t="str">
         <f>IF(t1_raw!G41&lt;&gt;0, t1_raw!G41, "")</f>
         <v>50†</v>
       </c>
@@ -3609,7 +3573,7 @@
         <f>IF(t1_raw!B41&lt;&gt;0, t1_raw!B41, "")</f>
         <v>-0.6600000262260437</v>
       </c>
-      <c r="D45" s="111" t="str">
+      <c r="D45" s="115" t="str">
         <f>IF(AND(t1_raw!H41&lt;&gt;"NA",t1_raw!H41&lt;&gt;0), t1_raw!H41, "")</f>
         <v/>
       </c>
@@ -3617,7 +3581,7 @@
         <f>IF(t1_raw!C42&lt;&gt;0, t1_raw!C42, "")</f>
         <v>0.53518211841583252</v>
       </c>
-      <c r="F45" s="111" t="str">
+      <c r="F45" s="115" t="str">
         <f>IF(AND(t1_raw!I41&lt;&gt;"NA",t1_raw!I41&lt;&gt;0), t1_raw!I41, "")</f>
         <v/>
       </c>
@@ -3625,7 +3589,7 @@
         <f>IF(t1_raw!D42&lt;&gt;0, t1_raw!D42, "")</f>
         <v/>
       </c>
-      <c r="H45" s="111" t="str">
+      <c r="H45" s="115" t="str">
         <f>IF(AND(t1_raw!J41&lt;&gt;"NA",t1_raw!J41&lt;&gt;0), t1_raw!J41, "")</f>
         <v/>
       </c>
@@ -3633,14 +3597,14 @@
         <f>IF(t1_raw!E42&lt;&gt;0, t1_raw!E42, "")</f>
         <v/>
       </c>
-      <c r="J45" s="109">
+      <c r="J45" s="113">
         <f>t1_raw!F41</f>
         <v>0.77</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="4"/>
-      <c r="B46" s="111" t="str">
+      <c r="B46" s="115" t="str">
         <f>IF(t1_raw!G42&lt;&gt;0, t1_raw!G42, "")</f>
         <v/>
       </c>
@@ -3648,12 +3612,12 @@
         <f>IF(t1_raw!B42&gt;0, "("&amp;ROUND(t1_raw!B42, 3)&amp;")", "")</f>
         <v>(0.3)</v>
       </c>
-      <c r="D46" s="111"/>
+      <c r="D46" s="115"/>
       <c r="E46" s="5" t="str">
         <f>IF(t1_raw!C42&gt;0, "("&amp;ROUND(t1_raw!C42, 3)&amp;")", "")</f>
         <v>(0.535)</v>
       </c>
-      <c r="F46" s="111" t="str">
+      <c r="F46" s="115" t="str">
         <f>IF(t1_raw!I42&lt;&gt;0, t1_raw!I42, "")</f>
         <v/>
       </c>
@@ -3661,19 +3625,19 @@
         <f>IF(t1_raw!D42&gt;0, "("&amp;ROUND(t1_raw!D42, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H46" s="111"/>
+      <c r="H46" s="115"/>
       <c r="I46" s="5" t="str">
         <f>IF(t1_raw!E42&gt;0, "("&amp;ROUND(t1_raw!E42, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J46" s="109"/>
+      <c r="J46" s="113"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="4" t="str">
         <f>IF(t1_raw!A43&lt;&gt;"",t1_raw!A43,"")</f>
         <v>Ndibazza 2012</v>
       </c>
-      <c r="B47" s="111" t="str">
+      <c r="B47" s="115" t="str">
         <f>IF(t1_raw!G43&lt;&gt;0, t1_raw!G43, "")</f>
         <v>1228</v>
       </c>
@@ -3681,7 +3645,7 @@
         <f>IF(t1_raw!B43&lt;&gt;0, t1_raw!B43, "")</f>
         <v>9.9999997764825821E-3</v>
       </c>
-      <c r="D47" s="111" t="str">
+      <c r="D47" s="115" t="str">
         <f>IF(t1_raw!H43&lt;&gt;0, t1_raw!H43, "")</f>
         <v>1210</v>
       </c>
@@ -3689,7 +3653,7 @@
         <f>IF(t1_raw!C44&lt;&gt;0, t1_raw!C44, "")</f>
         <v>0.28496584296226501</v>
       </c>
-      <c r="F47" s="111" t="str">
+      <c r="F47" s="115" t="str">
         <f>IF(AND(t1_raw!I43&lt;&gt;"NA",t1_raw!I43&lt;&gt;0), t1_raw!I43, "")</f>
         <v/>
       </c>
@@ -3697,7 +3661,7 @@
         <f>IF(t1_raw!D44&lt;&gt;0, t1_raw!D44, "")</f>
         <v/>
       </c>
-      <c r="H47" s="111" t="str">
+      <c r="H47" s="115" t="str">
         <f>IF(t1_raw!J43&lt;&gt;0, t1_raw!J43, "")</f>
         <v>1109</v>
       </c>
@@ -3705,14 +3669,14 @@
         <f>IF(t1_raw!E44&lt;&gt;0, t1_raw!E44, "")</f>
         <v>9.5492720603942871E-2</v>
       </c>
-      <c r="J47" s="109">
+      <c r="J47" s="113">
         <f>t1_raw!F43</f>
         <v>0.03</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="4"/>
-      <c r="B48" s="111" t="str">
+      <c r="B48" s="115" t="str">
         <f>IF(t1_raw!G44&lt;&gt;0, t1_raw!G44, "")</f>
         <v/>
       </c>
@@ -3720,7 +3684,7 @@
         <f>IF(t1_raw!B44&gt;0, "("&amp;ROUND(t1_raw!B44, 3)&amp;")", "")</f>
         <v>(0.091)</v>
       </c>
-      <c r="D48" s="111" t="str">
+      <c r="D48" s="115" t="str">
         <f>IF(t1_raw!H44&lt;&gt;0, t1_raw!H44, "")</f>
         <v/>
       </c>
@@ -3728,7 +3692,7 @@
         <f>IF(t1_raw!C44&gt;0, "("&amp;ROUND(t1_raw!C44, 3)&amp;")", "")</f>
         <v>(0.285)</v>
       </c>
-      <c r="F48" s="111" t="str">
+      <c r="F48" s="115" t="str">
         <f>IF(t1_raw!I44&lt;&gt;0, t1_raw!I44, "")</f>
         <v/>
       </c>
@@ -3736,7 +3700,7 @@
         <f>IF(t1_raw!D44&gt;0, "("&amp;ROUND(t1_raw!D44, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H48" s="111" t="str">
+      <c r="H48" s="115" t="str">
         <f>IF(t1_raw!J44&lt;&gt;0, t1_raw!J44, "")</f>
         <v/>
       </c>
@@ -3744,14 +3708,14 @@
         <f>IF(t1_raw!E44&gt;0, "("&amp;ROUND(t1_raw!E44, 3)&amp;")", "")</f>
         <v>(0.095)</v>
       </c>
-      <c r="J48" s="109"/>
+      <c r="J48" s="113"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="4" t="str">
         <f>IF(t1_raw!A45&lt;&gt;"",t1_raw!A45,"")</f>
         <v>Ostwald 1984</v>
       </c>
-      <c r="B49" s="111" t="str">
+      <c r="B49" s="115" t="str">
         <f>IF(t1_raw!G45&lt;&gt;0, t1_raw!G45, "")</f>
         <v>87</v>
       </c>
@@ -3759,7 +3723,7 @@
         <f>IF(t1_raw!B45&lt;&gt;0, t1_raw!B45, "")</f>
         <v>0.69999998807907104</v>
       </c>
-      <c r="D49" s="111" t="str">
+      <c r="D49" s="115" t="str">
         <f>IF(t1_raw!H45&lt;&gt;0, t1_raw!H45, "")</f>
         <v>86</v>
       </c>
@@ -3767,7 +3731,7 @@
         <f>IF(t1_raw!C46&lt;&gt;0, t1_raw!C46, "")</f>
         <v>0.27012103796005249</v>
       </c>
-      <c r="F49" s="111" t="str">
+      <c r="F49" s="115" t="str">
         <f>IF(AND(t1_raw!I45&lt;&gt;"NA",t1_raw!I45&lt;&gt;0), t1_raw!I45, "")</f>
         <v/>
       </c>
@@ -3775,7 +3739,7 @@
         <f>IF(t1_raw!D46&lt;&gt;0, t1_raw!D46, "")</f>
         <v/>
       </c>
-      <c r="H49" s="111" t="str">
+      <c r="H49" s="115" t="str">
         <f>IF(t1_raw!J45&lt;&gt;0, t1_raw!J45, "")</f>
         <v>70</v>
       </c>
@@ -3783,14 +3747,14 @@
         <f>IF(t1_raw!E46&lt;&gt;0, t1_raw!E46, "")</f>
         <v>0.2773297131061554</v>
       </c>
-      <c r="J49" s="109">
+      <c r="J49" s="113">
         <f>t1_raw!F45</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="4"/>
-      <c r="B50" s="111" t="str">
+      <c r="B50" s="115" t="str">
         <f>IF(t1_raw!G46&lt;&gt;0, t1_raw!G46, "")</f>
         <v/>
       </c>
@@ -3798,7 +3762,7 @@
         <f>IF(t1_raw!B46&gt;0, "("&amp;ROUND(t1_raw!B46, 3)&amp;")", "")</f>
         <v>(0.449)</v>
       </c>
-      <c r="D50" s="111" t="str">
+      <c r="D50" s="115" t="str">
         <f>IF(t1_raw!H46&lt;&gt;0, t1_raw!H46, "")</f>
         <v/>
       </c>
@@ -3806,7 +3770,7 @@
         <f>IF(t1_raw!C46&gt;0, "("&amp;ROUND(t1_raw!C46, 3)&amp;")", "")</f>
         <v>(0.27)</v>
       </c>
-      <c r="F50" s="111" t="str">
+      <c r="F50" s="115" t="str">
         <f>IF(t1_raw!I46&lt;&gt;0, t1_raw!I46, "")</f>
         <v/>
       </c>
@@ -3814,7 +3778,7 @@
         <f>IF(t1_raw!D46&gt;0, "("&amp;ROUND(t1_raw!D46, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H50" s="111" t="str">
+      <c r="H50" s="115" t="str">
         <f>IF(t1_raw!J46&lt;&gt;0, t1_raw!J46, "")</f>
         <v/>
       </c>
@@ -3822,14 +3786,14 @@
         <f>IF(t1_raw!E46&gt;0, "("&amp;ROUND(t1_raw!E46, 3)&amp;")", "")</f>
         <v>(0.277)</v>
       </c>
-      <c r="J50" s="109"/>
+      <c r="J50" s="113"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="4" t="str">
         <f>IF(t1_raw!A47&lt;&gt;"",t1_raw!A47,"")</f>
         <v>Rousham 1994</v>
       </c>
-      <c r="B51" s="111" t="str">
+      <c r="B51" s="115" t="str">
         <f>IF(AND(t1_raw!G47&lt;&gt;"NA",t1_raw!G47&lt;&gt;0), t1_raw!G47, "")</f>
         <v/>
       </c>
@@ -3837,7 +3801,7 @@
         <f>IF(t1_raw!B47&lt;&gt;0, t1_raw!B47, "")</f>
         <v>-9.0000003576278687E-2</v>
       </c>
-      <c r="D51" s="111" t="str">
+      <c r="D51" s="115" t="str">
         <f>IF(AND(t1_raw!H47&lt;&gt;"NA",t1_raw!H47&lt;&gt;0), t1_raw!H47, "")</f>
         <v/>
       </c>
@@ -3845,7 +3809,7 @@
         <f>IF(t1_raw!C48&lt;&gt;0, t1_raw!C48, "")</f>
         <v>6.2660835683345795E-2</v>
       </c>
-      <c r="F51" s="111" t="str">
+      <c r="F51" s="115" t="str">
         <f>IF(t1_raw!I47&lt;&gt;0, t1_raw!I47, "")</f>
         <v>13†</v>
       </c>
@@ -3853,7 +3817,7 @@
         <f>IF(t1_raw!D48&lt;&gt;0, t1_raw!D48, "")</f>
         <v>5.8123819530010223E-2</v>
       </c>
-      <c r="H51" s="111" t="str">
+      <c r="H51" s="115" t="str">
         <f>IF(AND(t1_raw!J47&lt;&gt;"NA",t1_raw!J47&lt;&gt;0), t1_raw!J47, "")</f>
         <v/>
       </c>
@@ -3861,14 +3825,14 @@
         <f>IF(t1_raw!E48&lt;&gt;0, t1_raw!E48, "")</f>
         <v/>
       </c>
-      <c r="J51" s="109">
+      <c r="J51" s="113">
         <f>t1_raw!F47</f>
         <v>0.71</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="4"/>
-      <c r="B52" s="111" t="str">
+      <c r="B52" s="115" t="str">
         <f>IF(t1_raw!G48&lt;&gt;0, t1_raw!G48, "")</f>
         <v/>
       </c>
@@ -3876,12 +3840,12 @@
         <f>IF(t1_raw!B48&gt;0, "("&amp;ROUND(t1_raw!B48, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="D52" s="111"/>
+      <c r="D52" s="115"/>
       <c r="E52" s="5" t="str">
         <f>IF(t1_raw!C48&gt;0, "("&amp;ROUND(t1_raw!C48, 3)&amp;")", "")</f>
         <v>(0.063)</v>
       </c>
-      <c r="F52" s="111" t="str">
+      <c r="F52" s="115" t="str">
         <f>IF(t1_raw!I48&lt;&gt;0, t1_raw!I48, "")</f>
         <v/>
       </c>
@@ -3889,19 +3853,19 @@
         <f>IF(t1_raw!D48&gt;0, "("&amp;ROUND(t1_raw!D48, 3)&amp;")", "")</f>
         <v>(0.058)</v>
       </c>
-      <c r="H52" s="111"/>
+      <c r="H52" s="115"/>
       <c r="I52" s="5" t="str">
         <f>IF(t1_raw!E48&gt;0, "("&amp;ROUND(t1_raw!E48, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J52" s="109"/>
+      <c r="J52" s="113"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="4" t="str">
         <f>IF(t1_raw!A49&lt;&gt;"",t1_raw!A49,"")</f>
         <v>Stephenson 1993</v>
       </c>
-      <c r="B53" s="111" t="str">
+      <c r="B53" s="115" t="str">
         <f>IF(t1_raw!G49&lt;&gt;0, t1_raw!G49, "")</f>
         <v>188</v>
       </c>
@@ -3909,7 +3873,7 @@
         <f>IF(t1_raw!B49&lt;&gt;0, t1_raw!B49, "")</f>
         <v>0.89999997615814209</v>
       </c>
-      <c r="D53" s="111" t="str">
+      <c r="D53" s="115" t="str">
         <f>IF(t1_raw!H49&lt;&gt;0, t1_raw!H49, "")</f>
         <v>188</v>
       </c>
@@ -3917,7 +3881,7 @@
         <f>IF(t1_raw!C50&lt;&gt;0, t1_raw!C50, "")</f>
         <v>0.16285084187984467</v>
       </c>
-      <c r="F53" s="111" t="str">
+      <c r="F53" s="115" t="str">
         <f>IF(t1_raw!I49&lt;&gt;0, t1_raw!I49, "")</f>
         <v>188</v>
       </c>
@@ -3925,7 +3889,7 @@
         <f>IF(t1_raw!D50&lt;&gt;0, t1_raw!D50, "")</f>
         <v>6.4520172774791718E-2</v>
       </c>
-      <c r="H53" s="111" t="str">
+      <c r="H53" s="115" t="str">
         <f>IF(AND(t1_raw!J49&lt;&gt;"NA",t1_raw!J49&lt;&gt;0), t1_raw!J49, "")</f>
         <v/>
       </c>
@@ -3933,14 +3897,14 @@
         <f>IF(t1_raw!E50&lt;&gt;0, t1_raw!E50, "")</f>
         <v/>
       </c>
-      <c r="J53" s="109">
+      <c r="J53" s="113">
         <f>t1_raw!F49</f>
         <v>0.88</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="4"/>
-      <c r="B54" s="111" t="str">
+      <c r="B54" s="115" t="str">
         <f>IF(t1_raw!G50&lt;&gt;0, t1_raw!G50, "")</f>
         <v/>
       </c>
@@ -3948,7 +3912,7 @@
         <f>IF(t1_raw!B50&gt;0, "("&amp;ROUND(t1_raw!B50, 3)&amp;")", "")</f>
         <v>(0.184)</v>
       </c>
-      <c r="D54" s="111" t="str">
+      <c r="D54" s="115" t="str">
         <f>IF(t1_raw!H50&lt;&gt;0, t1_raw!H50, "")</f>
         <v/>
       </c>
@@ -3956,7 +3920,7 @@
         <f>IF(t1_raw!C50&gt;0, "("&amp;ROUND(t1_raw!C50, 3)&amp;")", "")</f>
         <v>(0.163)</v>
       </c>
-      <c r="F54" s="111" t="str">
+      <c r="F54" s="115" t="str">
         <f>IF(t1_raw!I50&lt;&gt;0, t1_raw!I50, "")</f>
         <v/>
       </c>
@@ -3964,19 +3928,19 @@
         <f>IF(t1_raw!D50&gt;0, "("&amp;ROUND(t1_raw!D50, 3)&amp;")", "")</f>
         <v>(0.065)</v>
       </c>
-      <c r="H54" s="111"/>
+      <c r="H54" s="115"/>
       <c r="I54" s="5" t="str">
         <f>IF(t1_raw!E50&gt;0, "("&amp;ROUND(t1_raw!E50, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J54" s="109"/>
+      <c r="J54" s="113"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="4" t="str">
         <f>IF(t1_raw!A51&lt;&gt;"",t1_raw!A51,"")</f>
         <v>Stoltzfus 1997a</v>
       </c>
-      <c r="B55" s="111" t="str">
+      <c r="B55" s="115" t="str">
         <f>IF(t1_raw!G51&lt;&gt;0, t1_raw!G51, "")</f>
         <v>12†</v>
       </c>
@@ -3984,7 +3948,7 @@
         <f>IF(t1_raw!B51&lt;&gt;0, t1_raw!B51, "")</f>
         <v>0.23370370268821716</v>
       </c>
-      <c r="D55" s="111" t="str">
+      <c r="D55" s="115" t="str">
         <f>IF(t1_raw!H51&lt;&gt;0, t1_raw!H51, "")</f>
         <v>12†</v>
       </c>
@@ -3992,7 +3956,7 @@
         <f>IF(t1_raw!C52&lt;&gt;0, t1_raw!C52, "")</f>
         <v>8.5782051086425781E-2</v>
       </c>
-      <c r="F55" s="111" t="str">
+      <c r="F55" s="115" t="str">
         <f>IF(AND(t1_raw!I51&lt;&gt;"NA",t1_raw!I51&lt;&gt;0), t1_raw!I51, "")</f>
         <v/>
       </c>
@@ -4000,7 +3964,7 @@
         <f>IF(t1_raw!D52&lt;&gt;0, t1_raw!D52, "")</f>
         <v/>
       </c>
-      <c r="H55" s="111" t="str">
+      <c r="H55" s="115" t="str">
         <f>IF(AND(t1_raw!J51&lt;&gt;"NA",t1_raw!J51&lt;&gt;0), t1_raw!J51, "")</f>
         <v/>
       </c>
@@ -4008,14 +3972,14 @@
         <f>IF(t1_raw!E52&lt;&gt;0, t1_raw!E52, "")</f>
         <v/>
       </c>
-      <c r="J55" s="109">
+      <c r="J55" s="113">
         <f>t1_raw!F51</f>
         <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4"/>
-      <c r="B56" s="111" t="str">
+      <c r="B56" s="115" t="str">
         <f>IF(t1_raw!G52&lt;&gt;0, t1_raw!G52, "")</f>
         <v/>
       </c>
@@ -4023,7 +3987,7 @@
         <f>IF(t1_raw!B52&gt;0, "("&amp;ROUND(t1_raw!B52, 3)&amp;")", "")</f>
         <v>(0.098)</v>
       </c>
-      <c r="D56" s="111" t="str">
+      <c r="D56" s="115" t="str">
         <f>IF(t1_raw!H52&lt;&gt;0, t1_raw!H52, "")</f>
         <v/>
       </c>
@@ -4031,7 +3995,7 @@
         <f>IF(t1_raw!C52&gt;0, "("&amp;ROUND(t1_raw!C52, 3)&amp;")", "")</f>
         <v>(0.086)</v>
       </c>
-      <c r="F56" s="111" t="str">
+      <c r="F56" s="115" t="str">
         <f>IF(t1_raw!I52&lt;&gt;0, t1_raw!I52, "")</f>
         <v/>
       </c>
@@ -4039,19 +4003,19 @@
         <f>IF(t1_raw!D52&gt;0, "("&amp;ROUND(t1_raw!D52, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H56" s="111"/>
+      <c r="H56" s="115"/>
       <c r="I56" s="5" t="str">
         <f>IF(t1_raw!E52&gt;0, "("&amp;ROUND(t1_raw!E52, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J56" s="109"/>
+      <c r="J56" s="113"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4" t="str">
         <f>IF(t1_raw!A53&lt;&gt;"",t1_raw!A53,"")</f>
         <v>Stoltzfus 1997b</v>
       </c>
-      <c r="B57" s="111" t="str">
+      <c r="B57" s="115" t="str">
         <f>IF(t1_raw!G53&lt;&gt;0, t1_raw!G53, "")</f>
         <v>12†</v>
       </c>
@@ -4059,7 +4023,7 @@
         <f>IF(t1_raw!B53&lt;&gt;0, t1_raw!B53, "")</f>
         <v>0.11036663502454758</v>
       </c>
-      <c r="D57" s="111" t="str">
+      <c r="D57" s="115" t="str">
         <f>IF(t1_raw!H53&lt;&gt;0, t1_raw!H53, "")</f>
         <v>12†</v>
       </c>
@@ -4067,7 +4031,7 @@
         <f>IF(t1_raw!C54&lt;&gt;0, t1_raw!C54, "")</f>
         <v>9.7987890243530273E-2</v>
       </c>
-      <c r="F57" s="111" t="str">
+      <c r="F57" s="115" t="str">
         <f>IF(AND(t1_raw!I53&lt;&gt;"NA",t1_raw!I53&lt;&gt;0), t1_raw!I53, "")</f>
         <v/>
       </c>
@@ -4075,7 +4039,7 @@
         <f>IF(t1_raw!D54&lt;&gt;0, t1_raw!D54, "")</f>
         <v/>
       </c>
-      <c r="H57" s="111" t="str">
+      <c r="H57" s="115" t="str">
         <f>IF(AND(t1_raw!J53&lt;&gt;"NA",t1_raw!J53&lt;&gt;0), t1_raw!J53, "")</f>
         <v/>
       </c>
@@ -4083,14 +4047,14 @@
         <f>IF(t1_raw!E54&lt;&gt;0, t1_raw!E54, "")</f>
         <v/>
       </c>
-      <c r="J57" s="109">
+      <c r="J57" s="113">
         <f>t1_raw!F53</f>
         <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="4"/>
-      <c r="B58" s="111" t="str">
+      <c r="B58" s="115" t="str">
         <f>IF(t1_raw!G54&lt;&gt;0, t1_raw!G54, "")</f>
         <v/>
       </c>
@@ -4098,7 +4062,7 @@
         <f>IF(t1_raw!B54&gt;0, "("&amp;ROUND(t1_raw!B54, 3)&amp;")", "")</f>
         <v>(0.139)</v>
       </c>
-      <c r="D58" s="111" t="str">
+      <c r="D58" s="115" t="str">
         <f>IF(t1_raw!H54&lt;&gt;0, t1_raw!H54, "")</f>
         <v/>
       </c>
@@ -4106,7 +4070,7 @@
         <f>IF(t1_raw!C54&gt;0, "("&amp;ROUND(t1_raw!C54, 3)&amp;")", "")</f>
         <v>(0.098)</v>
       </c>
-      <c r="F58" s="111" t="str">
+      <c r="F58" s="115" t="str">
         <f>IF(t1_raw!I54&lt;&gt;0, t1_raw!I54, "")</f>
         <v/>
       </c>
@@ -4114,19 +4078,19 @@
         <f>IF(t1_raw!D54&gt;0, "("&amp;ROUND(t1_raw!D54, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H58" s="111"/>
+      <c r="H58" s="115"/>
       <c r="I58" s="5" t="str">
         <f>IF(t1_raw!E54&gt;0, "("&amp;ROUND(t1_raw!E54, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J58" s="109"/>
+      <c r="J58" s="113"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4" t="str">
         <f>IF(t1_raw!A55&lt;&gt;"",t1_raw!A55,"")</f>
         <v>Sur 2005</v>
       </c>
-      <c r="B59" s="111" t="str">
+      <c r="B59" s="115" t="str">
         <f>IF(t1_raw!G55&lt;&gt;0, t1_raw!G55, "")</f>
         <v>682</v>
       </c>
@@ -4134,7 +4098,7 @@
         <f>IF(t1_raw!B55&lt;&gt;0, t1_raw!B55, "")</f>
         <v>0.28999999165534973</v>
       </c>
-      <c r="D59" s="111" t="str">
+      <c r="D59" s="115" t="str">
         <f>IF(AND(t1_raw!H55&lt;&gt;"NA",t1_raw!H55&lt;&gt;0), t1_raw!H55, "")</f>
         <v/>
       </c>
@@ -4142,7 +4106,7 @@
         <f>IF(t1_raw!C56&lt;&gt;0, t1_raw!C56, "")</f>
         <v/>
       </c>
-      <c r="F59" s="111" t="str">
+      <c r="F59" s="115" t="str">
         <f>IF(AND(t1_raw!I55&lt;&gt;"NA",t1_raw!I55&lt;&gt;0), t1_raw!I55, "")</f>
         <v/>
       </c>
@@ -4150,7 +4114,7 @@
         <f>IF(t1_raw!D56&lt;&gt;0, t1_raw!D56, "")</f>
         <v/>
       </c>
-      <c r="H59" s="111" t="str">
+      <c r="H59" s="115" t="str">
         <f>IF(AND(t1_raw!J55&lt;&gt;"NA",t1_raw!J55&lt;&gt;0), t1_raw!J55, "")</f>
         <v/>
       </c>
@@ -4158,14 +4122,14 @@
         <f>IF(t1_raw!E56&lt;&gt;0, t1_raw!E56, "")</f>
         <v/>
       </c>
-      <c r="J59" s="109">
+      <c r="J59" s="113">
         <f>t1_raw!F55</f>
         <v>0.53</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="4"/>
-      <c r="B60" s="111" t="str">
+      <c r="B60" s="115" t="str">
         <f>IF(t1_raw!G56&lt;&gt;0, t1_raw!G56, "")</f>
         <v/>
       </c>
@@ -4173,12 +4137,12 @@
         <f>IF(t1_raw!B56&gt;0, "("&amp;ROUND(t1_raw!B56, 3)&amp;")", "")</f>
         <v>(0.09)</v>
       </c>
-      <c r="D60" s="111"/>
+      <c r="D60" s="115"/>
       <c r="E60" s="5" t="str">
         <f>IF(t1_raw!C56&gt;0, "("&amp;ROUND(t1_raw!C56, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F60" s="111" t="str">
+      <c r="F60" s="115" t="str">
         <f>IF(t1_raw!I56&lt;&gt;0, t1_raw!I56, "")</f>
         <v/>
       </c>
@@ -4186,19 +4150,19 @@
         <f>IF(t1_raw!D56&gt;0, "("&amp;ROUND(t1_raw!D56, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H60" s="111"/>
+      <c r="H60" s="115"/>
       <c r="I60" s="5" t="str">
         <f>IF(t1_raw!E56&gt;0, "("&amp;ROUND(t1_raw!E56, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J60" s="109"/>
+      <c r="J60" s="113"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="4" t="str">
         <f>IF(t1_raw!A57&lt;&gt;"",t1_raw!A57,"")</f>
         <v>Watkins 1996</v>
       </c>
-      <c r="B61" s="111" t="str">
+      <c r="B61" s="115" t="str">
         <f>IF(t1_raw!G57&lt;&gt;0, t1_raw!G57, "")</f>
         <v>226</v>
       </c>
@@ -4206,7 +4170,7 @@
         <f>IF(t1_raw!B57&lt;&gt;0, t1_raw!B57, "")</f>
         <v>0.12999999523162842</v>
       </c>
-      <c r="D61" s="111" t="str">
+      <c r="D61" s="115" t="str">
         <f>IF(t1_raw!H57&lt;&gt;0, t1_raw!H57, "")</f>
         <v>227</v>
       </c>
@@ -4214,7 +4178,7 @@
         <f>IF(t1_raw!C58&lt;&gt;0, t1_raw!C58, "")</f>
         <v>9.8234608769416809E-2</v>
       </c>
-      <c r="F61" s="111" t="str">
+      <c r="F61" s="115" t="str">
         <f>IF(t1_raw!I57&lt;&gt;0, t1_raw!I57, "")</f>
         <v>207</v>
       </c>
@@ -4222,7 +4186,7 @@
         <f>IF(t1_raw!D58&lt;&gt;0, t1_raw!D58, "")</f>
         <v>7.0206984877586365E-2</v>
       </c>
-      <c r="H61" s="111" t="str">
+      <c r="H61" s="115" t="str">
         <f>IF(AND(t1_raw!J57&lt;&gt;"NA",t1_raw!J57&lt;&gt;0), t1_raw!J57, "")</f>
         <v/>
       </c>
@@ -4230,14 +4194,14 @@
         <f>IF(t1_raw!E58&lt;&gt;0, t1_raw!E58, "")</f>
         <v/>
       </c>
-      <c r="J61" s="109">
+      <c r="J61" s="113">
         <f>t1_raw!F57</f>
         <v>0.91</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="4"/>
-      <c r="B62" s="111" t="str">
+      <c r="B62" s="115" t="str">
         <f>IF(t1_raw!G58&lt;&gt;0, t1_raw!G58, "")</f>
         <v/>
       </c>
@@ -4245,7 +4209,7 @@
         <f>IF(t1_raw!B58&gt;0, "("&amp;ROUND(t1_raw!B58, 3)&amp;")", "")</f>
         <v>(0.106)</v>
       </c>
-      <c r="D62" s="111" t="str">
+      <c r="D62" s="115" t="str">
         <f>IF(t1_raw!H58&lt;&gt;0, t1_raw!H58, "")</f>
         <v/>
       </c>
@@ -4253,7 +4217,7 @@
         <f>IF(t1_raw!C58&gt;0, "("&amp;ROUND(t1_raw!C58, 3)&amp;")", "")</f>
         <v>(0.098)</v>
       </c>
-      <c r="F62" s="111" t="str">
+      <c r="F62" s="115" t="str">
         <f>IF(t1_raw!I58&lt;&gt;0, t1_raw!I58, "")</f>
         <v/>
       </c>
@@ -4261,19 +4225,19 @@
         <f>IF(t1_raw!D58&gt;0, "("&amp;ROUND(t1_raw!D58, 3)&amp;")", "")</f>
         <v>(0.07)</v>
       </c>
-      <c r="H62" s="111"/>
+      <c r="H62" s="115"/>
       <c r="I62" s="5" t="str">
         <f>IF(t1_raw!E58&gt;0, "("&amp;ROUND(t1_raw!E58, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J62" s="109"/>
+      <c r="J62" s="113"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="4" t="str">
         <f>IF(t1_raw!A59&lt;&gt;"",t1_raw!A59,"")</f>
         <v>Willett 1979</v>
       </c>
-      <c r="B63" s="111" t="str">
+      <c r="B63" s="115" t="str">
         <f>IF(t1_raw!G59&lt;&gt;0, t1_raw!G59, "")</f>
         <v>273</v>
       </c>
@@ -4281,7 +4245,7 @@
         <f>IF(t1_raw!B59&lt;&gt;0, t1_raw!B59, "")</f>
         <v>0.15999999642372131</v>
       </c>
-      <c r="D63" s="111" t="str">
+      <c r="D63" s="115" t="str">
         <f>IF(AND(t1_raw!H59&lt;&gt;"NA",t1_raw!H59&lt;&gt;0), t1_raw!H59, "")</f>
         <v/>
       </c>
@@ -4289,7 +4253,7 @@
         <f>IF(t1_raw!C60&lt;&gt;0, t1_raw!C60, "")</f>
         <v/>
       </c>
-      <c r="F63" s="111" t="str">
+      <c r="F63" s="115" t="str">
         <f>IF(AND(t1_raw!I59&lt;&gt;"NA",t1_raw!I59&lt;&gt;0), t1_raw!I59, "")</f>
         <v/>
       </c>
@@ -4297,7 +4261,7 @@
         <f>IF(t1_raw!D60&lt;&gt;0, t1_raw!D60, "")</f>
         <v/>
       </c>
-      <c r="H63" s="111" t="str">
+      <c r="H63" s="115" t="str">
         <f>IF(AND(t1_raw!J59&lt;&gt;"NA",t1_raw!J59&lt;&gt;0), t1_raw!J59, "")</f>
         <v/>
       </c>
@@ -4305,14 +4269,14 @@
         <f>IF(t1_raw!E60&lt;&gt;0, t1_raw!E60, "")</f>
         <v/>
       </c>
-      <c r="J63" s="109">
+      <c r="J63" s="113">
         <f>t1_raw!F59</f>
         <v>0.53</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="4"/>
-      <c r="B64" s="111" t="str">
+      <c r="B64" s="115" t="str">
         <f>IF(t1_raw!G60&lt;&gt;0, t1_raw!G60, "")</f>
         <v/>
       </c>
@@ -4320,12 +4284,12 @@
         <f>IF(t1_raw!B60&gt;0, "("&amp;ROUND(t1_raw!B60, 3)&amp;")", "")</f>
         <v>(0.085)</v>
       </c>
-      <c r="D64" s="111"/>
+      <c r="D64" s="115"/>
       <c r="E64" s="5" t="str">
         <f>IF(t1_raw!C60&gt;0, "("&amp;ROUND(t1_raw!C60, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F64" s="111" t="str">
+      <c r="F64" s="115" t="str">
         <f>IF(t1_raw!I60&lt;&gt;0, t1_raw!I60, "")</f>
         <v/>
       </c>
@@ -4333,19 +4297,19 @@
         <f>IF(t1_raw!D60&gt;0, "("&amp;ROUND(t1_raw!D60, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H64" s="111"/>
+      <c r="H64" s="115"/>
       <c r="I64" s="5" t="str">
         <f>IF(t1_raw!E60&gt;0, "("&amp;ROUND(t1_raw!E60, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J64" s="109"/>
+      <c r="J64" s="113"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="4" t="str">
         <f>IF(t1_raw!A61&lt;&gt;"",t1_raw!A61,"")</f>
         <v>Wiria 2013</v>
       </c>
-      <c r="B65" s="111" t="str">
+      <c r="B65" s="115" t="str">
         <f>IF(t1_raw!G61&lt;&gt;0, t1_raw!G61, "")</f>
         <v>954†</v>
       </c>
@@ -4353,7 +4317,7 @@
         <f>IF(t1_raw!B61&lt;&gt;0, t1_raw!B61, "")</f>
         <v>0.18840000033378601</v>
       </c>
-      <c r="D65" s="111" t="str">
+      <c r="D65" s="115" t="str">
         <f>IF(t1_raw!H61&lt;&gt;0, t1_raw!H61, "")</f>
         <v>954†</v>
       </c>
@@ -4361,7 +4325,7 @@
         <f>IF(t1_raw!C62&lt;&gt;0, t1_raw!C62, "")</f>
         <v>0.53475433588027954</v>
       </c>
-      <c r="F65" s="111" t="str">
+      <c r="F65" s="115" t="str">
         <f>IF(AND(t1_raw!I61&lt;&gt;"NA",t1_raw!I61&lt;&gt;0), t1_raw!I61, "")</f>
         <v/>
       </c>
@@ -4369,7 +4333,7 @@
         <f>IF(t1_raw!D62&lt;&gt;0, t1_raw!D62, "")</f>
         <v/>
       </c>
-      <c r="H65" s="111" t="str">
+      <c r="H65" s="115" t="str">
         <f>IF(AND(t1_raw!J61&lt;&gt;"NA",t1_raw!J61&lt;&gt;0), t1_raw!J61, "")</f>
         <v/>
       </c>
@@ -4377,14 +4341,14 @@
         <f>IF(t1_raw!E62&lt;&gt;0, t1_raw!E62, "")</f>
         <v/>
       </c>
-      <c r="J65" s="109">
+      <c r="J65" s="113">
         <f>t1_raw!F61</f>
         <v>0.76</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="4"/>
-      <c r="B66" s="111" t="str">
+      <c r="B66" s="115" t="str">
         <f>IF(t1_raw!G62&lt;&gt;0, t1_raw!G62, "")</f>
         <v/>
       </c>
@@ -4392,7 +4356,7 @@
         <f>IF(t1_raw!B62&gt;0, "("&amp;ROUND(t1_raw!B62, 3)&amp;")", "")</f>
         <v>(0.394)</v>
       </c>
-      <c r="D66" s="111" t="str">
+      <c r="D66" s="115" t="str">
         <f>IF(t1_raw!H62&lt;&gt;0, t1_raw!H62, "")</f>
         <v/>
       </c>
@@ -4400,7 +4364,7 @@
         <f>IF(t1_raw!C62&gt;0, "("&amp;ROUND(t1_raw!C62, 3)&amp;")", "")</f>
         <v>(0.535)</v>
       </c>
-      <c r="F66" s="111" t="str">
+      <c r="F66" s="115" t="str">
         <f>IF(t1_raw!I62&lt;&gt;0, t1_raw!I62, "")</f>
         <v/>
       </c>
@@ -4408,254 +4372,254 @@
         <f>IF(t1_raw!D62&gt;0, "("&amp;ROUND(t1_raw!D62, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H66" s="111"/>
+      <c r="H66" s="115"/>
       <c r="I66" s="5" t="str">
         <f>IF(t1_raw!E62&gt;0, "("&amp;ROUND(t1_raw!E62, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J66" s="109"/>
+      <c r="J66" s="113"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="114" t="s">
+      <c r="A67" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="114"/>
-      <c r="J67" s="114"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="109"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="109"/>
+      <c r="I67" s="109"/>
+      <c r="J67" s="109"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="4" t="str">
         <f>IF(t1_raw!A63&lt;&gt;"",t1_raw!A63,"")</f>
         <v>Freij 1979a</v>
       </c>
-      <c r="B68" s="111"/>
+      <c r="B68" s="115"/>
       <c r="C68" s="5">
         <f>IF(t1_raw!B63&lt;&gt;0, t1_raw!B63, "")</f>
         <v>0.20000000298023224</v>
       </c>
-      <c r="D68" s="111"/>
+      <c r="D68" s="115"/>
       <c r="E68" s="5" t="str">
         <f>IF(t1_raw!C63&lt;&gt;0, t1_raw!C63, "")</f>
         <v/>
       </c>
-      <c r="F68" s="111"/>
+      <c r="F68" s="115"/>
       <c r="G68" s="5">
         <f>IF(t1_raw!D63&lt;&gt;0, t1_raw!D63, "")</f>
         <v>-0.30000001192092896</v>
       </c>
-      <c r="H68" s="111"/>
+      <c r="H68" s="115"/>
       <c r="I68" s="5" t="str">
         <f>IF(t1_raw!E63&lt;&gt;0, t1_raw!E63, "")</f>
         <v/>
       </c>
-      <c r="J68" s="109">
+      <c r="J68" s="113">
         <f>t1_raw!F63</f>
         <v>0.48913043737411499</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="4"/>
-      <c r="B69" s="111"/>
+      <c r="B69" s="115"/>
       <c r="C69" s="5" t="str">
         <f>IF(t1_raw!B64&gt;0, "("&amp;ROUND(t1_raw!B64, 3)&amp;")", "")</f>
         <v>(1.47)</v>
       </c>
-      <c r="D69" s="111"/>
+      <c r="D69" s="115"/>
       <c r="E69" s="5" t="str">
         <f>IF(t1_raw!C64&gt;0, "("&amp;ROUND(t1_raw!C64, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F69" s="111"/>
+      <c r="F69" s="115"/>
       <c r="G69" s="5" t="str">
         <f>IF(t1_raw!D64&gt;0, "("&amp;ROUND(t1_raw!D64, 3)&amp;")", "")</f>
         <v>(0.713)</v>
       </c>
-      <c r="H69" s="111"/>
+      <c r="H69" s="115"/>
       <c r="I69" s="5" t="str">
         <f>IF(t1_raw!E64&gt;0, "("&amp;ROUND(t1_raw!E64, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J69" s="109"/>
+      <c r="J69" s="113"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="4" t="str">
         <f>IF(t1_raw!A65&lt;&gt;"",t1_raw!A65,"")</f>
         <v>Freij 1979b</v>
       </c>
-      <c r="B70" s="111"/>
+      <c r="B70" s="115"/>
       <c r="C70" s="5" t="str">
         <f>IF(t1_raw!B65&lt;&gt;0, t1_raw!B65, "")</f>
         <v/>
       </c>
-      <c r="D70" s="111"/>
+      <c r="D70" s="115"/>
       <c r="E70" s="5" t="str">
         <f>IF(t1_raw!C65&lt;&gt;0, t1_raw!C65, "")</f>
         <v/>
       </c>
-      <c r="F70" s="111"/>
+      <c r="F70" s="115"/>
       <c r="G70" s="5">
         <f>IF(t1_raw!D65&lt;&gt;0, t1_raw!D65, "")</f>
         <v>0.10000000149011612</v>
       </c>
-      <c r="H70" s="111"/>
+      <c r="H70" s="115"/>
       <c r="I70" s="5" t="str">
         <f>IF(t1_raw!E65&lt;&gt;0, t1_raw!E65, "")</f>
         <v/>
       </c>
-      <c r="J70" s="109">
+      <c r="J70" s="113">
         <f>t1_raw!F65</f>
         <v>0.48913043737411499</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="4"/>
-      <c r="B71" s="111"/>
+      <c r="B71" s="115"/>
       <c r="C71" s="5" t="str">
         <f>IF(t1_raw!B66&gt;0, "("&amp;ROUND(t1_raw!B66, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="D71" s="111"/>
+      <c r="D71" s="115"/>
       <c r="E71" s="5" t="str">
         <f>IF(t1_raw!C66&gt;0, "("&amp;ROUND(t1_raw!C66, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F71" s="111"/>
+      <c r="F71" s="115"/>
       <c r="G71" s="5" t="str">
         <f>IF(t1_raw!D66&gt;0, "("&amp;ROUND(t1_raw!D66, 3)&amp;")", "")</f>
         <v>(0.347)</v>
       </c>
-      <c r="H71" s="111"/>
+      <c r="H71" s="115"/>
       <c r="I71" s="5" t="str">
         <f>IF(t1_raw!E66&gt;0, "("&amp;ROUND(t1_raw!E66, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J71" s="109"/>
+      <c r="J71" s="113"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="4" t="str">
         <f>IF(t1_raw!A67&lt;&gt;"",t1_raw!A67,"")</f>
         <v>Sarkar 2002</v>
       </c>
-      <c r="B72" s="111"/>
+      <c r="B72" s="115"/>
       <c r="C72" s="5">
         <f>IF(t1_raw!B67&lt;&gt;0, t1_raw!B67, "")</f>
         <v>0.37999999523162842</v>
       </c>
-      <c r="D72" s="111"/>
+      <c r="D72" s="115"/>
       <c r="E72" s="5">
         <f>IF(t1_raw!C67&lt;&gt;0, t1_raw!C67, "")</f>
         <v>0.10000000149011612</v>
       </c>
-      <c r="F72" s="111"/>
+      <c r="F72" s="115"/>
       <c r="G72" s="5" t="str">
         <f>IF(t1_raw!D67&lt;&gt;0, t1_raw!D67, "")</f>
         <v/>
       </c>
-      <c r="H72" s="111"/>
+      <c r="H72" s="115"/>
       <c r="I72" s="5" t="str">
         <f>IF(t1_raw!E67&lt;&gt;0, t1_raw!E67, "")</f>
         <v/>
       </c>
-      <c r="J72" s="109">
+      <c r="J72" s="113">
         <f>t1_raw!F67</f>
         <v>0.78523492813110352</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="4"/>
-      <c r="B73" s="111"/>
+      <c r="B73" s="115"/>
       <c r="C73" s="5" t="str">
         <f>IF(t1_raw!B68&gt;0, "("&amp;ROUND(t1_raw!B68, 3)&amp;")", "")</f>
         <v>(0.15)</v>
       </c>
-      <c r="D73" s="111"/>
+      <c r="D73" s="115"/>
       <c r="E73" s="5" t="str">
         <f>IF(t1_raw!C68&gt;0, "("&amp;ROUND(t1_raw!C68, 3)&amp;")", "")</f>
         <v>(0.261)</v>
       </c>
-      <c r="F73" s="111"/>
+      <c r="F73" s="115"/>
       <c r="G73" s="5" t="str">
         <f>IF(t1_raw!D68&gt;0, "("&amp;ROUND(t1_raw!D68, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H73" s="111"/>
+      <c r="H73" s="115"/>
       <c r="I73" s="5" t="str">
         <f>IF(t1_raw!E68&gt;0, "("&amp;ROUND(t1_raw!E68, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J73" s="109"/>
+      <c r="J73" s="113"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="4" t="str">
         <f>IF(t1_raw!A69&lt;&gt;"",t1_raw!A69,"")</f>
         <v>Stephenson 1989</v>
       </c>
-      <c r="B74" s="111"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="5">
         <f>IF(t1_raw!B69&lt;&gt;0, t1_raw!B69, "")</f>
         <v>1.2999999523162842</v>
       </c>
-      <c r="D74" s="111"/>
+      <c r="D74" s="115"/>
       <c r="E74" s="5">
         <f>IF(t1_raw!C69&lt;&gt;0, t1_raw!C69, "")</f>
         <v>0.60000002384185791</v>
       </c>
-      <c r="F74" s="111"/>
+      <c r="F74" s="115"/>
       <c r="G74" s="5">
         <f>IF(t1_raw!D69&lt;&gt;0, t1_raw!D69, "")</f>
         <v>0.5</v>
       </c>
-      <c r="H74" s="111"/>
+      <c r="H74" s="115"/>
       <c r="I74" s="5" t="str">
         <f>IF(t1_raw!E69&lt;&gt;0, t1_raw!E69, "")</f>
         <v/>
       </c>
-      <c r="J74" s="109">
+      <c r="J74" s="113">
         <f>t1_raw!F69</f>
         <v>0.97000002861022949</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="4"/>
-      <c r="B75" s="111"/>
+      <c r="B75" s="115"/>
       <c r="C75" s="5" t="str">
         <f>IF(t1_raw!B70&gt;0, "("&amp;ROUND(t1_raw!B70, 3)&amp;")", "")</f>
         <v>(0.134)</v>
       </c>
-      <c r="D75" s="111"/>
+      <c r="D75" s="115"/>
       <c r="E75" s="5" t="str">
         <f>IF(t1_raw!C70&gt;0, "("&amp;ROUND(t1_raw!C70, 3)&amp;")", "")</f>
         <v>(0.134)</v>
       </c>
-      <c r="F75" s="111"/>
+      <c r="F75" s="115"/>
       <c r="G75" s="5" t="str">
         <f>IF(t1_raw!D70&gt;0, "("&amp;ROUND(t1_raw!D70, 3)&amp;")", "")</f>
         <v>(0.078)</v>
       </c>
-      <c r="H75" s="111"/>
+      <c r="H75" s="115"/>
       <c r="I75" s="5" t="str">
         <f>IF(t1_raw!E70&gt;0, "("&amp;ROUND(t1_raw!E70, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J75" s="109"/>
+      <c r="J75" s="113"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="4" t="str">
         <f>IF(t1_raw!A71&lt;&gt;"",t1_raw!A71,"")</f>
         <v>Tee 2013</v>
       </c>
-      <c r="B76" s="111"/>
+      <c r="B76" s="115"/>
       <c r="C76" s="5" t="str">
         <f>IF(t1_raw!B71&lt;&gt;0, t1_raw!B71, "")</f>
         <v/>
       </c>
-      <c r="D76" s="111" t="str">
+      <c r="D76" s="115" t="str">
         <f>IF(AND(t1_raw!H72&lt;&gt;"NA",t1_raw!H72&lt;&gt;0), t1_raw!H72, "")</f>
         <v/>
       </c>
@@ -4663,112 +4627,112 @@
         <f>IF(t1_raw!C71&lt;&gt;0, t1_raw!C71, "")</f>
         <v>-0.10000000149011612</v>
       </c>
-      <c r="F76" s="111"/>
+      <c r="F76" s="115"/>
       <c r="G76" s="5" t="str">
         <f>IF(t1_raw!D71&lt;&gt;0, t1_raw!D71, "")</f>
         <v/>
       </c>
-      <c r="H76" s="111"/>
+      <c r="H76" s="115"/>
       <c r="I76" s="5" t="str">
         <f>IF(t1_raw!E71&lt;&gt;0, t1_raw!E71, "")</f>
         <v/>
       </c>
-      <c r="J76" s="109">
+      <c r="J76" s="113">
         <f>t1_raw!F71</f>
         <v>0.30578511953353882</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="4"/>
-      <c r="B77" s="111"/>
+      <c r="B77" s="115"/>
       <c r="C77" s="5" t="str">
         <f>IF(t1_raw!B72&gt;0, "("&amp;ROUND(t1_raw!B72, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="D77" s="111"/>
+      <c r="D77" s="115"/>
       <c r="E77" s="5" t="str">
         <f>IF(t1_raw!C72&gt;0, "("&amp;ROUND(t1_raw!C72, 3)&amp;")", "")</f>
         <v>(0.404)</v>
       </c>
-      <c r="F77" s="111"/>
+      <c r="F77" s="115"/>
       <c r="G77" s="5" t="str">
         <f>IF(t1_raw!D72&gt;0, "("&amp;ROUND(t1_raw!D72, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H77" s="111"/>
+      <c r="H77" s="115"/>
       <c r="I77" s="5" t="str">
         <f>IF(t1_raw!E72&gt;0, "("&amp;ROUND(t1_raw!E72, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J77" s="109"/>
+      <c r="J77" s="113"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="4" t="str">
         <f>IF(t1_raw!A73&lt;&gt;"",t1_raw!A73,"")</f>
         <v>Yap 2014</v>
       </c>
-      <c r="B78" s="111"/>
+      <c r="B78" s="115"/>
       <c r="C78" s="5">
         <f>IF(t1_raw!B73&lt;&gt;0, t1_raw!B73, "")</f>
         <v>0.30000001192092896</v>
       </c>
-      <c r="D78" s="111"/>
+      <c r="D78" s="115"/>
       <c r="E78" s="5">
         <f>IF(t1_raw!C73&lt;&gt;0, t1_raw!C73, "")</f>
         <v>0.20000000298023224</v>
       </c>
-      <c r="F78" s="111"/>
+      <c r="F78" s="115"/>
       <c r="G78" s="5" t="str">
         <f>IF(t1_raw!D73&lt;&gt;0, t1_raw!D73, "")</f>
         <v/>
       </c>
-      <c r="H78" s="111"/>
+      <c r="H78" s="115"/>
       <c r="I78" s="5">
         <f>IF(t1_raw!E73&lt;&gt;0, t1_raw!E73, "")</f>
         <v>-0.40000000596046448</v>
       </c>
-      <c r="J78" s="109">
+      <c r="J78" s="113">
         <f>t1_raw!F73</f>
         <v>0.93444168567657471</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2"/>
-      <c r="B79" s="119"/>
+      <c r="B79" s="116"/>
       <c r="C79" s="6" t="str">
         <f>IF(t1_raw!B74&gt;0, "("&amp;ROUND(t1_raw!B74, 3)&amp;")", "")</f>
         <v>(0.179)</v>
       </c>
-      <c r="D79" s="111"/>
+      <c r="D79" s="115"/>
       <c r="E79" s="6" t="str">
         <f>IF(t1_raw!C74&gt;0, "("&amp;ROUND(t1_raw!C74, 3)&amp;")", "")</f>
         <v>(0.128)</v>
       </c>
-      <c r="F79" s="119"/>
+      <c r="F79" s="116"/>
       <c r="G79" s="6" t="str">
         <f>IF(t1_raw!D74&gt;0, "("&amp;ROUND(t1_raw!D74, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H79" s="119"/>
+      <c r="H79" s="116"/>
       <c r="I79" s="6" t="str">
         <f>IF(t1_raw!E74&gt;0, "("&amp;ROUND(t1_raw!E74, 3)&amp;")", "")</f>
         <v>(0.434)</v>
       </c>
-      <c r="J79" s="118"/>
+      <c r="J79" s="114"/>
     </row>
     <row r="80" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A80" s="110" t="s">
+      <c r="A80" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="B80" s="110"/>
-      <c r="C80" s="110"/>
-      <c r="D80" s="110"/>
-      <c r="E80" s="110"/>
-      <c r="F80" s="110"/>
-      <c r="G80" s="110"/>
-      <c r="H80" s="110"/>
-      <c r="I80" s="110"/>
-      <c r="J80" s="110"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="117"/>
+      <c r="F80" s="117"/>
+      <c r="G80" s="117"/>
+      <c r="H80" s="117"/>
+      <c r="I80" s="117"/>
+      <c r="J80" s="117"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="4"/>
@@ -4780,6 +4744,176 @@
     </row>
   </sheetData>
   <mergeCells count="194">
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="H70:H71"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A67:J67"/>
@@ -4804,176 +4938,6 @@
     <mergeCell ref="F74:F75"/>
     <mergeCell ref="H74:H75"/>
     <mergeCell ref="J72:J73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5015,23 +4979,23 @@
       <c r="D2" s="80"/>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
-      <c r="G2" s="144" t="s">
+      <c r="G2" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
       <c r="J2" s="29"/>
-      <c r="K2" s="144" t="s">
+      <c r="K2" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
       <c r="N2" s="82"/>
-      <c r="O2" s="144" t="s">
+      <c r="O2" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
       <c r="S2" s="80"/>
       <c r="T2" s="80"/>
     </row>
@@ -5368,10 +5332,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A2:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5379,173 +5343,173 @@
     <col min="1" max="1" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A1" s="85"/>
-      <c r="B1" s="84" t="s">
+    <row r="2" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A2" s="147"/>
+      <c r="B2" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C2" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D2" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E2" s="105" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="145" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="146" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="149">
         <f>ts8_raw!B1</f>
         <v>0.21500000357627869</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="149">
         <f>ts8_raw!C1</f>
         <v>0.23100000619888306</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="149">
         <f>ts8_raw!D1</f>
         <v>6.8999998271465302E-2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="149">
         <f>ts8_raw!E1</f>
         <v>4.6000000089406967E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="146"/>
-      <c r="B4" s="86" t="str">
+    <row r="5" spans="1:5">
+      <c r="A5" s="148"/>
+      <c r="B5" s="150" t="str">
         <f>"("&amp;ROUND(ts8_raw!B2, 3)&amp;")"</f>
         <v>(0.043)</v>
       </c>
-      <c r="C4" s="86" t="str">
+      <c r="C5" s="150" t="str">
         <f>"("&amp;ROUND(ts8_raw!C2, 3)&amp;")"</f>
         <v>(0.11)</v>
       </c>
-      <c r="D4" s="86" t="str">
+      <c r="D5" s="150" t="str">
         <f>"("&amp;ROUND(ts8_raw!D2, 3)&amp;")"</f>
         <v>(0.037)</v>
       </c>
-      <c r="E4" s="86" t="str">
+      <c r="E5" s="150" t="str">
         <f>"("&amp;ROUND(ts8_raw!E2, 3)&amp;")"</f>
         <v>(0.034)</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="146" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B6" s="149">
         <f>ts8_raw!B3</f>
         <v>0.17200000584125519</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C6" s="149">
         <f>ts8_raw!C3</f>
         <v>0.13699999451637268</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="149">
         <f>ts8_raw!D3</f>
         <v>6.4000003039836884E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="149">
         <f>ts8_raw!E3</f>
         <v>3.7000000476837158E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="146"/>
-      <c r="B6" s="86" t="str">
+    <row r="7" spans="1:5">
+      <c r="A7" s="148"/>
+      <c r="B7" s="150" t="str">
         <f>"("&amp;ROUND(ts8_raw!B4, 3)&amp;")"</f>
         <v>(0.057)</v>
       </c>
-      <c r="C6" s="86" t="str">
+      <c r="C7" s="150" t="str">
         <f>"("&amp;ROUND(ts8_raw!C4, 3)&amp;")"</f>
         <v>(0.188)</v>
       </c>
-      <c r="D6" s="86" t="str">
+      <c r="D7" s="150" t="str">
         <f>"("&amp;ROUND(ts8_raw!D4, 3)&amp;")"</f>
         <v>(0.045)</v>
       </c>
-      <c r="E6" s="86" t="str">
+      <c r="E7" s="150" t="str">
         <f>"("&amp;ROUND(ts8_raw!E4, 3)&amp;")"</f>
         <v>(0.04)</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-    </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="147" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
+      <c r="A8" s="150"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="146" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="146"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="149">
         <f>ts8_raw!B5</f>
         <v>9.0459995269775391</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C10" s="149">
         <f>ts8_raw!C5</f>
         <v>0.10499999672174454</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="149">
         <f>ts8_raw!D5</f>
         <v>-0.50099998712539673</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="149">
         <f>ts8_raw!E5</f>
         <v>1.7999999225139618E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A10" s="148"/>
-      <c r="B10" s="83" t="str">
+    <row r="11" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A11" s="151"/>
+      <c r="B11" s="7" t="str">
         <f>"("&amp;ROUND(ts8_raw!B6, 3)&amp;")"</f>
         <v>(5.778)</v>
       </c>
-      <c r="C10" s="83" t="str">
+      <c r="C11" s="7" t="str">
         <f>"("&amp;ROUND(ts8_raw!C6, 3)&amp;")"</f>
         <v>(10.012)</v>
       </c>
-      <c r="D10" s="83" t="str">
+      <c r="D11" s="7" t="str">
         <f>"("&amp;ROUND(ts8_raw!D6, 3)&amp;")"</f>
         <v>(10.414)</v>
       </c>
-      <c r="E10" s="83" t="str">
+      <c r="E11" s="7" t="str">
         <f>"("&amp;ROUND(ts8_raw!E6, 3)&amp;")"</f>
         <v>(10.375)</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5569,70 +5533,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="88"/>
-      <c r="B1" s="89" t="s">
+      <c r="A1" s="84"/>
+      <c r="B1" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="84" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="87">
+      <c r="B2" s="83">
         <f>tF1_raw!B2</f>
         <v>0.47</v>
       </c>
-      <c r="C2" s="87">
+      <c r="C2" s="83">
         <f>tF1_raw!C2</f>
         <v>0.74</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="87">
+      <c r="B3" s="83">
         <f>tF1_raw!B3</f>
         <v>0.82</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="83">
         <f>tF1_raw!C3</f>
         <v>0.66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="83">
         <f>tF1_raw!B4</f>
         <v>0.76</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="83">
         <f>tF1_raw!C4</f>
         <v>0.77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="89">
+      <c r="B5" s="85">
         <f>tF1_raw!B5</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="C5" s="89">
+      <c r="C5" s="85">
         <f>tF1_raw!C5</f>
         <v>0.37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="91"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5657,93 +5621,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="97"/>
-      <c r="B1" s="93" t="s">
+      <c r="A1" s="93"/>
+      <c r="B1" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="90" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="92" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90" t="str">
+      <c r="B3" s="86" t="str">
         <f>CONCATENATE(ROUND(tF1_2_raw!B2,2), " (",ROUND(tF1_2_raw!B3,2),")")</f>
         <v>0.18 (0.11)</v>
       </c>
-      <c r="C3" s="90" t="str">
+      <c r="C3" s="86" t="str">
         <f>CONCATENATE(ROUND(tF1_2_raw!C2,2), " (",ROUND(tF1_2_raw!C3,2),")")</f>
         <v>0.28 (0.12)</v>
       </c>
-      <c r="D3" s="87" t="str">
+      <c r="D3" s="83" t="str">
         <f>CONCATENATE(ROUND(tF1_2_raw!D2,2), " (",ROUND(tF1_2_raw!D3,2),")")</f>
         <v>1.95 (1.57)</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="90" t="str">
+      <c r="B4" s="86" t="str">
         <f>CONCATENATE(ROUND(tF1_2_raw!B4,2), " (",ROUND(tF1_2_raw!B5,2),")")</f>
         <v>0.05 (0.03)</v>
       </c>
-      <c r="C4" s="90" t="str">
+      <c r="C4" s="86" t="str">
         <f>CONCATENATE(ROUND(tF1_2_raw!C4,2), " (",ROUND(tF1_2_raw!C5,2),")")</f>
         <v>0 (0)</v>
       </c>
-      <c r="D4" s="87" t="str">
+      <c r="D4" s="83" t="str">
         <f>CONCATENATE(ROUND(tF1_2_raw!D4,2), " (",ROUND(tF1_2_raw!D5,2),")")</f>
         <v>0.42 (0.28)</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="90" t="str">
+      <c r="B5" s="86" t="str">
         <f>CONCATENATE(ROUND(tF1_2_raw!B6,2), " (",ROUND(tF1_2_raw!B7,2),")")</f>
         <v>0.11 (0.12)</v>
       </c>
-      <c r="C5" s="90" t="str">
+      <c r="C5" s="86" t="str">
         <f>CONCATENATE(ROUND(tF1_2_raw!C6,2), " (",ROUND(tF1_2_raw!C7,2),")")</f>
         <v>0.19 (0.05)</v>
       </c>
-      <c r="D5" s="87" t="str">
+      <c r="D5" s="83" t="str">
         <f>CONCATENATE(ROUND(tF1_2_raw!D6,2), " (",ROUND(tF1_2_raw!D7,2),")")</f>
         <v>0.7 (0.94)</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="96" t="str">
+      <c r="B6" s="92" t="str">
         <f>CONCATENATE(ROUND(tF1_2_raw!B8,2), " (",ROUND(tF1_2_raw!B9,2),")")</f>
         <v>0.02 (0.02)</v>
       </c>
-      <c r="C6" s="96" t="str">
+      <c r="C6" s="92" t="str">
         <f>CONCATENATE(ROUND(tF1_2_raw!C8,2), " (",ROUND(tF1_2_raw!C9,2),")")</f>
         <v>0 (0)</v>
       </c>
-      <c r="D6" s="89" t="str">
+      <c r="D6" s="85" t="str">
         <f>CONCATENATE(ROUND(tF1_2_raw!D8,2), " (",ROUND(tF1_2_raw!D9,2),")")</f>
         <v>0.72 (0.77)</v>
       </c>
@@ -5771,71 +5735,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="102"/>
-      <c r="B1" s="98" t="s">
+      <c r="A1" s="98"/>
+      <c r="B1" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="94" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="96" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="92" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="101" t="str">
+      <c r="B3" s="97" t="str">
         <f>ROUND(tF1_2_raw!B2,2)&amp;" ("&amp;ROUND(tF1_2_raw!B2 - 1.96 * tF1_2_raw!B3,2)&amp;","&amp;ROUND(tF1_2_raw!B2 + 1.96 * tF1_2_raw!B3,2)&amp;")"</f>
         <v>0.18 (-0.03,0.39)</v>
       </c>
-      <c r="C3" s="101" t="str">
+      <c r="C3" s="97" t="str">
         <f>ROUND('Table 2'!C$7,2)&amp;" ("&amp;ROUND('Table 2'!C$7 - 1.96 * 'Table 2'!C$8,2)&amp;","&amp;ROUND('Table 2'!C$7 + 1.96 * 'Table 2'!C$8,2)&amp;")"</f>
         <v>0.14 (0.05,0.23)</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="101" t="str">
+      <c r="B4" s="97" t="str">
         <f>ROUND(tF1_2_raw!B4,2)&amp;" ("&amp;ROUND(tF1_2_raw!B4 - 1.96 * tF1_2_raw!B5,2)&amp;","&amp;ROUND(tF1_2_raw!B4 + 1.96 * tF1_2_raw!B5,2)&amp;")"</f>
         <v>0.05 (0,0.11)</v>
       </c>
-      <c r="C4" s="101" t="str">
+      <c r="C4" s="97" t="str">
         <f>ROUND('Table 2'!I7,2)&amp;" ("&amp;ROUND('Table 2'!I7 - 1.96 * 'Table 2'!I8,2)&amp;","&amp;ROUND('Table 2'!I7 + 1.96 * 'Table 2'!I8,2)&amp;")"</f>
         <v>0.06 (-0.02,0.15)</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="101" t="str">
+      <c r="B5" s="97" t="str">
         <f>ROUND(tF1_2_raw!B6,2)&amp;" ("&amp;ROUND(tF1_2_raw!B6 - 1.96 * tF1_2_raw!B7,2)&amp;","&amp;ROUND(tF1_2_raw!B6 + 1.96 * tF1_2_raw!B7,2)&amp;")"</f>
         <v>0.11 (-0.12,0.34)</v>
       </c>
-      <c r="C5" s="101" t="str">
+      <c r="C5" s="97" t="str">
         <f>ROUND('Table 2'!F$7,2)&amp;" ("&amp;ROUND('Table 2'!F$7 - 1.96 * 'Table 2'!F$8,2)&amp;","&amp;ROUND('Table 2'!F$7 + 1.96 * 'Table 2'!F$8,2)&amp;")"</f>
         <v>0.13 (-0.06,0.31)</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="100" t="str">
+      <c r="B6" s="96" t="str">
         <f>ROUND(tF1_2_raw!B8,2)&amp;" ("&amp;ROUND(tF1_2_raw!B8 - 1.96 * tF1_2_raw!B9,2)&amp;","&amp;ROUND(tF1_2_raw!B8 + 1.96 * tF1_2_raw!B9,2)&amp;")"</f>
         <v>0.02 (-0.02,0.06)</v>
       </c>
-      <c r="C6" s="100" t="str">
+      <c r="C6" s="96" t="str">
         <f>ROUND('Table 2'!L$7,2)&amp;" ("&amp;ROUND('Table 2'!L$7 - 1.96 * 'Table 2'!L$8,2)&amp;","&amp;ROUND('Table 2'!L$7 + 1.96 * 'Table 2'!L$8,2)&amp;")"</f>
         <v>0.03 (-0.03,0.08)</v>
       </c>
@@ -5862,88 +5826,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="101" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="100" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="87">
+      <c r="B2" s="83">
         <f>tF2_raw!B2</f>
         <v>0.45</v>
       </c>
-      <c r="C2" s="87">
+      <c r="C2" s="83">
         <f>tF2_raw!C2</f>
         <v>0.64</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="87">
+      <c r="B3" s="83">
         <f>tF2_raw!B3</f>
         <v>0.87</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="83">
         <f>tF2_raw!C3</f>
         <v>0.69</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="83">
         <f>tF2_raw!B4</f>
         <v>0.42</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="83">
         <f>tF2_raw!C4</f>
         <v>0.38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="89">
+      <c r="B5" s="85">
         <f>tF2_raw!B5</f>
         <v>0.81</v>
       </c>
-      <c r="C5" s="103">
+      <c r="C5" s="99">
         <f>tF2_raw!C5</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="92"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="149"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="92"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="149"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
+      <c r="A14" s="143"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5969,93 +5933,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="98"/>
-      <c r="B1" s="93" t="s">
+      <c r="A1" s="94"/>
+      <c r="B1" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="90" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="88"/>
-      <c r="B2" s="96" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="92" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90" t="str">
+      <c r="B3" s="86" t="str">
         <f>CONCATENATE(ROUND(tF2_2_raw!B2,2), " (",ROUND(tF2_2_raw!B3,2),")")</f>
         <v>0.29 (0.13)</v>
       </c>
-      <c r="C3" s="90" t="str">
+      <c r="C3" s="86" t="str">
         <f>CONCATENATE(ROUND(tF2_2_raw!C2,2), " (",ROUND(tF2_2_raw!C3,2),")")</f>
         <v>0.39 (0.11)</v>
       </c>
-      <c r="D3" s="87" t="str">
+      <c r="D3" s="83" t="str">
         <f>CONCATENATE(ROUND(tF2_2_raw!D2,2), " (",ROUND(tF2_2_raw!D3,2),")")</f>
         <v>2.74 (1.8)</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="90" t="str">
+      <c r="B4" s="86" t="str">
         <f>CONCATENATE(ROUND(tF2_2_raw!B4,2), " (",ROUND(tF2_2_raw!B5,2),")")</f>
         <v>0.09 (0.06)</v>
       </c>
-      <c r="C4" s="90" t="str">
+      <c r="C4" s="86" t="str">
         <f>CONCATENATE(ROUND(tF2_2_raw!C4,2), " (",ROUND(tF2_2_raw!C5,2),")")</f>
         <v>0.09 (0.12)</v>
       </c>
-      <c r="D4" s="87" t="str">
+      <c r="D4" s="83" t="str">
         <f>CONCATENATE(ROUND(tF2_2_raw!D4,2), " (",ROUND(tF2_2_raw!D5,2),")")</f>
         <v>0.73 (0.8)</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="90" t="str">
+      <c r="B5" s="86" t="str">
         <f>CONCATENATE(ROUND(tF2_2_raw!B6,2), " (",ROUND(tF2_2_raw!B7,2),")")</f>
         <v>0.17 (0.12)</v>
       </c>
-      <c r="C5" s="90" t="str">
+      <c r="C5" s="86" t="str">
         <f>CONCATENATE(ROUND(tF2_2_raw!C6,2), " (",ROUND(tF2_2_raw!C7,2),")")</f>
         <v>0.23 (0.04)</v>
       </c>
-      <c r="D5" s="87" t="str">
+      <c r="D5" s="83" t="str">
         <f>CONCATENATE(ROUND(tF2_2_raw!D6,2), " (",ROUND(tF2_2_raw!D7,2),")")</f>
         <v>0.94 (0.96)</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="96" t="str">
+      <c r="B6" s="92" t="str">
         <f>CONCATENATE(ROUND(tF2_2_raw!B8,2), " (",ROUND(tF2_2_raw!B9,2),")")</f>
         <v>0.02 (0.02)</v>
       </c>
-      <c r="C6" s="96" t="str">
+      <c r="C6" s="92" t="str">
         <f>CONCATENATE(ROUND(tF2_2_raw!C8,2), " (",ROUND(tF2_2_raw!C9,2),")")</f>
         <v>0 (0)</v>
       </c>
-      <c r="D6" s="89" t="str">
+      <c r="D6" s="85" t="str">
         <f>CONCATENATE(ROUND(tF2_2_raw!D8,2), " (",ROUND(tF2_2_raw!D9,2),")")</f>
         <v>0.77 (0.81)</v>
       </c>
@@ -6082,71 +6046,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="102"/>
-      <c r="B1" s="98" t="s">
+      <c r="A1" s="98"/>
+      <c r="B1" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="94" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="96" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="92" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="101" t="str">
+      <c r="B3" s="97" t="str">
         <f>ROUND(tF2_2_raw!B2,2)&amp;" ("&amp;ROUND(tF2_2_raw!B2 - 1.96 * tF2_2_raw!B3,2)&amp;","&amp;ROUND(tF2_2_raw!B2 + 1.96 * tF2_2_raw!B3,2)&amp;")"</f>
         <v>0.29 (0.03,0.54)</v>
       </c>
-      <c r="C3" s="101" t="str">
+      <c r="C3" s="97" t="str">
         <f>ROUND('Table 2'!C$7,2)&amp;" ("&amp;ROUND('Table 2'!C$7 - 1.96 * 'Table 2'!C$8,2)&amp;","&amp;ROUND('Table 2'!C$7 + 1.96 * 'Table 2'!C$8,2)&amp;")"</f>
         <v>0.14 (0.05,0.23)</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="101" t="str">
+      <c r="B4" s="97" t="str">
         <f>ROUND(tF2_2_raw!B4,2)&amp;" ("&amp;ROUND(tF2_2_raw!B4 - 1.96 * tF2_2_raw!B5,2)&amp;","&amp;ROUND(tF2_2_raw!B4 + 1.96 * tF2_2_raw!B5,2)&amp;")"</f>
         <v>0.09 (-0.01,0.2)</v>
       </c>
-      <c r="C4" s="101" t="str">
+      <c r="C4" s="97" t="str">
         <f>ROUND('Table 2'!I7,2)&amp;" ("&amp;ROUND('Table 2'!I7 - 1.96 * 'Table 2'!I8,2)&amp;","&amp;ROUND('Table 2'!I7 + 1.96 * 'Table 2'!I8,2)&amp;")"</f>
         <v>0.06 (-0.02,0.15)</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="101" t="str">
+      <c r="B5" s="97" t="str">
         <f>ROUND(tF2_2_raw!B6,2)&amp;" ("&amp;ROUND(tF2_2_raw!B6 - 1.96 * tF2_2_raw!B7,2)&amp;","&amp;ROUND(tF2_2_raw!B6 + 1.96 * tF2_2_raw!B7,2)&amp;")"</f>
         <v>0.17 (-0.06,0.4)</v>
       </c>
-      <c r="C5" s="101" t="str">
+      <c r="C5" s="97" t="str">
         <f>ROUND('Table 2'!F$7,2)&amp;" ("&amp;ROUND('Table 2'!F$7 - 1.96 * 'Table 2'!F$8,2)&amp;","&amp;ROUND('Table 2'!F$7 + 1.96 * 'Table 2'!F$8,2)&amp;")"</f>
         <v>0.13 (-0.06,0.31)</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="100" t="str">
+      <c r="B6" s="96" t="str">
         <f>ROUND(tF2_2_raw!B8,2)&amp;" ("&amp;ROUND(tF2_2_raw!B8 - 1.96 * tF2_2_raw!B9,2)&amp;","&amp;ROUND(tF2_2_raw!B8 + 1.96 * tF2_2_raw!B9,2)&amp;")"</f>
         <v>0.02 (-0.02,0.06)</v>
       </c>
-      <c r="C6" s="100" t="str">
+      <c r="C6" s="96" t="str">
         <f>ROUND('Table 2'!L$7,2)&amp;" ("&amp;ROUND('Table 2'!L$7 - 1.96 * 'Table 2'!L$8,2)&amp;","&amp;ROUND('Table 2'!L$7 + 1.96 * 'Table 2'!L$8,2)&amp;")"</f>
         <v>0.03 (-0.03,0.08)</v>
       </c>
@@ -8439,7 +8403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="170" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="170" workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
@@ -8456,68 +8420,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="14"/>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="120"/>
+      <c r="D3" s="123"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="120" t="s">
+      <c r="F3" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="120"/>
+      <c r="G3" s="123"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="120" t="s">
+      <c r="I3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="120"/>
+      <c r="J3" s="123"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="120" t="s">
+      <c r="L3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="120"/>
+      <c r="M3" s="123"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="15"/>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="106" t="s">
         <v>197</v>
       </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154" t="s">
+      <c r="E4" s="106"/>
+      <c r="F4" s="106" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154" t="s">
+      <c r="H4" s="106"/>
+      <c r="I4" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="J4" s="154" t="s">
+      <c r="J4" s="106" t="s">
         <v>201</v>
       </c>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154" t="s">
+      <c r="K4" s="106"/>
+      <c r="L4" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="M4" s="154" t="s">
+      <c r="M4" s="106" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8554,20 +8518,20 @@
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="15" t="s">
@@ -8729,45 +8693,45 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="15"/>
-      <c r="C11" s="121" t="str">
+      <c r="C11" s="119" t="str">
         <f>"N="&amp;t2_raw!B7</f>
         <v>N=27</v>
       </c>
-      <c r="D11" s="121"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="121" t="str">
+      <c r="F11" s="119" t="str">
         <f>"N="&amp;t2_raw!E7</f>
         <v>N=7</v>
       </c>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121" t="str">
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119" t="str">
         <f>"N="&amp;t2_raw!I7</f>
         <v>N=22</v>
       </c>
-      <c r="J11" s="121"/>
+      <c r="J11" s="119"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="121" t="str">
+      <c r="L11" s="119" t="str">
         <f>"N="&amp;t2_raw!L7</f>
         <v>N=13</v>
       </c>
-      <c r="M11" s="121"/>
+      <c r="M11" s="119"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="15" t="s">
@@ -8929,45 +8893,45 @@
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="15"/>
-      <c r="C17" s="121" t="str">
+      <c r="C17" s="119" t="str">
         <f>"N="&amp;t2_raw!B19</f>
         <v>N=21</v>
       </c>
-      <c r="D17" s="121"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="121" t="str">
+      <c r="F17" s="119" t="str">
         <f>"N="&amp;t2_raw!E19</f>
         <v>N=6</v>
       </c>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121" t="str">
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119" t="str">
         <f>"N="&amp;t2_raw!I19</f>
         <v>N=16</v>
       </c>
-      <c r="J17" s="121"/>
+      <c r="J17" s="119"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="121" t="str">
+      <c r="L17" s="119" t="str">
         <f>"N="&amp;t2_raw!L19</f>
         <v>N=11</v>
       </c>
-      <c r="M17" s="121"/>
+      <c r="M17" s="119"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="122"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
     </row>
     <row r="19" spans="2:13" ht="15.95" customHeight="1">
       <c r="B19" s="15" t="s">
@@ -9155,46 +9119,46 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="152"/>
-      <c r="C23" s="153" t="str">
+      <c r="B23" s="15"/>
+      <c r="C23" s="119" t="str">
         <f>"N="&amp;t2_raw!B31</f>
         <v>N=4</v>
       </c>
-      <c r="D23" s="153"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="153" t="str">
+      <c r="D23" s="119"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="119" t="str">
         <f>"N="&amp;t2_raw!E31</f>
         <v>N=3</v>
       </c>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153" t="str">
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119" t="str">
         <f>"N="&amp;t2_raw!I31</f>
         <v>N=4</v>
       </c>
-      <c r="J23" s="153"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="153" t="str">
+      <c r="J23" s="119"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="119" t="str">
         <f>"N="&amp;t2_raw!L31</f>
         <v>N=1</v>
       </c>
-      <c r="M23" s="153"/>
+      <c r="M23" s="119"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="122"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
     </row>
     <row r="25" spans="2:13" ht="15.95" customHeight="1">
       <c r="B25" s="15" t="s">
@@ -9383,53 +9347,53 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="12"/>
-      <c r="C29" s="124" t="str">
+      <c r="C29" s="121" t="str">
         <f>"N="&amp;t2_raw!B37</f>
         <v>N=31</v>
       </c>
-      <c r="D29" s="124"/>
+      <c r="D29" s="121"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="124" t="str">
+      <c r="F29" s="121" t="str">
         <f>"N="&amp;t2_raw!E37</f>
         <v>N=10</v>
       </c>
-      <c r="G29" s="124"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124" t="str">
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121" t="str">
         <f>"N="&amp;t2_raw!I37</f>
         <v>N=26</v>
       </c>
-      <c r="J29" s="124"/>
+      <c r="J29" s="121"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="124" t="str">
+      <c r="L29" s="121" t="str">
         <f>"N="&amp;t2_raw!L37</f>
         <v>N=14</v>
       </c>
-      <c r="M29" s="124"/>
+      <c r="M29" s="121"/>
     </row>
     <row r="30" spans="2:13" ht="96.75" customHeight="1">
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="123"/>
-      <c r="L30" s="123"/>
-      <c r="M30" s="123"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:M6"/>
     <mergeCell ref="B30:M30"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="B1:M1"/>
@@ -9446,11 +9410,11 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10755,211 +10719,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="106"/>
-      <c r="B1" s="150" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="144" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="106"/>
-      <c r="B2" s="108" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="104" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="104" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="145" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="108" t="str">
+      <c r="B4" s="104" t="str">
         <f>tF_raw!B2</f>
         <v>18</v>
       </c>
-      <c r="C4" s="108" t="str">
+      <c r="C4" s="104" t="str">
         <f>tF_raw!C2</f>
         <v>7</v>
       </c>
-      <c r="D4" s="108" t="str">
+      <c r="D4" s="104" t="str">
         <f>tF_raw!D2</f>
         <v>2</v>
       </c>
-      <c r="E4" s="108" t="str">
+      <c r="E4" s="104" t="str">
         <f>tF_raw!E2</f>
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="108" t="str">
+      <c r="B5" s="104" t="str">
         <f>tF_raw!B3</f>
         <v>19</v>
       </c>
-      <c r="C5" s="108" t="str">
+      <c r="C5" s="104" t="str">
         <f>tF_raw!C3</f>
         <v>2</v>
       </c>
-      <c r="D5" s="108" t="str">
+      <c r="D5" s="104" t="str">
         <f>tF_raw!D3</f>
         <v>1</v>
       </c>
-      <c r="E5" s="108" t="str">
+      <c r="E5" s="104" t="str">
         <f>tF_raw!E3</f>
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="108" t="str">
+      <c r="B6" s="104" t="str">
         <f>tF_raw!B4</f>
         <v>4</v>
       </c>
-      <c r="C6" s="108" t="str">
+      <c r="C6" s="104" t="str">
         <f>tF_raw!C4</f>
         <v>2</v>
       </c>
-      <c r="D6" s="108" t="str">
+      <c r="D6" s="104" t="str">
         <f>tF_raw!D4</f>
         <v>1</v>
       </c>
-      <c r="E6" s="108" t="str">
+      <c r="E6" s="104" t="str">
         <f>tF_raw!E4</f>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="108" t="str">
+      <c r="B7" s="104" t="str">
         <f>tF_raw!B5</f>
         <v>12</v>
       </c>
-      <c r="C7" s="108" t="str">
+      <c r="C7" s="104" t="str">
         <f>tF_raw!C5</f>
         <v>1</v>
       </c>
-      <c r="D7" s="108" t="str">
+      <c r="D7" s="104" t="str">
         <f>tF_raw!D5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="108" t="str">
+      <c r="E7" s="104" t="str">
         <f>tF_raw!E5</f>
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="145" t="s">
         <v>232</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="108" t="str">
+      <c r="B9" s="104" t="str">
         <f>tF_raw!B7</f>
         <v>20</v>
       </c>
-      <c r="C9" s="108" t="str">
+      <c r="C9" s="104" t="str">
         <f>tF_raw!C7</f>
         <v>9</v>
       </c>
-      <c r="D9" s="108" t="str">
+      <c r="D9" s="104" t="str">
         <f>tF_raw!D7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="108" t="str">
+      <c r="E9" s="104" t="str">
         <f>tF_raw!E7</f>
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="108" t="str">
+      <c r="B10" s="104" t="str">
         <f>tF_raw!B8</f>
         <v>22</v>
       </c>
-      <c r="C10" s="108" t="str">
+      <c r="C10" s="104" t="str">
         <f>tF_raw!C8</f>
         <v>3</v>
       </c>
-      <c r="D10" s="108" t="str">
+      <c r="D10" s="104" t="str">
         <f>tF_raw!D8</f>
         <v>1</v>
       </c>
-      <c r="E10" s="108" t="str">
+      <c r="E10" s="104" t="str">
         <f>tF_raw!E8</f>
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="B11" s="108" t="str">
+      <c r="B11" s="104" t="str">
         <f>tF_raw!B9</f>
         <v>6</v>
       </c>
-      <c r="C11" s="108" t="str">
+      <c r="C11" s="104" t="str">
         <f>tF_raw!C9</f>
         <v>3</v>
       </c>
-      <c r="D11" s="108" t="str">
+      <c r="D11" s="104" t="str">
         <f>tF_raw!D9</f>
         <v>1</v>
       </c>
-      <c r="E11" s="108" t="str">
+      <c r="E11" s="104" t="str">
         <f>tF_raw!E9</f>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="108" t="str">
+      <c r="B12" s="104" t="str">
         <f>tF_raw!B10</f>
         <v>13</v>
       </c>
-      <c r="C12" s="108" t="str">
+      <c r="C12" s="104" t="str">
         <f>tF_raw!C10</f>
         <v>1</v>
       </c>
-      <c r="D12" s="108" t="str">
+      <c r="D12" s="104" t="str">
         <f>tF_raw!D10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="108" t="str">
+      <c r="E12" s="104" t="str">
         <f>tF_raw!E10</f>
         <v>14</v>
       </c>
@@ -12570,55 +12534,55 @@
     </row>
     <row r="3" spans="2:21" ht="15.95" customHeight="1">
       <c r="B3" s="29"/>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
       <c r="J3" s="30"/>
-      <c r="K3" s="126" t="s">
+      <c r="K3" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
       <c r="N3" s="20"/>
-      <c r="O3" s="126" t="s">
+      <c r="O3" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
       <c r="R3" s="20"/>
-      <c r="S3" s="126" t="s">
+      <c r="S3" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
     </row>
     <row r="4" spans="2:21">
       <c r="B4" s="31"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
       <c r="N4" s="23"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
       <c r="R4" s="23"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
     </row>
     <row r="5" spans="2:21" ht="72.95" customHeight="1">
       <c r="B5" s="31"/>
@@ -12736,7 +12700,7 @@
         <f>t3_raw!B$3</f>
         <v>0.15448729999999999</v>
       </c>
-      <c r="H7" s="128">
+      <c r="H7" s="125">
         <f>t3_raw!B$5</f>
         <v>9.8310099999999997E-2</v>
       </c>
@@ -12749,7 +12713,7 @@
         <f>t3_raw!$B$11</f>
         <v>0.17255409999999999</v>
       </c>
-      <c r="L7" s="128">
+      <c r="L7" s="125">
         <f>t3_raw!$B$13</f>
         <v>0.1061872</v>
       </c>
@@ -12761,20 +12725,20 @@
       <c r="O7" s="16">
         <v>0.39</v>
       </c>
-      <c r="P7" s="128">
+      <c r="P7" s="125">
         <v>0.255</v>
       </c>
-      <c r="Q7" s="128">
+      <c r="Q7" s="125">
         <v>6.2</v>
       </c>
       <c r="R7" s="16"/>
       <c r="S7" s="16">
         <v>0.12</v>
       </c>
-      <c r="T7" s="128">
+      <c r="T7" s="125">
         <v>0.24</v>
       </c>
-      <c r="U7" s="128">
+      <c r="U7" s="125">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -12796,7 +12760,7 @@
         <f>"["&amp;ROUND(t3_raw!B$4, 2)&amp;"]"</f>
         <v>[3.14]</v>
       </c>
-      <c r="H8" s="129"/>
+      <c r="H8" s="124"/>
       <c r="I8" s="26" t="str">
         <f>"["&amp;ROUND(t3_raw!B$8,1)&amp;", "&amp;ROUND(t3_raw!B$7,1)&amp;"]"</f>
         <v>[63.8, 258.7]</v>
@@ -12806,7 +12770,7 @@
         <f>"["&amp;ROUND(t3_raw!$B$12, 2)&amp;"]"</f>
         <v>[3.25]</v>
       </c>
-      <c r="L8" s="129"/>
+      <c r="L8" s="124"/>
       <c r="M8" s="26" t="str">
         <f>"["&amp;ROUND(t3_raw!$B$16,1)&amp;", "&amp;ROUND(t3_raw!$B$15,1)&amp;"]"</f>
         <v>[69, 279.4]</v>
@@ -12815,14 +12779,14 @@
       <c r="O8" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="129"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
       <c r="R8" s="16"/>
       <c r="S8" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="T8" s="129"/>
-      <c r="U8" s="129"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
     </row>
     <row r="9" spans="2:21">
       <c r="B9" s="23"/>
@@ -12858,7 +12822,7 @@
         <f>t3_raw!C$3</f>
         <v>0.1981166</v>
       </c>
-      <c r="H10" s="129">
+      <c r="H10" s="124">
         <f>t3_raw!C$5</f>
         <v>0.1132095</v>
       </c>
@@ -12871,7 +12835,7 @@
         <f>t3_raw!$C$11</f>
         <v>0.1981166</v>
       </c>
-      <c r="L10" s="129">
+      <c r="L10" s="124">
         <f>t3_raw!$C$13</f>
         <v>0.1132095</v>
       </c>
@@ -12883,20 +12847,20 @@
       <c r="O10" s="16">
         <v>0.31</v>
       </c>
-      <c r="P10" s="129">
+      <c r="P10" s="124">
         <v>0.13500000000000001</v>
       </c>
-      <c r="Q10" s="129">
+      <c r="Q10" s="124">
         <v>3.3</v>
       </c>
       <c r="R10" s="16"/>
-      <c r="S10" s="129" t="s">
+      <c r="S10" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="129" t="s">
+      <c r="T10" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="129" t="s">
+      <c r="U10" s="124" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12918,7 +12882,7 @@
         <f>"["&amp;ROUND(t3_raw!C$4, 2)&amp;"]"</f>
         <v>[3.5]</v>
       </c>
-      <c r="H11" s="129"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="26" t="str">
         <f>"["&amp;ROUND(t3_raw!C$8,1)&amp;", "&amp;ROUND(t3_raw!B$7,1)&amp;"]"</f>
         <v>[73.5, 258.7]</v>
@@ -12928,7 +12892,7 @@
         <f>"["&amp;ROUND(t3_raw!$C$12, 2)&amp;"]"</f>
         <v>[3.5]</v>
       </c>
-      <c r="L11" s="129"/>
+      <c r="L11" s="124"/>
       <c r="M11" s="26" t="str">
         <f>"["&amp;ROUND(t3_raw!$C$16,1)&amp;", "&amp;ROUND(t3_raw!$C$15,1)&amp;"]"</f>
         <v>[73.5, 297.9]</v>
@@ -12937,12 +12901,12 @@
       <c r="O11" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="124"/>
       <c r="R11" s="16"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="129"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="124"/>
     </row>
     <row r="12" spans="2:21">
       <c r="B12" s="23"/>
@@ -12978,7 +12942,7 @@
         <f>t3_raw!D$3</f>
         <v>8.6692199999999997E-2</v>
       </c>
-      <c r="H13" s="129">
+      <c r="H13" s="124">
         <f>t3_raw!D$5</f>
         <v>5.4395100000000002E-2</v>
       </c>
@@ -12991,7 +12955,7 @@
         <f>t3_raw!$D$11</f>
         <v>9.4919500000000004E-2</v>
       </c>
-      <c r="L13" s="129">
+      <c r="L13" s="124">
         <f>t3_raw!$D$13</f>
         <v>5.6438599999999998E-2</v>
       </c>
@@ -13003,20 +12967,20 @@
       <c r="O13" s="16">
         <v>0.38</v>
       </c>
-      <c r="P13" s="129">
+      <c r="P13" s="124">
         <v>0.248</v>
       </c>
-      <c r="Q13" s="129">
+      <c r="Q13" s="124">
         <v>0.248</v>
       </c>
       <c r="R13" s="16"/>
       <c r="S13" s="16">
         <v>0.27</v>
       </c>
-      <c r="T13" s="129">
+      <c r="T13" s="124">
         <v>0.54</v>
       </c>
-      <c r="U13" s="129">
+      <c r="U13" s="124">
         <v>11.1</v>
       </c>
     </row>
@@ -13038,7 +13002,7 @@
         <f>"["&amp;ROUND(t3_raw!D$4, 2)&amp;"]"</f>
         <v>[3.19]</v>
       </c>
-      <c r="H14" s="129"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="26" t="str">
         <f>"["&amp;ROUND(t3_raw!D$8,1)&amp;", "&amp;ROUND(t3_raw!D$7,1)&amp;"]"</f>
         <v>[35.3, 143.1]</v>
@@ -13048,7 +13012,7 @@
         <f>"["&amp;ROUND(t3_raw!$D$12, 2)&amp;"]"</f>
         <v>[3.36]</v>
       </c>
-      <c r="L14" s="129"/>
+      <c r="L14" s="124"/>
       <c r="M14" s="26" t="str">
         <f>"["&amp;ROUND(t3_raw!$D$16,1)&amp;", "&amp;ROUND(t3_raw!$D$15,1)&amp;"]"</f>
         <v>[36.6, 148.5]</v>
@@ -13057,14 +13021,14 @@
       <c r="O14" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="129"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
       <c r="R14" s="16"/>
       <c r="S14" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="T14" s="129"/>
-      <c r="U14" s="129"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124"/>
     </row>
     <row r="15" spans="2:21">
       <c r="B15" s="25"/>
@@ -13100,7 +13064,7 @@
         <f>t3_raw!E$3</f>
         <v>6.3642699999999996E-2</v>
       </c>
-      <c r="H16" s="129">
+      <c r="H16" s="124">
         <f>t3_raw!E$5</f>
         <v>5.1857E-2</v>
       </c>
@@ -13113,7 +13077,7 @@
         <f>t3_raw!$E$11</f>
         <v>2.0411499999999999E-2</v>
       </c>
-      <c r="L16" s="129">
+      <c r="L16" s="124">
         <f>t3_raw!$E$13</f>
         <v>2.0411499999999999E-2</v>
       </c>
@@ -13125,20 +13089,20 @@
       <c r="O16" s="16">
         <v>-0.4</v>
       </c>
-      <c r="P16" s="131">
+      <c r="P16" s="127">
         <v>-0.17399999999999999</v>
       </c>
-      <c r="Q16" s="131">
+      <c r="Q16" s="127">
         <v>-0.17399999999999999</v>
       </c>
       <c r="R16" s="18"/>
       <c r="S16" s="16">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="T16" s="131">
+      <c r="T16" s="127">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U16" s="131">
+      <c r="U16" s="127">
         <v>1.4</v>
       </c>
     </row>
@@ -13160,7 +13124,7 @@
         <f>"["&amp;ROUND(t3_raw!E$4, 2)&amp;"]"</f>
         <v>[2.45]</v>
       </c>
-      <c r="H17" s="130"/>
+      <c r="H17" s="126"/>
       <c r="I17" s="35" t="str">
         <f>"["&amp;ROUND(t3_raw!E$8,1)&amp;", "&amp;ROUND(t3_raw!E$7,1)&amp;"]"</f>
         <v>[33.7, 136.5]</v>
@@ -13170,7 +13134,7 @@
         <f>"["&amp;ROUND(t3_raw!$E$12, 2)&amp;"]"</f>
         <v>[2]</v>
       </c>
-      <c r="L17" s="130"/>
+      <c r="L17" s="126"/>
       <c r="M17" s="35" t="str">
         <f>"["&amp;ROUND(t3_raw!$E$16,1)&amp;", "&amp;ROUND(t3_raw!$E$15,1)&amp;"]"</f>
         <v>[13.3, 53.7]</v>
@@ -13179,25 +13143,22 @@
       <c r="O17" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="128"/>
       <c r="R17" s="19"/>
       <c r="S17" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="C3:I4"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="T7:T8"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="T10:T11"/>
     <mergeCell ref="T13:T14"/>
@@ -13214,11 +13175,14 @@
     <mergeCell ref="P13:P14"/>
     <mergeCell ref="S10:S11"/>
     <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="C3:I4"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="O3:Q4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="P7:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -13398,44 +13362,44 @@
       <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132"/>
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="46"/>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="47"/>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
       <c r="N7" s="47"/>
-      <c r="O7" s="136" t="s">
+      <c r="O7" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="136"/>
+      <c r="P7" s="134"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1">
       <c r="B8" s="37"/>
@@ -13520,23 +13484,23 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.95" customHeight="1">
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="135"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="37" t="s">
@@ -13809,23 +13773,23 @@
       <c r="P16" s="42"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-      <c r="P17" s="135"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="133"/>
     </row>
     <row r="18" spans="2:16" ht="22.5" customHeight="1">
       <c r="B18" s="37" t="s">
@@ -13898,23 +13862,23 @@
       <c r="P19" s="51"/>
     </row>
     <row r="20" spans="2:16" ht="24.95" customHeight="1">
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="133"/>
     </row>
     <row r="21" spans="2:16" ht="15.95" customHeight="1">
       <c r="B21" s="37" t="s">
@@ -14023,23 +13987,23 @@
       </c>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="131" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="133"/>
-      <c r="O23" s="133"/>
-      <c r="P23" s="133"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14084,13 +14048,13 @@
         <v>30</v>
       </c>
       <c r="D3" s="55"/>
-      <c r="E3" s="120" t="s">
+      <c r="E3" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="54.95" customHeight="1">
       <c r="B4" s="15"/>
@@ -14815,14 +14779,14 @@
       <c r="G21" s="68"/>
     </row>
     <row r="22" spans="2:7" ht="25.5" customHeight="1">
-      <c r="B22" s="137" t="s">
+      <c r="B22" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="61" t="s">
@@ -14904,7 +14868,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+      <selection activeCell="B2" sqref="B2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -14917,11 +14881,11 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.95" customHeight="1">
       <c r="B2" s="29"/>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
     </row>
     <row r="3" spans="2:5" ht="53.1" customHeight="1">
       <c r="B3" s="31"/>
@@ -14955,7 +14919,7 @@
         <f>ts5_raw!B3</f>
         <v>0.14050839841365814</v>
       </c>
-      <c r="D5" s="139">
+      <c r="D5" s="137">
         <f>ts5_raw!D3</f>
         <v>7.3664598166942596E-2</v>
       </c>
@@ -14972,7 +14936,7 @@
         <f>"["&amp;ROUND(ts5_raw!C3, 2)&amp;"]"</f>
         <v>[3.81]</v>
       </c>
-      <c r="D6" s="140"/>
+      <c r="D6" s="138"/>
       <c r="E6" s="8" t="str">
         <f>"["&amp;ROUND(ts5_raw!G3,1)&amp;", "&amp;ROUND(ts5_raw!F3, 1)&amp;"]"</f>
         <v>[47.8, 193.9]</v>
@@ -15123,14 +15087,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="14"/>
@@ -15169,16 +15133,16 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="15" t="s">
@@ -15287,28 +15251,28 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="15" t="s">
@@ -15417,16 +15381,16 @@
       <c r="I17" s="62"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="15" t="s">
@@ -15535,16 +15499,16 @@
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:9" ht="26.1" customHeight="1">
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="15" t="s">
@@ -15653,16 +15617,16 @@
       <c r="I29" s="62"/>
     </row>
     <row r="30" spans="2:9" ht="26.1" customHeight="1">
-      <c r="B30" s="142" t="s">
+      <c r="B30" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="15" t="s">

--- a/output/Formatted tables.xlsx
+++ b/output/Formatted tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizaandrade\Documents\GitHub\deworming\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85F0FFE-5F16-4C5E-BDFA-6C122586ED16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B628C3-743E-47AD-B283-DBE58A2AE9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21864" windowHeight="13176" tabRatio="899" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21624" windowHeight="13176" tabRatio="899" firstSheet="10" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="39" r:id="rId1"/>
@@ -1561,6 +1561,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1579,25 +1589,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1609,13 +1613,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,11 +1634,8 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1686,10 +1690,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2051,31 +2051,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113" t="s">
+      <c r="E2" s="117"/>
+      <c r="F2" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113" t="s">
+      <c r="G2" s="117"/>
+      <c r="H2" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="113"/>
-      <c r="J2" s="110" t="s">
+      <c r="I2" s="117"/>
+      <c r="J2" s="114" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A3" s="115"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="6" t="s">
         <v>78</v>
       </c>
@@ -2100,28 +2100,28 @@
       <c r="I3" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J3" s="111"/>
+      <c r="J3" s="115"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="str">
         <f>IF(t1_raw!A1&lt;&gt;"",t1_raw!A1,"")</f>
         <v>Alderman 2006</v>
       </c>
-      <c r="B5" s="118" t="str">
+      <c r="B5" s="113" t="str">
         <f>IF(t1_raw!G1&lt;&gt;0, t1_raw!G1, "")</f>
         <v>48†</v>
       </c>
@@ -2129,7 +2129,7 @@
         <f>IF(t1_raw!B1&lt;&gt;0, t1_raw!B1, "")</f>
         <v>0.15399999916553497</v>
       </c>
-      <c r="D5" s="118" t="str">
+      <c r="D5" s="113" t="str">
         <f>IF(AND(t1_raw!H1&lt;&gt;"NA",t1_raw!H1&lt;&gt;0), t1_raw!H1, "")</f>
         <v/>
       </c>
@@ -2137,7 +2137,7 @@
         <f>IF(t1_raw!C2&lt;&gt;0, t1_raw!C2, "")</f>
         <v/>
       </c>
-      <c r="F5" s="118" t="str">
+      <c r="F5" s="113" t="str">
         <f>IF(AND(t1_raw!I1&lt;&gt;"NA",t1_raw!I1&lt;&gt;0), t1_raw!I1, "")</f>
         <v/>
       </c>
@@ -2145,7 +2145,7 @@
         <f>IF(t1_raw!D2&lt;&gt;0, t1_raw!D2, "")</f>
         <v/>
       </c>
-      <c r="H5" s="118" t="str">
+      <c r="H5" s="113" t="str">
         <f>IF(AND(t1_raw!J1&lt;&gt;"NA",t1_raw!J1&lt;&gt;0), t1_raw!J1, "")</f>
         <v/>
       </c>
@@ -2153,24 +2153,24 @@
         <f>IF(t1_raw!E2&lt;&gt;0, t1_raw!E2, "")</f>
         <v/>
       </c>
-      <c r="J5" s="116">
+      <c r="J5" s="111">
         <f>t1_raw!F1</f>
         <v>0.7621428498200008</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2"/>
-      <c r="B6" s="118"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="3" t="str">
         <f>IF(t1_raw!B2&gt;0, "("&amp;ROUND(t1_raw!B2, 3)&amp;")", "")</f>
         <v>(0.089)</v>
       </c>
-      <c r="D6" s="118"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="3" t="str">
         <f>IF(t1_raw!C2&gt;0, "("&amp;ROUND(t1_raw!C2, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F6" s="118" t="str">
+      <c r="F6" s="113" t="str">
         <f>IF(t1_raw!I2&lt;&gt;0, t1_raw!I2, "")</f>
         <v/>
       </c>
@@ -2178,19 +2178,19 @@
         <f>IF(t1_raw!D2&gt;0, "("&amp;ROUND(t1_raw!D2, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H6" s="118"/>
+      <c r="H6" s="113"/>
       <c r="I6" s="3" t="str">
         <f>IF(t1_raw!E2&gt;0, "("&amp;ROUND(t1_raw!E2, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J6" s="116"/>
+      <c r="J6" s="111"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="str">
         <f>IF(t1_raw!A3&lt;&gt;"",t1_raw!A3,"")</f>
         <v>Awasthi 1995/2008</v>
       </c>
-      <c r="B7" s="118" t="str">
+      <c r="B7" s="113" t="str">
         <f>IF(t1_raw!G3&lt;&gt;0, t1_raw!G3, "")</f>
         <v>50†</v>
       </c>
@@ -2198,7 +2198,7 @@
         <f>IF(t1_raw!B3&lt;&gt;0, t1_raw!B3, "")</f>
         <v>0.98000001907348633</v>
       </c>
-      <c r="D7" s="118" t="str">
+      <c r="D7" s="113" t="str">
         <f>IF(t1_raw!H3&lt;&gt;0, t1_raw!H3, "")</f>
         <v>50†</v>
       </c>
@@ -2206,7 +2206,7 @@
         <f>IF(t1_raw!C4&lt;&gt;0, t1_raw!C4, "")</f>
         <v>1.2041594982147217</v>
       </c>
-      <c r="F7" s="118" t="str">
+      <c r="F7" s="113" t="str">
         <f>IF(AND(t1_raw!I3&lt;&gt;"NA",t1_raw!I3&lt;&gt;0), t1_raw!I3, "")</f>
         <v/>
       </c>
@@ -2214,7 +2214,7 @@
         <f>IF(t1_raw!D4&lt;&gt;0, t1_raw!D4, "")</f>
         <v/>
       </c>
-      <c r="H7" s="118" t="str">
+      <c r="H7" s="113" t="str">
         <f>IF(AND(t1_raw!J3&lt;&gt;"NA",t1_raw!J3&lt;&gt;0), t1_raw!J3, "")</f>
         <v/>
       </c>
@@ -2222,24 +2222,24 @@
         <f>IF(t1_raw!E4&lt;&gt;0, t1_raw!E4, "")</f>
         <v/>
       </c>
-      <c r="J7" s="116">
+      <c r="J7" s="111">
         <f>t1_raw!F3</f>
         <v>7.6666666815678297E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2"/>
-      <c r="B8" s="118"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="3" t="str">
         <f>IF(t1_raw!B4&gt;0, "("&amp;ROUND(t1_raw!B4, 3)&amp;")", "")</f>
         <v>(0.148)</v>
       </c>
-      <c r="D8" s="118"/>
+      <c r="D8" s="113"/>
       <c r="E8" s="3" t="str">
         <f>IF(t1_raw!C4&gt;0, "("&amp;ROUND(t1_raw!C4, 3)&amp;")", "")</f>
         <v>(1.204)</v>
       </c>
-      <c r="F8" s="118" t="str">
+      <c r="F8" s="113" t="str">
         <f>IF(t1_raw!I4&lt;&gt;0, t1_raw!I4, "")</f>
         <v/>
       </c>
@@ -2247,19 +2247,19 @@
         <f>IF(t1_raw!D4&gt;0, "("&amp;ROUND(t1_raw!D4, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H8" s="118"/>
+      <c r="H8" s="113"/>
       <c r="I8" s="3" t="str">
         <f>IF(t1_raw!E4&gt;0, "("&amp;ROUND(t1_raw!E4, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J8" s="116"/>
+      <c r="J8" s="111"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="str">
         <f>IF(t1_raw!A5&lt;&gt;"",t1_raw!A5,"")</f>
         <v>Awasthi 2000</v>
       </c>
-      <c r="B9" s="118" t="str">
+      <c r="B9" s="113" t="str">
         <f>IF(t1_raw!G5&lt;&gt;0, t1_raw!G5, "")</f>
         <v>1045</v>
       </c>
@@ -2267,7 +2267,7 @@
         <f>IF(t1_raw!B5&lt;&gt;0, t1_raw!B5, "")</f>
         <v>-5.000000074505806E-2</v>
       </c>
-      <c r="D9" s="118" t="str">
+      <c r="D9" s="113" t="str">
         <f>IF(t1_raw!H5&lt;&gt;0, t1_raw!H5, "")</f>
         <v>1045</v>
       </c>
@@ -2275,7 +2275,7 @@
         <f>IF(t1_raw!C6&lt;&gt;0, t1_raw!C6, "")</f>
         <v>0.31389674544334412</v>
       </c>
-      <c r="F9" s="118" t="str">
+      <c r="F9" s="113" t="str">
         <f>IF(AND(t1_raw!I5&lt;&gt;"NA",t1_raw!I5&lt;&gt;0), t1_raw!I5, "")</f>
         <v/>
       </c>
@@ -2283,7 +2283,7 @@
         <f>IF(t1_raw!D6&lt;&gt;0, t1_raw!D6, "")</f>
         <v/>
       </c>
-      <c r="H9" s="118" t="str">
+      <c r="H9" s="113" t="str">
         <f>IF(t1_raw!J5&lt;&gt;0, t1_raw!J5, "")</f>
         <v>1045</v>
       </c>
@@ -2291,24 +2291,24 @@
         <f>IF(t1_raw!E6&lt;&gt;0, t1_raw!E6, "")</f>
         <v>4.0943481028079987E-2</v>
       </c>
-      <c r="J9" s="116">
+      <c r="J9" s="111">
         <f>t1_raw!F5</f>
         <v>0.12</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2"/>
-      <c r="B10" s="118"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="3" t="str">
         <f>IF(t1_raw!B6&gt;0, "("&amp;ROUND(t1_raw!B6, 3)&amp;")", "")</f>
         <v>(0.076)</v>
       </c>
-      <c r="D10" s="118"/>
+      <c r="D10" s="113"/>
       <c r="E10" s="3" t="str">
         <f>IF(t1_raw!C6&gt;0, "("&amp;ROUND(t1_raw!C6, 3)&amp;")", "")</f>
         <v>(0.314)</v>
       </c>
-      <c r="F10" s="118" t="str">
+      <c r="F10" s="113" t="str">
         <f>IF(t1_raw!I6&lt;&gt;0, t1_raw!I6, "")</f>
         <v/>
       </c>
@@ -2316,19 +2316,19 @@
         <f>IF(t1_raw!D6&gt;0, "("&amp;ROUND(t1_raw!D6, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H10" s="118"/>
+      <c r="H10" s="113"/>
       <c r="I10" s="3" t="str">
         <f>IF(t1_raw!E6&gt;0, "("&amp;ROUND(t1_raw!E6, 3)&amp;")", "")</f>
         <v>(0.041)</v>
       </c>
-      <c r="J10" s="116"/>
+      <c r="J10" s="111"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="str">
         <f>IF(t1_raw!A7&lt;&gt;"",t1_raw!A7,"")</f>
         <v>Awasthi 2001</v>
       </c>
-      <c r="B11" s="118" t="str">
+      <c r="B11" s="113" t="str">
         <f>IF(t1_raw!G7&lt;&gt;0, t1_raw!G7, "")</f>
         <v>124†</v>
       </c>
@@ -2336,7 +2336,7 @@
         <f>IF(t1_raw!B7&lt;&gt;0, t1_raw!B7, "")</f>
         <v>0.17000000178813934</v>
       </c>
-      <c r="D11" s="118" t="str">
+      <c r="D11" s="113" t="str">
         <f>IF(t1_raw!H7&lt;&gt;0, t1_raw!H7, "")</f>
         <v>124†</v>
       </c>
@@ -2344,7 +2344,7 @@
         <f>IF(t1_raw!C8&lt;&gt;0, t1_raw!C8, "")</f>
         <v>0.31043145060539246</v>
       </c>
-      <c r="F11" s="118" t="str">
+      <c r="F11" s="113" t="str">
         <f>IF(AND(t1_raw!I7&lt;&gt;"NA",t1_raw!I7&lt;&gt;0), t1_raw!I7, "")</f>
         <v/>
       </c>
@@ -2352,7 +2352,7 @@
         <f>IF(t1_raw!D8&lt;&gt;0, t1_raw!D8, "")</f>
         <v/>
       </c>
-      <c r="H11" s="118" t="str">
+      <c r="H11" s="113" t="str">
         <f>IF(AND(t1_raw!J7&lt;&gt;"NA",t1_raw!J7&lt;&gt;0), t1_raw!J7, "")</f>
         <v/>
       </c>
@@ -2360,24 +2360,24 @@
         <f>IF(t1_raw!E8&lt;&gt;0, t1_raw!E8, "")</f>
         <v/>
       </c>
-      <c r="J11" s="116">
+      <c r="J11" s="111">
         <f>t1_raw!F7</f>
         <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2"/>
-      <c r="B12" s="118"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="3" t="str">
         <f>IF(t1_raw!B8&gt;0, "("&amp;ROUND(t1_raw!B8, 3)&amp;")", "")</f>
         <v>(0.065)</v>
       </c>
-      <c r="D12" s="118"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="3" t="str">
         <f>IF(t1_raw!C8&gt;0, "("&amp;ROUND(t1_raw!C8, 3)&amp;")", "")</f>
         <v>(0.31)</v>
       </c>
-      <c r="F12" s="118" t="str">
+      <c r="F12" s="113" t="str">
         <f>IF(t1_raw!I8&lt;&gt;0, t1_raw!I8, "")</f>
         <v/>
       </c>
@@ -2385,19 +2385,19 @@
         <f>IF(t1_raw!D8&gt;0, "("&amp;ROUND(t1_raw!D8, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H12" s="118"/>
+      <c r="H12" s="113"/>
       <c r="I12" s="3" t="str">
         <f>IF(t1_raw!E8&gt;0, "("&amp;ROUND(t1_raw!E8, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J12" s="116"/>
+      <c r="J12" s="111"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="str">
         <f>IF(t1_raw!A9&lt;&gt;"",t1_raw!A9,"")</f>
         <v>Carmona-Fonseca 2015a</v>
       </c>
-      <c r="B13" s="118" t="str">
+      <c r="B13" s="113" t="str">
         <f>IF(t1_raw!G9&lt;&gt;0, t1_raw!G9, "")</f>
         <v>603</v>
       </c>
@@ -2405,7 +2405,7 @@
         <f>IF(t1_raw!B9&lt;&gt;0, t1_raw!B9, "")</f>
         <v>0.20115585625171661</v>
       </c>
-      <c r="D13" s="118" t="str">
+      <c r="D13" s="113" t="str">
         <f>IF(t1_raw!H9&lt;&gt;0, t1_raw!H9, "")</f>
         <v>601</v>
       </c>
@@ -2413,7 +2413,7 @@
         <f>IF(t1_raw!C10&lt;&gt;0, t1_raw!C10, "")</f>
         <v>0.19343018531799316</v>
       </c>
-      <c r="F13" s="118" t="str">
+      <c r="F13" s="113" t="str">
         <f>IF(AND(t1_raw!I9&lt;&gt;"NA",t1_raw!I9&lt;&gt;0), t1_raw!I9, "")</f>
         <v/>
       </c>
@@ -2421,7 +2421,7 @@
         <f>IF(t1_raw!D10&lt;&gt;0, t1_raw!D10, "")</f>
         <v/>
       </c>
-      <c r="H13" s="118" t="str">
+      <c r="H13" s="113" t="str">
         <f>IF(t1_raw!J9&lt;&gt;0, t1_raw!J9, "")</f>
         <v>586</v>
       </c>
@@ -2429,24 +2429,24 @@
         <f>IF(t1_raw!E10&lt;&gt;0, t1_raw!E10, "")</f>
         <v>9.1291353106498718E-2</v>
       </c>
-      <c r="J13" s="116">
+      <c r="J13" s="111">
         <f>t1_raw!F9</f>
         <v>0.45</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2"/>
-      <c r="B14" s="118"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="3" t="str">
         <f>IF(t1_raw!B10&gt;0, "("&amp;ROUND(t1_raw!B10, 3)&amp;")", "")</f>
         <v>(0.136)</v>
       </c>
-      <c r="D14" s="118"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="3" t="str">
         <f>IF(t1_raw!C10&gt;0, "("&amp;ROUND(t1_raw!C10, 3)&amp;")", "")</f>
         <v>(0.193)</v>
       </c>
-      <c r="F14" s="118" t="str">
+      <c r="F14" s="113" t="str">
         <f>IF(t1_raw!I10&lt;&gt;0, t1_raw!I10, "")</f>
         <v/>
       </c>
@@ -2454,19 +2454,19 @@
         <f>IF(t1_raw!D10&gt;0, "("&amp;ROUND(t1_raw!D10, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H14" s="118"/>
+      <c r="H14" s="113"/>
       <c r="I14" s="3" t="str">
         <f>IF(t1_raw!E10&gt;0, "("&amp;ROUND(t1_raw!E10, 3)&amp;")", "")</f>
         <v>(0.091)</v>
       </c>
-      <c r="J14" s="116"/>
+      <c r="J14" s="111"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="str">
         <f>IF(t1_raw!A11&lt;&gt;"",t1_raw!A11,"")</f>
         <v>Carmona-Fonseca 2015b</v>
       </c>
-      <c r="B15" s="118" t="str">
+      <c r="B15" s="113" t="str">
         <f>IF(t1_raw!G11&lt;&gt;0, t1_raw!G11, "")</f>
         <v>658</v>
       </c>
@@ -2474,7 +2474,7 @@
         <f>IF(t1_raw!B11&lt;&gt;0, t1_raw!B11, "")</f>
         <v>6.1926901340484619E-2</v>
       </c>
-      <c r="D15" s="118" t="str">
+      <c r="D15" s="113" t="str">
         <f>IF(t1_raw!H11&lt;&gt;0, t1_raw!H11, "")</f>
         <v>657</v>
       </c>
@@ -2482,7 +2482,7 @@
         <f>IF(t1_raw!C12&lt;&gt;0, t1_raw!C12, "")</f>
         <v>0.19349321722984314</v>
       </c>
-      <c r="F15" s="118" t="str">
+      <c r="F15" s="113" t="str">
         <f>IF(AND(t1_raw!I11&lt;&gt;"NA",t1_raw!I11&lt;&gt;0), t1_raw!I11, "")</f>
         <v/>
       </c>
@@ -2490,7 +2490,7 @@
         <f>IF(t1_raw!D12&lt;&gt;0, t1_raw!D12, "")</f>
         <v/>
       </c>
-      <c r="H15" s="118" t="str">
+      <c r="H15" s="113" t="str">
         <f>IF(t1_raw!J11&lt;&gt;0, t1_raw!J11, "")</f>
         <v>624</v>
       </c>
@@ -2498,24 +2498,24 @@
         <f>IF(t1_raw!E12&lt;&gt;0, t1_raw!E12, "")</f>
         <v>8.1622757017612457E-2</v>
       </c>
-      <c r="J15" s="116">
+      <c r="J15" s="111">
         <f>t1_raw!F11</f>
         <v>0.45</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2"/>
-      <c r="B16" s="118"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="3" t="str">
         <f>IF(t1_raw!B12&gt;0, "("&amp;ROUND(t1_raw!B12, 3)&amp;")", "")</f>
         <v>(0.118)</v>
       </c>
-      <c r="D16" s="118"/>
+      <c r="D16" s="113"/>
       <c r="E16" s="3" t="str">
         <f>IF(t1_raw!C12&gt;0, "("&amp;ROUND(t1_raw!C12, 3)&amp;")", "")</f>
         <v>(0.193)</v>
       </c>
-      <c r="F16" s="118" t="str">
+      <c r="F16" s="113" t="str">
         <f>IF(t1_raw!I12&lt;&gt;0, t1_raw!I12, "")</f>
         <v/>
       </c>
@@ -2523,19 +2523,19 @@
         <f>IF(t1_raw!D12&gt;0, "("&amp;ROUND(t1_raw!D12, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H16" s="118"/>
+      <c r="H16" s="113"/>
       <c r="I16" s="3" t="str">
         <f>IF(t1_raw!E12&gt;0, "("&amp;ROUND(t1_raw!E12, 3)&amp;")", "")</f>
         <v>(0.082)</v>
       </c>
-      <c r="J16" s="116"/>
+      <c r="J16" s="111"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="str">
         <f>IF(t1_raw!A13&lt;&gt;"",t1_raw!A13,"")</f>
         <v>Donnen 1998</v>
       </c>
-      <c r="B17" s="118" t="str">
+      <c r="B17" s="113" t="str">
         <f>IF(t1_raw!G13&lt;&gt;0, t1_raw!G13, "")</f>
         <v>198</v>
       </c>
@@ -2543,7 +2543,7 @@
         <f>IF(t1_raw!B13&lt;&gt;0, t1_raw!B13, "")</f>
         <v>-0.44999998807907104</v>
       </c>
-      <c r="D17" s="118" t="str">
+      <c r="D17" s="113" t="str">
         <f>IF(t1_raw!H13&lt;&gt;0, t1_raw!H13, "")</f>
         <v>198</v>
       </c>
@@ -2551,7 +2551,7 @@
         <f>IF(t1_raw!C14&lt;&gt;0, t1_raw!C14, "")</f>
         <v>0.5522913932800293</v>
       </c>
-      <c r="F17" s="118" t="str">
+      <c r="F17" s="113" t="str">
         <f>IF(t1_raw!I13&lt;&gt;0, t1_raw!I13, "")</f>
         <v>198</v>
       </c>
@@ -2559,7 +2559,7 @@
         <f>IF(t1_raw!D14&lt;&gt;0, t1_raw!D14, "")</f>
         <v>0.15404742956161499</v>
       </c>
-      <c r="H17" s="118" t="str">
+      <c r="H17" s="113" t="str">
         <f>IF(AND(t1_raw!J13&lt;&gt;"NA",t1_raw!J13&lt;&gt;0), t1_raw!J13, "")</f>
         <v/>
       </c>
@@ -2567,41 +2567,41 @@
         <f>IF(t1_raw!E14&lt;&gt;0, t1_raw!E14, "")</f>
         <v/>
       </c>
-      <c r="J17" s="116">
+      <c r="J17" s="111">
         <f>t1_raw!F13</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2"/>
-      <c r="B18" s="118"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="3" t="str">
         <f>IF(t1_raw!B14&gt;0, "("&amp;ROUND(t1_raw!B14, 3)&amp;")", "")</f>
         <v>(0.167)</v>
       </c>
-      <c r="D18" s="118"/>
+      <c r="D18" s="113"/>
       <c r="E18" s="3" t="str">
         <f>IF(t1_raw!C14&gt;0, "("&amp;ROUND(t1_raw!C14, 3)&amp;")", "")</f>
         <v>(0.552)</v>
       </c>
-      <c r="F18" s="118"/>
+      <c r="F18" s="113"/>
       <c r="G18" s="3" t="str">
         <f>IF(t1_raw!D14&gt;0, "("&amp;ROUND(t1_raw!D14, 3)&amp;")", "")</f>
         <v>(0.154)</v>
       </c>
-      <c r="H18" s="118"/>
+      <c r="H18" s="113"/>
       <c r="I18" s="3" t="str">
         <f>IF(t1_raw!E14&gt;0, "("&amp;ROUND(t1_raw!E14, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J18" s="116"/>
+      <c r="J18" s="111"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="str">
         <f>IF(t1_raw!A15&lt;&gt;"",t1_raw!A15,"")</f>
         <v>Dossa 2001a</v>
       </c>
-      <c r="B19" s="118" t="str">
+      <c r="B19" s="113" t="str">
         <f>IF(t1_raw!G15&lt;&gt;0, t1_raw!G15, "")</f>
         <v>65</v>
       </c>
@@ -2609,7 +2609,7 @@
         <f>IF(t1_raw!B15&lt;&gt;0, t1_raw!B15, "")</f>
         <v/>
       </c>
-      <c r="D19" s="118" t="str">
+      <c r="D19" s="113" t="str">
         <f>IF(t1_raw!H15&lt;&gt;0, t1_raw!H15, "")</f>
         <v>65</v>
       </c>
@@ -2617,7 +2617,7 @@
         <f>IF(t1_raw!C16&lt;&gt;0, t1_raw!C16, "")</f>
         <v>0.63711613416671753</v>
       </c>
-      <c r="F19" s="118" t="str">
+      <c r="F19" s="113" t="str">
         <f>IF(t1_raw!I15&lt;&gt;0, t1_raw!I15, "")</f>
         <v>65</v>
       </c>
@@ -2625,7 +2625,7 @@
         <f>IF(t1_raw!D16&lt;&gt;0, t1_raw!D16, "")</f>
         <v>0.21500201523303986</v>
       </c>
-      <c r="H19" s="118" t="str">
+      <c r="H19" s="113" t="str">
         <f>IF(t1_raw!J15&lt;&gt;0, t1_raw!J15, "")</f>
         <v>70</v>
       </c>
@@ -2633,41 +2633,41 @@
         <f>IF(t1_raw!E16&lt;&gt;0, t1_raw!E16, "")</f>
         <v>0.29912152886390686</v>
       </c>
-      <c r="J19" s="116">
+      <c r="J19" s="111">
         <f>t1_raw!F15</f>
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2"/>
-      <c r="B20" s="118"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="3" t="str">
         <f>IF(t1_raw!B16&gt;0, "("&amp;ROUND(t1_raw!B16, 3)&amp;")", "")</f>
         <v>(0.265)</v>
       </c>
-      <c r="D20" s="118"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="3" t="str">
         <f>IF(t1_raw!C16&gt;0, "("&amp;ROUND(t1_raw!C16, 3)&amp;")", "")</f>
         <v>(0.637)</v>
       </c>
-      <c r="F20" s="118"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="3" t="str">
         <f>IF(t1_raw!D16&gt;0, "("&amp;ROUND(t1_raw!D16, 3)&amp;")", "")</f>
         <v>(0.215)</v>
       </c>
-      <c r="H20" s="118"/>
+      <c r="H20" s="113"/>
       <c r="I20" s="3" t="str">
         <f>IF(t1_raw!E16&gt;0, "("&amp;ROUND(t1_raw!E16, 3)&amp;")", "")</f>
         <v>(0.299)</v>
       </c>
-      <c r="J20" s="116"/>
+      <c r="J20" s="111"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="str">
         <f>IF(t1_raw!A17&lt;&gt;"",t1_raw!A17,"")</f>
         <v>Dossa 2001b</v>
       </c>
-      <c r="B21" s="118" t="str">
+      <c r="B21" s="113" t="str">
         <f>IF(t1_raw!G17&lt;&gt;0, t1_raw!G17, "")</f>
         <v>64</v>
       </c>
@@ -2675,7 +2675,7 @@
         <f>IF(t1_raw!B17&lt;&gt;0, t1_raw!B17, "")</f>
         <v/>
       </c>
-      <c r="D21" s="118" t="str">
+      <c r="D21" s="113" t="str">
         <f>IF(t1_raw!H17&lt;&gt;0, t1_raw!H17, "")</f>
         <v>64</v>
       </c>
@@ -2683,7 +2683,7 @@
         <f>IF(t1_raw!C18&lt;&gt;0, t1_raw!C18, "")</f>
         <v>0.31692251563072205</v>
       </c>
-      <c r="F21" s="118" t="str">
+      <c r="F21" s="113" t="str">
         <f>IF(t1_raw!I17&lt;&gt;0, t1_raw!I17, "")</f>
         <v>64</v>
       </c>
@@ -2691,7 +2691,7 @@
         <f>IF(t1_raw!D18&lt;&gt;0, t1_raw!D18, "")</f>
         <v>0.18761767446994781</v>
       </c>
-      <c r="H21" s="118" t="str">
+      <c r="H21" s="113" t="str">
         <f>IF(t1_raw!J17&lt;&gt;0, t1_raw!J17, "")</f>
         <v>68</v>
       </c>
@@ -2699,41 +2699,41 @@
         <f>IF(t1_raw!E18&lt;&gt;0, t1_raw!E18, "")</f>
         <v>0.32943803071975708</v>
       </c>
-      <c r="J21" s="116">
+      <c r="J21" s="111">
         <f>t1_raw!F17</f>
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2"/>
-      <c r="B22" s="118"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="3" t="str">
         <f>IF(t1_raw!B18&gt;0, "("&amp;ROUND(t1_raw!B18, 3)&amp;")", "")</f>
         <v>(0.139)</v>
       </c>
-      <c r="D22" s="118"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="3" t="str">
         <f>IF(t1_raw!C18&gt;0, "("&amp;ROUND(t1_raw!C18, 3)&amp;")", "")</f>
         <v>(0.317)</v>
       </c>
-      <c r="F22" s="118"/>
+      <c r="F22" s="113"/>
       <c r="G22" s="3" t="str">
         <f>IF(t1_raw!D18&gt;0, "("&amp;ROUND(t1_raw!D18, 3)&amp;")", "")</f>
         <v>(0.188)</v>
       </c>
-      <c r="H22" s="118"/>
+      <c r="H22" s="113"/>
       <c r="I22" s="3" t="str">
         <f>IF(t1_raw!E18&gt;0, "("&amp;ROUND(t1_raw!E18, 3)&amp;")", "")</f>
         <v>(0.329)</v>
       </c>
-      <c r="J22" s="116"/>
+      <c r="J22" s="111"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="str">
         <f>IF(t1_raw!A19&lt;&gt;"",t1_raw!A19,"")</f>
         <v>Gateff 1972</v>
       </c>
-      <c r="B23" s="118" t="str">
+      <c r="B23" s="113" t="str">
         <f>IF(t1_raw!G19&lt;&gt;0, t1_raw!G19, "")</f>
         <v>280</v>
       </c>
@@ -2741,7 +2741,7 @@
         <f>IF(t1_raw!B19&lt;&gt;0, t1_raw!B19, "")</f>
         <v>0.34729999303817749</v>
       </c>
-      <c r="D23" s="118" t="str">
+      <c r="D23" s="113" t="str">
         <f>IF(AND(t1_raw!H19&lt;&gt;"NA",t1_raw!H19&lt;&gt;0), t1_raw!H19, "")</f>
         <v/>
       </c>
@@ -2749,7 +2749,7 @@
         <f>IF(t1_raw!C20&lt;&gt;0, t1_raw!C20, "")</f>
         <v/>
       </c>
-      <c r="F23" s="118" t="str">
+      <c r="F23" s="113" t="str">
         <f>IF(AND(t1_raw!I19&lt;&gt;"NA",t1_raw!I19&lt;&gt;0), t1_raw!I19, "")</f>
         <v/>
       </c>
@@ -2757,7 +2757,7 @@
         <f>IF(t1_raw!D20&lt;&gt;0, t1_raw!D20, "")</f>
         <v/>
       </c>
-      <c r="H23" s="118" t="str">
+      <c r="H23" s="113" t="str">
         <f>IF(AND(t1_raw!J19&lt;&gt;"NA",t1_raw!J19&lt;&gt;0), t1_raw!J19, "")</f>
         <v/>
       </c>
@@ -2765,14 +2765,14 @@
         <f>IF(t1_raw!E20&lt;&gt;0, t1_raw!E20, "")</f>
         <v/>
       </c>
-      <c r="J23" s="116">
+      <c r="J23" s="111">
         <f>t1_raw!F19</f>
         <v>0.7621428498200008</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2"/>
-      <c r="B24" s="118" t="str">
+      <c r="B24" s="113" t="str">
         <f>IF(t1_raw!G20&lt;&gt;0, t1_raw!G20, "")</f>
         <v/>
       </c>
@@ -2780,12 +2780,12 @@
         <f>IF(t1_raw!B20&gt;0, "("&amp;ROUND(t1_raw!B20, 3)&amp;")", "")</f>
         <v>(0.131)</v>
       </c>
-      <c r="D24" s="118"/>
+      <c r="D24" s="113"/>
       <c r="E24" s="3" t="str">
         <f>IF(t1_raw!C20&gt;0, "("&amp;ROUND(t1_raw!C20, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F24" s="118" t="str">
+      <c r="F24" s="113" t="str">
         <f>IF(t1_raw!I20&lt;&gt;0, t1_raw!I20, "")</f>
         <v/>
       </c>
@@ -2793,19 +2793,19 @@
         <f>IF(t1_raw!D20&gt;0, "("&amp;ROUND(t1_raw!D20, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H24" s="118"/>
+      <c r="H24" s="113"/>
       <c r="I24" s="3" t="str">
         <f>IF(t1_raw!E20&gt;0, "("&amp;ROUND(t1_raw!E20, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J24" s="116"/>
+      <c r="J24" s="111"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="str">
         <f>IF(t1_raw!A21&lt;&gt;"",t1_raw!A21,"")</f>
         <v>Gupta 1982a</v>
       </c>
-      <c r="B25" s="118" t="str">
+      <c r="B25" s="113" t="str">
         <f>IF(t1_raw!G21&lt;&gt;0, t1_raw!G21, "")</f>
         <v>78</v>
       </c>
@@ -2813,7 +2813,7 @@
         <f>IF(t1_raw!B21&lt;&gt;0, t1_raw!B21, "")</f>
         <v>2.6599999517202377E-2</v>
       </c>
-      <c r="D25" s="118" t="str">
+      <c r="D25" s="113" t="str">
         <f>IF(t1_raw!H21&lt;&gt;0, t1_raw!H21, "")</f>
         <v>78</v>
       </c>
@@ -2821,7 +2821,7 @@
         <f>IF(t1_raw!C22&lt;&gt;0, t1_raw!C22, "")</f>
         <v>0.44416540861129761</v>
       </c>
-      <c r="F25" s="118" t="str">
+      <c r="F25" s="113" t="str">
         <f>IF(AND(t1_raw!I21&lt;&gt;"NA",t1_raw!I21&lt;&gt;0), t1_raw!I21, "")</f>
         <v/>
       </c>
@@ -2829,7 +2829,7 @@
         <f>IF(t1_raw!D22&lt;&gt;0, t1_raw!D22, "")</f>
         <v/>
       </c>
-      <c r="H25" s="118" t="str">
+      <c r="H25" s="113" t="str">
         <f>IF(AND(t1_raw!J21&lt;&gt;"NA",t1_raw!J21&lt;&gt;0), t1_raw!J21, "")</f>
         <v/>
       </c>
@@ -2837,14 +2837,14 @@
         <f>IF(t1_raw!E22&lt;&gt;0, t1_raw!E22, "")</f>
         <v/>
       </c>
-      <c r="J25" s="116">
+      <c r="J25" s="111">
         <f>t1_raw!F21</f>
         <v>0.62</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2"/>
-      <c r="B26" s="118" t="str">
+      <c r="B26" s="113" t="str">
         <f>IF(t1_raw!G22&lt;&gt;0, t1_raw!G22, "")</f>
         <v/>
       </c>
@@ -2852,7 +2852,7 @@
         <f>IF(t1_raw!B22&gt;0, "("&amp;ROUND(t1_raw!B22, 3)&amp;")", "")</f>
         <v>(0.175)</v>
       </c>
-      <c r="D26" s="118" t="str">
+      <c r="D26" s="113" t="str">
         <f>IF(t1_raw!H22&lt;&gt;0, t1_raw!H22, "")</f>
         <v/>
       </c>
@@ -2860,7 +2860,7 @@
         <f>IF(t1_raw!C22&gt;0, "("&amp;ROUND(t1_raw!C22, 3)&amp;")", "")</f>
         <v>(0.444)</v>
       </c>
-      <c r="F26" s="118" t="str">
+      <c r="F26" s="113" t="str">
         <f>IF(t1_raw!I22&lt;&gt;0, t1_raw!I22, "")</f>
         <v/>
       </c>
@@ -2868,19 +2868,19 @@
         <f>IF(t1_raw!D22&gt;0, "("&amp;ROUND(t1_raw!D22, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H26" s="118"/>
+      <c r="H26" s="113"/>
       <c r="I26" s="3" t="str">
         <f>IF(t1_raw!E22&gt;0, "("&amp;ROUND(t1_raw!E22, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J26" s="116"/>
+      <c r="J26" s="111"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="str">
         <f>IF(t1_raw!A23&lt;&gt;"",t1_raw!A23,"")</f>
         <v>Gupta 1982b</v>
       </c>
-      <c r="B27" s="118" t="str">
+      <c r="B27" s="113" t="str">
         <f>IF(t1_raw!G23&lt;&gt;0, t1_raw!G23, "")</f>
         <v>81</v>
       </c>
@@ -2888,7 +2888,7 @@
         <f>IF(t1_raw!B23&lt;&gt;0, t1_raw!B23, "")</f>
         <v>0.12950000166893005</v>
       </c>
-      <c r="D27" s="118" t="str">
+      <c r="D27" s="113" t="str">
         <f>IF(t1_raw!H23&lt;&gt;0, t1_raw!H23, "")</f>
         <v>81</v>
       </c>
@@ -2896,7 +2896,7 @@
         <f>IF(t1_raw!C24&lt;&gt;0, t1_raw!C24, "")</f>
         <v>0.47371479868888855</v>
       </c>
-      <c r="F27" s="118" t="str">
+      <c r="F27" s="113" t="str">
         <f>IF(AND(t1_raw!I23&lt;&gt;"NA",t1_raw!I23&lt;&gt;0), t1_raw!I23, "")</f>
         <v/>
       </c>
@@ -2904,7 +2904,7 @@
         <f>IF(t1_raw!D24&lt;&gt;0, t1_raw!D24, "")</f>
         <v/>
       </c>
-      <c r="H27" s="118" t="str">
+      <c r="H27" s="113" t="str">
         <f>IF(AND(t1_raw!J23&lt;&gt;"NA",t1_raw!J23&lt;&gt;0), t1_raw!J23, "")</f>
         <v/>
       </c>
@@ -2912,14 +2912,14 @@
         <f>IF(t1_raw!E24&lt;&gt;0, t1_raw!E24, "")</f>
         <v/>
       </c>
-      <c r="J27" s="116">
+      <c r="J27" s="111">
         <f>t1_raw!F23</f>
         <v>0.59</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2"/>
-      <c r="B28" s="118" t="str">
+      <c r="B28" s="113" t="str">
         <f>IF(t1_raw!G24&lt;&gt;0, t1_raw!G24, "")</f>
         <v/>
       </c>
@@ -2927,7 +2927,7 @@
         <f>IF(t1_raw!B24&gt;0, "("&amp;ROUND(t1_raw!B24, 3)&amp;")", "")</f>
         <v>(0.148)</v>
       </c>
-      <c r="D28" s="118" t="str">
+      <c r="D28" s="113" t="str">
         <f>IF(t1_raw!H24&lt;&gt;0, t1_raw!H24, "")</f>
         <v/>
       </c>
@@ -2935,7 +2935,7 @@
         <f>IF(t1_raw!C24&gt;0, "("&amp;ROUND(t1_raw!C24, 3)&amp;")", "")</f>
         <v>(0.474)</v>
       </c>
-      <c r="F28" s="118" t="str">
+      <c r="F28" s="113" t="str">
         <f>IF(t1_raw!I24&lt;&gt;0, t1_raw!I24, "")</f>
         <v/>
       </c>
@@ -2943,19 +2943,19 @@
         <f>IF(t1_raw!D24&gt;0, "("&amp;ROUND(t1_raw!D24, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H28" s="118"/>
+      <c r="H28" s="113"/>
       <c r="I28" s="3" t="str">
         <f>IF(t1_raw!E24&gt;0, "("&amp;ROUND(t1_raw!E24, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J28" s="116"/>
+      <c r="J28" s="111"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="str">
         <f>IF(t1_raw!A25&lt;&gt;"",t1_raw!A25,"")</f>
         <v>Hall 2006</v>
       </c>
-      <c r="B29" s="118" t="str">
+      <c r="B29" s="113" t="str">
         <f>IF(t1_raw!G25&lt;&gt;0, t1_raw!G25, "")</f>
         <v>80†</v>
       </c>
@@ -2963,7 +2963,7 @@
         <f>IF(t1_raw!B25&lt;&gt;0, t1_raw!B25, "")</f>
         <v>5.4233498871326447E-2</v>
       </c>
-      <c r="D29" s="118" t="str">
+      <c r="D29" s="113" t="str">
         <f>IF(t1_raw!H25&lt;&gt;0, t1_raw!H25, "")</f>
         <v>80†</v>
       </c>
@@ -2971,7 +2971,7 @@
         <f>IF(t1_raw!C26&lt;&gt;0, t1_raw!C26, "")</f>
         <v>8.2118496298789978E-2</v>
       </c>
-      <c r="F29" s="118" t="str">
+      <c r="F29" s="113" t="str">
         <f>IF(t1_raw!I25&lt;&gt;0, t1_raw!I25, "")</f>
         <v>80†</v>
       </c>
@@ -2979,7 +2979,7 @@
         <f>IF(t1_raw!D26&lt;&gt;0, t1_raw!D26, "")</f>
         <v>0.31427818536758423</v>
       </c>
-      <c r="H29" s="118" t="str">
+      <c r="H29" s="113" t="str">
         <f>IF(AND(t1_raw!J25&lt;&gt;"NA",t1_raw!J25&lt;&gt;0), t1_raw!J25, "")</f>
         <v/>
       </c>
@@ -2987,14 +2987,14 @@
         <f>IF(t1_raw!E26&lt;&gt;0, t1_raw!E26, "")</f>
         <v/>
       </c>
-      <c r="J29" s="116">
+      <c r="J29" s="111">
         <f>t1_raw!F25</f>
         <v>0.84</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2"/>
-      <c r="B30" s="118" t="str">
+      <c r="B30" s="113" t="str">
         <f>IF(t1_raw!G26&lt;&gt;0, t1_raw!G26, "")</f>
         <v/>
       </c>
@@ -3002,7 +3002,7 @@
         <f>IF(t1_raw!B26&gt;0, "("&amp;ROUND(t1_raw!B26, 3)&amp;")", "")</f>
         <v>(0.058)</v>
       </c>
-      <c r="D30" s="118" t="str">
+      <c r="D30" s="113" t="str">
         <f>IF(t1_raw!H26&lt;&gt;0, t1_raw!H26, "")</f>
         <v/>
       </c>
@@ -3010,7 +3010,7 @@
         <f>IF(t1_raw!C26&gt;0, "("&amp;ROUND(t1_raw!C26, 3)&amp;")", "")</f>
         <v>(0.082)</v>
       </c>
-      <c r="F30" s="118" t="str">
+      <c r="F30" s="113" t="str">
         <f>IF(t1_raw!I26&lt;&gt;0, t1_raw!I26, "")</f>
         <v/>
       </c>
@@ -3018,19 +3018,19 @@
         <f>IF(t1_raw!D26&gt;0, "("&amp;ROUND(t1_raw!D26, 3)&amp;")", "")</f>
         <v>(0.314)</v>
       </c>
-      <c r="H30" s="118"/>
+      <c r="H30" s="113"/>
       <c r="I30" s="3" t="str">
         <f>IF(t1_raw!E26&gt;0, "("&amp;ROUND(t1_raw!E26, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J30" s="116"/>
+      <c r="J30" s="111"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="str">
         <f>IF(t1_raw!A27&lt;&gt;"",t1_raw!A27,"")</f>
         <v>Joseph 2015</v>
       </c>
-      <c r="B31" s="118" t="str">
+      <c r="B31" s="113" t="str">
         <f>IF(t1_raw!G27&lt;&gt;0, t1_raw!G27, "")</f>
         <v>777</v>
       </c>
@@ -3038,7 +3038,7 @@
         <f>IF(t1_raw!B27&lt;&gt;0, t1_raw!B27, "")</f>
         <v>3.9999999105930328E-2</v>
       </c>
-      <c r="D31" s="118" t="str">
+      <c r="D31" s="113" t="str">
         <f>IF(t1_raw!H27&lt;&gt;0, t1_raw!H27, "")</f>
         <v>777</v>
       </c>
@@ -3046,7 +3046,7 @@
         <f>IF(t1_raw!C28&lt;&gt;0, t1_raw!C28, "")</f>
         <v>0.12706573307514191</v>
       </c>
-      <c r="F31" s="118" t="str">
+      <c r="F31" s="113" t="str">
         <f>IF(AND(t1_raw!I27&lt;&gt;"NA",t1_raw!I27&lt;&gt;0), t1_raw!I27, "")</f>
         <v/>
       </c>
@@ -3054,7 +3054,7 @@
         <f>IF(t1_raw!D28&lt;&gt;0, t1_raw!D28, "")</f>
         <v/>
       </c>
-      <c r="H31" s="118" t="str">
+      <c r="H31" s="113" t="str">
         <f>IF(AND(t1_raw!J27&lt;&gt;"NA",t1_raw!J27&lt;&gt;0), t1_raw!J27, "")</f>
         <v/>
       </c>
@@ -3062,14 +3062,14 @@
         <f>IF(t1_raw!E28&lt;&gt;0, t1_raw!E28, "")</f>
         <v/>
       </c>
-      <c r="J31" s="116">
+      <c r="J31" s="111">
         <f>t1_raw!F27</f>
         <v>0.11</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2"/>
-      <c r="B32" s="118" t="str">
+      <c r="B32" s="113" t="str">
         <f>IF(t1_raw!G28&lt;&gt;0, t1_raw!G28, "")</f>
         <v/>
       </c>
@@ -3077,7 +3077,7 @@
         <f>IF(t1_raw!B28&gt;0, "("&amp;ROUND(t1_raw!B28, 3)&amp;")", "")</f>
         <v>(0.049)</v>
       </c>
-      <c r="D32" s="118" t="str">
+      <c r="D32" s="113" t="str">
         <f>IF(t1_raw!H28&lt;&gt;0, t1_raw!H28, "")</f>
         <v/>
       </c>
@@ -3085,7 +3085,7 @@
         <f>IF(t1_raw!C28&gt;0, "("&amp;ROUND(t1_raw!C28, 3)&amp;")", "")</f>
         <v>(0.127)</v>
       </c>
-      <c r="F32" s="118" t="str">
+      <c r="F32" s="113" t="str">
         <f>IF(t1_raw!I28&lt;&gt;0, t1_raw!I28, "")</f>
         <v/>
       </c>
@@ -3093,19 +3093,19 @@
         <f>IF(t1_raw!D28&gt;0, "("&amp;ROUND(t1_raw!D28, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H32" s="118"/>
+      <c r="H32" s="113"/>
       <c r="I32" s="3" t="str">
         <f>IF(t1_raw!E28&gt;0, "("&amp;ROUND(t1_raw!E28, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J32" s="116"/>
+      <c r="J32" s="111"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="str">
         <f>IF(t1_raw!A29&lt;&gt;"",t1_raw!A29,"")</f>
         <v>Kirwan 2010</v>
       </c>
-      <c r="B33" s="118" t="str">
+      <c r="B33" s="113" t="str">
         <f>IF(AND(t1_raw!G29&lt;&gt;"NA",t1_raw!G29&lt;&gt;0), t1_raw!G29, "")</f>
         <v/>
       </c>
@@ -3113,7 +3113,7 @@
         <f>IF(t1_raw!B29&lt;&gt;0, t1_raw!B29, "")</f>
         <v/>
       </c>
-      <c r="D33" s="118" t="str">
+      <c r="D33" s="113" t="str">
         <f>IF(AND(t1_raw!H29&lt;&gt;"NA",t1_raw!H29&lt;&gt;0), t1_raw!H29, "")</f>
         <v/>
       </c>
@@ -3121,7 +3121,7 @@
         <f>IF(t1_raw!C30&lt;&gt;0, t1_raw!C30, "")</f>
         <v/>
       </c>
-      <c r="F33" s="118" t="str">
+      <c r="F33" s="113" t="str">
         <f>IF(AND(t1_raw!I29&lt;&gt;"NA",t1_raw!I29&lt;&gt;0), t1_raw!I29, "")</f>
         <v/>
       </c>
@@ -3129,7 +3129,7 @@
         <f>IF(t1_raw!D30&lt;&gt;0, t1_raw!D30, "")</f>
         <v/>
       </c>
-      <c r="H33" s="118" t="str">
+      <c r="H33" s="113" t="str">
         <f>IF(t1_raw!J29&lt;&gt;0, t1_raw!J29, "")</f>
         <v>320</v>
       </c>
@@ -3137,14 +3137,14 @@
         <f>IF(t1_raw!E30&lt;&gt;0, t1_raw!E30, "")</f>
         <v>0.12070736289024353</v>
       </c>
-      <c r="J33" s="116">
+      <c r="J33" s="111">
         <f>t1_raw!F29</f>
         <v>0.46</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2"/>
-      <c r="B34" s="118" t="str">
+      <c r="B34" s="113" t="str">
         <f>IF(t1_raw!G30&lt;&gt;0, t1_raw!G30, "")</f>
         <v/>
       </c>
@@ -3152,12 +3152,12 @@
         <f>IF(t1_raw!B30&gt;0, "("&amp;ROUND(t1_raw!B30, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="D34" s="118"/>
+      <c r="D34" s="113"/>
       <c r="E34" s="3" t="str">
         <f>IF(t1_raw!C30&gt;0, "("&amp;ROUND(t1_raw!C30, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F34" s="118" t="str">
+      <c r="F34" s="113" t="str">
         <f>IF(t1_raw!I30&lt;&gt;0, t1_raw!I30, "")</f>
         <v/>
       </c>
@@ -3165,7 +3165,7 @@
         <f>IF(t1_raw!D30&gt;0, "("&amp;ROUND(t1_raw!D30, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H34" s="118" t="str">
+      <c r="H34" s="113" t="str">
         <f>IF(t1_raw!J30&lt;&gt;0, t1_raw!J30, "")</f>
         <v/>
       </c>
@@ -3173,14 +3173,14 @@
         <f>IF(t1_raw!E30&gt;0, "("&amp;ROUND(t1_raw!E30, 3)&amp;")", "")</f>
         <v>(0.121)</v>
       </c>
-      <c r="J34" s="116"/>
+      <c r="J34" s="111"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="str">
         <f>IF(t1_raw!A31&lt;&gt;"",t1_raw!A31,"")</f>
         <v>Kruger 1996a</v>
       </c>
-      <c r="B35" s="118" t="str">
+      <c r="B35" s="113" t="str">
         <f>IF(t1_raw!G31&lt;&gt;0, t1_raw!G31, "")</f>
         <v>74</v>
       </c>
@@ -3188,7 +3188,7 @@
         <f>IF(t1_raw!B31&lt;&gt;0, t1_raw!B31, "")</f>
         <v>-0.37569999694824219</v>
       </c>
-      <c r="D35" s="118" t="str">
+      <c r="D35" s="113" t="str">
         <f>IF(t1_raw!H31&lt;&gt;0, t1_raw!H31, "")</f>
         <v>74</v>
       </c>
@@ -3196,7 +3196,7 @@
         <f>IF(t1_raw!C32&lt;&gt;0, t1_raw!C32, "")</f>
         <v>0.21789999306201935</v>
       </c>
-      <c r="F35" s="118" t="str">
+      <c r="F35" s="113" t="str">
         <f>IF(AND(t1_raw!I31&lt;&gt;"NA",t1_raw!I31&lt;&gt;0), t1_raw!I31, "")</f>
         <v/>
       </c>
@@ -3204,7 +3204,7 @@
         <f>IF(t1_raw!D32&lt;&gt;0, t1_raw!D32, "")</f>
         <v/>
       </c>
-      <c r="H35" s="118" t="str">
+      <c r="H35" s="113" t="str">
         <f>IF(t1_raw!J31&lt;&gt;0, t1_raw!J31, "")</f>
         <v>74</v>
       </c>
@@ -3212,14 +3212,14 @@
         <f>IF(t1_raw!E32&lt;&gt;0, t1_raw!E32, "")</f>
         <v>0.15407966077327728</v>
       </c>
-      <c r="J35" s="116">
+      <c r="J35" s="111">
         <f>t1_raw!F31</f>
         <v>0.38</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2"/>
-      <c r="B36" s="118" t="str">
+      <c r="B36" s="113" t="str">
         <f>IF(t1_raw!G32&lt;&gt;0, t1_raw!G32, "")</f>
         <v/>
       </c>
@@ -3227,7 +3227,7 @@
         <f>IF(t1_raw!B32&gt;0, "("&amp;ROUND(t1_raw!B32, 3)&amp;")", "")</f>
         <v>(0.248)</v>
       </c>
-      <c r="D36" s="118" t="str">
+      <c r="D36" s="113" t="str">
         <f>IF(t1_raw!H32&lt;&gt;0, t1_raw!H32, "")</f>
         <v/>
       </c>
@@ -3235,7 +3235,7 @@
         <f>IF(t1_raw!C32&gt;0, "("&amp;ROUND(t1_raw!C32, 3)&amp;")", "")</f>
         <v>(0.218)</v>
       </c>
-      <c r="F36" s="118" t="str">
+      <c r="F36" s="113" t="str">
         <f>IF(t1_raw!I32&lt;&gt;0, t1_raw!I32, "")</f>
         <v/>
       </c>
@@ -3243,7 +3243,7 @@
         <f>IF(t1_raw!D32&gt;0, "("&amp;ROUND(t1_raw!D32, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H36" s="118" t="str">
+      <c r="H36" s="113" t="str">
         <f>IF(t1_raw!J32&lt;&gt;0, t1_raw!J32, "")</f>
         <v/>
       </c>
@@ -3251,14 +3251,14 @@
         <f>IF(t1_raw!E32&gt;0, "("&amp;ROUND(t1_raw!E32, 3)&amp;")", "")</f>
         <v>(0.154)</v>
       </c>
-      <c r="J36" s="116"/>
+      <c r="J36" s="111"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="str">
         <f>IF(t1_raw!A33&lt;&gt;"",t1_raw!A33,"")</f>
         <v>Kruger 1996b</v>
       </c>
-      <c r="B37" s="118" t="str">
+      <c r="B37" s="113" t="str">
         <f>IF(t1_raw!G33&lt;&gt;0, t1_raw!G33, "")</f>
         <v>104</v>
       </c>
@@ -3266,7 +3266,7 @@
         <f>IF(t1_raw!B33&lt;&gt;0, t1_raw!B33, "")</f>
         <v>0.39329999685287476</v>
       </c>
-      <c r="D37" s="118" t="str">
+      <c r="D37" s="113" t="str">
         <f>IF(t1_raw!H33&lt;&gt;0, t1_raw!H33, "")</f>
         <v>104</v>
       </c>
@@ -3274,7 +3274,7 @@
         <f>IF(t1_raw!C34&lt;&gt;0, t1_raw!C34, "")</f>
         <v>0.20759999752044678</v>
       </c>
-      <c r="F37" s="118" t="str">
+      <c r="F37" s="113" t="str">
         <f>IF(AND(t1_raw!I33&lt;&gt;"NA",t1_raw!I33&lt;&gt;0), t1_raw!I33, "")</f>
         <v/>
       </c>
@@ -3282,7 +3282,7 @@
         <f>IF(t1_raw!D34&lt;&gt;0, t1_raw!D34, "")</f>
         <v/>
       </c>
-      <c r="H37" s="118" t="str">
+      <c r="H37" s="113" t="str">
         <f>IF(t1_raw!J33&lt;&gt;0, t1_raw!J33, "")</f>
         <v>104</v>
       </c>
@@ -3290,14 +3290,14 @@
         <f>IF(t1_raw!E34&lt;&gt;0, t1_raw!E34, "")</f>
         <v>0.12854571640491486</v>
       </c>
-      <c r="J37" s="116">
+      <c r="J37" s="111">
         <f>t1_raw!F33</f>
         <v>0.38</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2"/>
-      <c r="B38" s="118" t="str">
+      <c r="B38" s="113" t="str">
         <f>IF(t1_raw!G34&lt;&gt;0, t1_raw!G34, "")</f>
         <v/>
       </c>
@@ -3305,7 +3305,7 @@
         <f>IF(t1_raw!B34&gt;0, "("&amp;ROUND(t1_raw!B34, 3)&amp;")", "")</f>
         <v>(0.186)</v>
       </c>
-      <c r="D38" s="118" t="str">
+      <c r="D38" s="113" t="str">
         <f>IF(t1_raw!H34&lt;&gt;0, t1_raw!H34, "")</f>
         <v/>
       </c>
@@ -3313,7 +3313,7 @@
         <f>IF(t1_raw!C34&gt;0, "("&amp;ROUND(t1_raw!C34, 3)&amp;")", "")</f>
         <v>(0.208)</v>
       </c>
-      <c r="F38" s="118" t="str">
+      <c r="F38" s="113" t="str">
         <f>IF(t1_raw!I34&lt;&gt;0, t1_raw!I34, "")</f>
         <v/>
       </c>
@@ -3321,7 +3321,7 @@
         <f>IF(t1_raw!D34&gt;0, "("&amp;ROUND(t1_raw!D34, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H38" s="118" t="str">
+      <c r="H38" s="113" t="str">
         <f>IF(t1_raw!J34&lt;&gt;0, t1_raw!J34, "")</f>
         <v/>
       </c>
@@ -3329,14 +3329,14 @@
         <f>IF(t1_raw!E34&gt;0, "("&amp;ROUND(t1_raw!E34, 3)&amp;")", "")</f>
         <v>(0.129)</v>
       </c>
-      <c r="J38" s="116"/>
+      <c r="J38" s="111"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="str">
         <f>IF(t1_raw!A35&lt;&gt;"",t1_raw!A35,"")</f>
         <v>Le Huong 2007a</v>
       </c>
-      <c r="B39" s="118" t="str">
+      <c r="B39" s="113" t="str">
         <f>IF(AND(t1_raw!G35&lt;&gt;"NA",t1_raw!G35&lt;&gt;0), t1_raw!G35, "")</f>
         <v/>
       </c>
@@ -3344,7 +3344,7 @@
         <f>IF(t1_raw!B35&lt;&gt;0, t1_raw!B35, "")</f>
         <v/>
       </c>
-      <c r="D39" s="118" t="str">
+      <c r="D39" s="113" t="str">
         <f>IF(AND(t1_raw!H35&lt;&gt;"NA",t1_raw!H35&lt;&gt;0), t1_raw!H35, "")</f>
         <v/>
       </c>
@@ -3352,7 +3352,7 @@
         <f>IF(t1_raw!C36&lt;&gt;0, t1_raw!C36, "")</f>
         <v/>
       </c>
-      <c r="F39" s="118" t="str">
+      <c r="F39" s="113" t="str">
         <f>IF(AND(t1_raw!I35&lt;&gt;"NA",t1_raw!I35&lt;&gt;0), t1_raw!I35, "")</f>
         <v/>
       </c>
@@ -3360,7 +3360,7 @@
         <f>IF(t1_raw!D36&lt;&gt;0, t1_raw!D36, "")</f>
         <v/>
       </c>
-      <c r="H39" s="118" t="str">
+      <c r="H39" s="113" t="str">
         <f>IF(t1_raw!J35&lt;&gt;0, t1_raw!J35, "")</f>
         <v>161</v>
       </c>
@@ -3368,14 +3368,14 @@
         <f>IF(t1_raw!E36&lt;&gt;0, t1_raw!E36, "")</f>
         <v>0.1358073353767395</v>
       </c>
-      <c r="J39" s="116">
+      <c r="J39" s="111">
         <f>t1_raw!F35</f>
         <v>0.73</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2"/>
-      <c r="B40" s="118" t="str">
+      <c r="B40" s="113" t="str">
         <f>IF(t1_raw!G36&lt;&gt;0, t1_raw!G36, "")</f>
         <v/>
       </c>
@@ -3383,12 +3383,12 @@
         <f>IF(t1_raw!B36&gt;0, "("&amp;ROUND(t1_raw!B36, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="D40" s="118"/>
+      <c r="D40" s="113"/>
       <c r="E40" s="3" t="str">
         <f>IF(t1_raw!C36&gt;0, "("&amp;ROUND(t1_raw!C36, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F40" s="118" t="str">
+      <c r="F40" s="113" t="str">
         <f>IF(t1_raw!I36&lt;&gt;0, t1_raw!I36, "")</f>
         <v/>
       </c>
@@ -3396,7 +3396,7 @@
         <f>IF(t1_raw!D36&gt;0, "("&amp;ROUND(t1_raw!D36, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H40" s="118" t="str">
+      <c r="H40" s="113" t="str">
         <f>IF(t1_raw!J36&lt;&gt;0, t1_raw!J36, "")</f>
         <v/>
       </c>
@@ -3404,14 +3404,14 @@
         <f>IF(t1_raw!E36&gt;0, "("&amp;ROUND(t1_raw!E36, 3)&amp;")", "")</f>
         <v>(0.136)</v>
       </c>
-      <c r="J40" s="116"/>
+      <c r="J40" s="111"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="str">
         <f>IF(t1_raw!A37&lt;&gt;"",t1_raw!A37,"")</f>
         <v>Le Huong 2007b</v>
       </c>
-      <c r="B41" s="118" t="str">
+      <c r="B41" s="113" t="str">
         <f>IF(AND(t1_raw!G37&lt;&gt;"NA",t1_raw!G37&lt;&gt;0), t1_raw!G37, "")</f>
         <v/>
       </c>
@@ -3419,7 +3419,7 @@
         <f>IF(t1_raw!B37&lt;&gt;0, t1_raw!B37, "")</f>
         <v/>
       </c>
-      <c r="D41" s="118" t="str">
+      <c r="D41" s="113" t="str">
         <f>IF(AND(t1_raw!H37&lt;&gt;"NA",t1_raw!H37&lt;&gt;0), t1_raw!H37, "")</f>
         <v/>
       </c>
@@ -3427,7 +3427,7 @@
         <f>IF(t1_raw!C38&lt;&gt;0, t1_raw!C38, "")</f>
         <v/>
       </c>
-      <c r="F41" s="118" t="str">
+      <c r="F41" s="113" t="str">
         <f>IF(AND(t1_raw!I37&lt;&gt;"NA",t1_raw!I37&lt;&gt;0), t1_raw!I37, "")</f>
         <v/>
       </c>
@@ -3435,7 +3435,7 @@
         <f>IF(t1_raw!D38&lt;&gt;0, t1_raw!D38, "")</f>
         <v/>
       </c>
-      <c r="H41" s="118" t="str">
+      <c r="H41" s="113" t="str">
         <f>IF(t1_raw!J37&lt;&gt;0, t1_raw!J37, "")</f>
         <v>165</v>
       </c>
@@ -3443,14 +3443,14 @@
         <f>IF(t1_raw!E38&lt;&gt;0, t1_raw!E38, "")</f>
         <v>0.1289728581905365</v>
       </c>
-      <c r="J41" s="116">
+      <c r="J41" s="111">
         <f>t1_raw!F37</f>
         <v>0.73</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2"/>
-      <c r="B42" s="118" t="str">
+      <c r="B42" s="113" t="str">
         <f>IF(t1_raw!G38&lt;&gt;0, t1_raw!G38, "")</f>
         <v/>
       </c>
@@ -3458,12 +3458,12 @@
         <f>IF(t1_raw!B38&gt;0, "("&amp;ROUND(t1_raw!B38, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="D42" s="118"/>
+      <c r="D42" s="113"/>
       <c r="E42" s="3" t="str">
         <f>IF(t1_raw!C38&gt;0, "("&amp;ROUND(t1_raw!C38, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F42" s="118" t="str">
+      <c r="F42" s="113" t="str">
         <f>IF(t1_raw!I38&lt;&gt;0, t1_raw!I38, "")</f>
         <v/>
       </c>
@@ -3471,7 +3471,7 @@
         <f>IF(t1_raw!D38&gt;0, "("&amp;ROUND(t1_raw!D38, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H42" s="118" t="str">
+      <c r="H42" s="113" t="str">
         <f>IF(t1_raw!J38&lt;&gt;0, t1_raw!J38, "")</f>
         <v/>
       </c>
@@ -3479,14 +3479,14 @@
         <f>IF(t1_raw!E38&gt;0, "("&amp;ROUND(t1_raw!E38, 3)&amp;")", "")</f>
         <v>(0.129)</v>
       </c>
-      <c r="J42" s="116"/>
+      <c r="J42" s="111"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="str">
         <f>IF(t1_raw!A39&lt;&gt;"",t1_raw!A39,"")</f>
         <v>Liu 2017</v>
       </c>
-      <c r="B43" s="118" t="str">
+      <c r="B43" s="113" t="str">
         <f>IF(t1_raw!G39&lt;&gt;0, t1_raw!G39, "")</f>
         <v>112†</v>
       </c>
@@ -3494,7 +3494,7 @@
         <f>IF(t1_raw!B39&lt;&gt;0, t1_raw!B39, "")</f>
         <v>2.9999999329447746E-2</v>
       </c>
-      <c r="D43" s="118" t="str">
+      <c r="D43" s="113" t="str">
         <f>IF(t1_raw!H39&lt;&gt;0, t1_raw!H39, "")</f>
         <v>112†</v>
       </c>
@@ -3502,7 +3502,7 @@
         <f>IF(t1_raw!C40&lt;&gt;0, t1_raw!C40, "")</f>
         <v>0.35199999809265137</v>
       </c>
-      <c r="F43" s="118" t="str">
+      <c r="F43" s="113" t="str">
         <f>IF(AND(t1_raw!I39&lt;&gt;"NA",t1_raw!I39&lt;&gt;0), t1_raw!I39, "")</f>
         <v/>
       </c>
@@ -3510,7 +3510,7 @@
         <f>IF(t1_raw!D40&lt;&gt;0, t1_raw!D40, "")</f>
         <v/>
       </c>
-      <c r="H43" s="118" t="str">
+      <c r="H43" s="113" t="str">
         <f>IF(t1_raw!J39&lt;&gt;0, t1_raw!J39, "")</f>
         <v>112†</v>
       </c>
@@ -3518,14 +3518,14 @@
         <f>IF(t1_raw!E40&lt;&gt;0, t1_raw!E40, "")</f>
         <v>0.1077931672334671</v>
       </c>
-      <c r="J43" s="116">
+      <c r="J43" s="111">
         <f>t1_raw!F39</f>
         <v>0.31</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2"/>
-      <c r="B44" s="118" t="str">
+      <c r="B44" s="113" t="str">
         <f>IF(t1_raw!G40&lt;&gt;0, t1_raw!G40, "")</f>
         <v/>
       </c>
@@ -3533,7 +3533,7 @@
         <f>IF(t1_raw!B40&gt;0, "("&amp;ROUND(t1_raw!B40, 3)&amp;")", "")</f>
         <v>(0.127)</v>
       </c>
-      <c r="D44" s="118" t="str">
+      <c r="D44" s="113" t="str">
         <f>IF(t1_raw!H40&lt;&gt;0, t1_raw!H40, "")</f>
         <v/>
       </c>
@@ -3541,7 +3541,7 @@
         <f>IF(t1_raw!C40&gt;0, "("&amp;ROUND(t1_raw!C40, 3)&amp;")", "")</f>
         <v>(0.352)</v>
       </c>
-      <c r="F44" s="118" t="str">
+      <c r="F44" s="113" t="str">
         <f>IF(t1_raw!I40&lt;&gt;0, t1_raw!I40, "")</f>
         <v/>
       </c>
@@ -3549,7 +3549,7 @@
         <f>IF(t1_raw!D40&gt;0, "("&amp;ROUND(t1_raw!D40, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H44" s="118" t="str">
+      <c r="H44" s="113" t="str">
         <f>IF(t1_raw!J40&lt;&gt;0, t1_raw!J40, "")</f>
         <v/>
       </c>
@@ -3557,14 +3557,14 @@
         <f>IF(t1_raw!E40&gt;0, "("&amp;ROUND(t1_raw!E40, 3)&amp;")", "")</f>
         <v>(0.108)</v>
       </c>
-      <c r="J44" s="116"/>
+      <c r="J44" s="111"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="str">
         <f>IF(t1_raw!A41&lt;&gt;"",t1_raw!A41,"")</f>
         <v>Miguel 2004</v>
       </c>
-      <c r="B45" s="118" t="str">
+      <c r="B45" s="113" t="str">
         <f>IF(t1_raw!G41&lt;&gt;0, t1_raw!G41, "")</f>
         <v>50†</v>
       </c>
@@ -3572,7 +3572,7 @@
         <f>IF(t1_raw!B41&lt;&gt;0, t1_raw!B41, "")</f>
         <v>-0.6600000262260437</v>
       </c>
-      <c r="D45" s="118" t="str">
+      <c r="D45" s="113" t="str">
         <f>IF(AND(t1_raw!H41&lt;&gt;"NA",t1_raw!H41&lt;&gt;0), t1_raw!H41, "")</f>
         <v/>
       </c>
@@ -3580,7 +3580,7 @@
         <f>IF(t1_raw!C42&lt;&gt;0, t1_raw!C42, "")</f>
         <v>0.53518211841583252</v>
       </c>
-      <c r="F45" s="118" t="str">
+      <c r="F45" s="113" t="str">
         <f>IF(AND(t1_raw!I41&lt;&gt;"NA",t1_raw!I41&lt;&gt;0), t1_raw!I41, "")</f>
         <v/>
       </c>
@@ -3588,7 +3588,7 @@
         <f>IF(t1_raw!D42&lt;&gt;0, t1_raw!D42, "")</f>
         <v/>
       </c>
-      <c r="H45" s="118" t="str">
+      <c r="H45" s="113" t="str">
         <f>IF(AND(t1_raw!J41&lt;&gt;"NA",t1_raw!J41&lt;&gt;0), t1_raw!J41, "")</f>
         <v/>
       </c>
@@ -3596,14 +3596,14 @@
         <f>IF(t1_raw!E42&lt;&gt;0, t1_raw!E42, "")</f>
         <v/>
       </c>
-      <c r="J45" s="116">
+      <c r="J45" s="111">
         <f>t1_raw!F41</f>
         <v>0.77</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2"/>
-      <c r="B46" s="118" t="str">
+      <c r="B46" s="113" t="str">
         <f>IF(t1_raw!G42&lt;&gt;0, t1_raw!G42, "")</f>
         <v/>
       </c>
@@ -3611,12 +3611,12 @@
         <f>IF(t1_raw!B42&gt;0, "("&amp;ROUND(t1_raw!B42, 3)&amp;")", "")</f>
         <v>(0.3)</v>
       </c>
-      <c r="D46" s="118"/>
+      <c r="D46" s="113"/>
       <c r="E46" s="3" t="str">
         <f>IF(t1_raw!C42&gt;0, "("&amp;ROUND(t1_raw!C42, 3)&amp;")", "")</f>
         <v>(0.535)</v>
       </c>
-      <c r="F46" s="118" t="str">
+      <c r="F46" s="113" t="str">
         <f>IF(t1_raw!I42&lt;&gt;0, t1_raw!I42, "")</f>
         <v/>
       </c>
@@ -3624,19 +3624,19 @@
         <f>IF(t1_raw!D42&gt;0, "("&amp;ROUND(t1_raw!D42, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H46" s="118"/>
+      <c r="H46" s="113"/>
       <c r="I46" s="3" t="str">
         <f>IF(t1_raw!E42&gt;0, "("&amp;ROUND(t1_raw!E42, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J46" s="116"/>
+      <c r="J46" s="111"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="str">
         <f>IF(t1_raw!A43&lt;&gt;"",t1_raw!A43,"")</f>
         <v>Ndibazza 2012</v>
       </c>
-      <c r="B47" s="118" t="str">
+      <c r="B47" s="113" t="str">
         <f>IF(t1_raw!G43&lt;&gt;0, t1_raw!G43, "")</f>
         <v>1228</v>
       </c>
@@ -3644,7 +3644,7 @@
         <f>IF(t1_raw!B43&lt;&gt;0, t1_raw!B43, "")</f>
         <v>9.9999997764825821E-3</v>
       </c>
-      <c r="D47" s="118" t="str">
+      <c r="D47" s="113" t="str">
         <f>IF(t1_raw!H43&lt;&gt;0, t1_raw!H43, "")</f>
         <v>1210</v>
       </c>
@@ -3652,7 +3652,7 @@
         <f>IF(t1_raw!C44&lt;&gt;0, t1_raw!C44, "")</f>
         <v>0.28496584296226501</v>
       </c>
-      <c r="F47" s="118" t="str">
+      <c r="F47" s="113" t="str">
         <f>IF(AND(t1_raw!I43&lt;&gt;"NA",t1_raw!I43&lt;&gt;0), t1_raw!I43, "")</f>
         <v/>
       </c>
@@ -3660,7 +3660,7 @@
         <f>IF(t1_raw!D44&lt;&gt;0, t1_raw!D44, "")</f>
         <v/>
       </c>
-      <c r="H47" s="118" t="str">
+      <c r="H47" s="113" t="str">
         <f>IF(t1_raw!J43&lt;&gt;0, t1_raw!J43, "")</f>
         <v>1109</v>
       </c>
@@ -3668,14 +3668,14 @@
         <f>IF(t1_raw!E44&lt;&gt;0, t1_raw!E44, "")</f>
         <v>9.5492720603942871E-2</v>
       </c>
-      <c r="J47" s="116">
+      <c r="J47" s="111">
         <f>t1_raw!F43</f>
         <v>0.03</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2"/>
-      <c r="B48" s="118" t="str">
+      <c r="B48" s="113" t="str">
         <f>IF(t1_raw!G44&lt;&gt;0, t1_raw!G44, "")</f>
         <v/>
       </c>
@@ -3683,7 +3683,7 @@
         <f>IF(t1_raw!B44&gt;0, "("&amp;ROUND(t1_raw!B44, 3)&amp;")", "")</f>
         <v>(0.091)</v>
       </c>
-      <c r="D48" s="118" t="str">
+      <c r="D48" s="113" t="str">
         <f>IF(t1_raw!H44&lt;&gt;0, t1_raw!H44, "")</f>
         <v/>
       </c>
@@ -3691,7 +3691,7 @@
         <f>IF(t1_raw!C44&gt;0, "("&amp;ROUND(t1_raw!C44, 3)&amp;")", "")</f>
         <v>(0.285)</v>
       </c>
-      <c r="F48" s="118" t="str">
+      <c r="F48" s="113" t="str">
         <f>IF(t1_raw!I44&lt;&gt;0, t1_raw!I44, "")</f>
         <v/>
       </c>
@@ -3699,7 +3699,7 @@
         <f>IF(t1_raw!D44&gt;0, "("&amp;ROUND(t1_raw!D44, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H48" s="118" t="str">
+      <c r="H48" s="113" t="str">
         <f>IF(t1_raw!J44&lt;&gt;0, t1_raw!J44, "")</f>
         <v/>
       </c>
@@ -3707,14 +3707,14 @@
         <f>IF(t1_raw!E44&gt;0, "("&amp;ROUND(t1_raw!E44, 3)&amp;")", "")</f>
         <v>(0.095)</v>
       </c>
-      <c r="J48" s="116"/>
+      <c r="J48" s="111"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="str">
         <f>IF(t1_raw!A45&lt;&gt;"",t1_raw!A45,"")</f>
         <v>Ostwald 1984</v>
       </c>
-      <c r="B49" s="118" t="str">
+      <c r="B49" s="113" t="str">
         <f>IF(t1_raw!G45&lt;&gt;0, t1_raw!G45, "")</f>
         <v>87</v>
       </c>
@@ -3722,7 +3722,7 @@
         <f>IF(t1_raw!B45&lt;&gt;0, t1_raw!B45, "")</f>
         <v>0.69999998807907104</v>
       </c>
-      <c r="D49" s="118" t="str">
+      <c r="D49" s="113" t="str">
         <f>IF(t1_raw!H45&lt;&gt;0, t1_raw!H45, "")</f>
         <v>86</v>
       </c>
@@ -3730,7 +3730,7 @@
         <f>IF(t1_raw!C46&lt;&gt;0, t1_raw!C46, "")</f>
         <v>0.27012103796005249</v>
       </c>
-      <c r="F49" s="118" t="str">
+      <c r="F49" s="113" t="str">
         <f>IF(AND(t1_raw!I45&lt;&gt;"NA",t1_raw!I45&lt;&gt;0), t1_raw!I45, "")</f>
         <v/>
       </c>
@@ -3738,7 +3738,7 @@
         <f>IF(t1_raw!D46&lt;&gt;0, t1_raw!D46, "")</f>
         <v/>
       </c>
-      <c r="H49" s="118" t="str">
+      <c r="H49" s="113" t="str">
         <f>IF(t1_raw!J45&lt;&gt;0, t1_raw!J45, "")</f>
         <v>70</v>
       </c>
@@ -3746,14 +3746,14 @@
         <f>IF(t1_raw!E46&lt;&gt;0, t1_raw!E46, "")</f>
         <v>0.2773297131061554</v>
       </c>
-      <c r="J49" s="116">
+      <c r="J49" s="111">
         <f>t1_raw!F45</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2"/>
-      <c r="B50" s="118" t="str">
+      <c r="B50" s="113" t="str">
         <f>IF(t1_raw!G46&lt;&gt;0, t1_raw!G46, "")</f>
         <v/>
       </c>
@@ -3761,7 +3761,7 @@
         <f>IF(t1_raw!B46&gt;0, "("&amp;ROUND(t1_raw!B46, 3)&amp;")", "")</f>
         <v>(0.449)</v>
       </c>
-      <c r="D50" s="118" t="str">
+      <c r="D50" s="113" t="str">
         <f>IF(t1_raw!H46&lt;&gt;0, t1_raw!H46, "")</f>
         <v/>
       </c>
@@ -3769,7 +3769,7 @@
         <f>IF(t1_raw!C46&gt;0, "("&amp;ROUND(t1_raw!C46, 3)&amp;")", "")</f>
         <v>(0.27)</v>
       </c>
-      <c r="F50" s="118" t="str">
+      <c r="F50" s="113" t="str">
         <f>IF(t1_raw!I46&lt;&gt;0, t1_raw!I46, "")</f>
         <v/>
       </c>
@@ -3777,7 +3777,7 @@
         <f>IF(t1_raw!D46&gt;0, "("&amp;ROUND(t1_raw!D46, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H50" s="118" t="str">
+      <c r="H50" s="113" t="str">
         <f>IF(t1_raw!J46&lt;&gt;0, t1_raw!J46, "")</f>
         <v/>
       </c>
@@ -3785,14 +3785,14 @@
         <f>IF(t1_raw!E46&gt;0, "("&amp;ROUND(t1_raw!E46, 3)&amp;")", "")</f>
         <v>(0.277)</v>
       </c>
-      <c r="J50" s="116"/>
+      <c r="J50" s="111"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="str">
         <f>IF(t1_raw!A47&lt;&gt;"",t1_raw!A47,"")</f>
         <v>Rousham 1994</v>
       </c>
-      <c r="B51" s="118" t="str">
+      <c r="B51" s="113" t="str">
         <f>IF(AND(t1_raw!G47&lt;&gt;"NA",t1_raw!G47&lt;&gt;0), t1_raw!G47, "")</f>
         <v/>
       </c>
@@ -3800,7 +3800,7 @@
         <f>IF(t1_raw!B47&lt;&gt;0, t1_raw!B47, "")</f>
         <v>-9.0000003576278687E-2</v>
       </c>
-      <c r="D51" s="118" t="str">
+      <c r="D51" s="113" t="str">
         <f>IF(AND(t1_raw!H47&lt;&gt;"NA",t1_raw!H47&lt;&gt;0), t1_raw!H47, "")</f>
         <v/>
       </c>
@@ -3808,7 +3808,7 @@
         <f>IF(t1_raw!C48&lt;&gt;0, t1_raw!C48, "")</f>
         <v>6.2660835683345795E-2</v>
       </c>
-      <c r="F51" s="118" t="str">
+      <c r="F51" s="113" t="str">
         <f>IF(t1_raw!I47&lt;&gt;0, t1_raw!I47, "")</f>
         <v>13†</v>
       </c>
@@ -3816,7 +3816,7 @@
         <f>IF(t1_raw!D48&lt;&gt;0, t1_raw!D48, "")</f>
         <v>5.8123819530010223E-2</v>
       </c>
-      <c r="H51" s="118" t="str">
+      <c r="H51" s="113" t="str">
         <f>IF(AND(t1_raw!J47&lt;&gt;"NA",t1_raw!J47&lt;&gt;0), t1_raw!J47, "")</f>
         <v/>
       </c>
@@ -3824,14 +3824,14 @@
         <f>IF(t1_raw!E48&lt;&gt;0, t1_raw!E48, "")</f>
         <v/>
       </c>
-      <c r="J51" s="116">
+      <c r="J51" s="111">
         <f>t1_raw!F47</f>
         <v>0.71</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2"/>
-      <c r="B52" s="118" t="str">
+      <c r="B52" s="113" t="str">
         <f>IF(t1_raw!G48&lt;&gt;0, t1_raw!G48, "")</f>
         <v/>
       </c>
@@ -3839,12 +3839,12 @@
         <f>IF(t1_raw!B48&gt;0, "("&amp;ROUND(t1_raw!B48, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="D52" s="118"/>
+      <c r="D52" s="113"/>
       <c r="E52" s="3" t="str">
         <f>IF(t1_raw!C48&gt;0, "("&amp;ROUND(t1_raw!C48, 3)&amp;")", "")</f>
         <v>(0.063)</v>
       </c>
-      <c r="F52" s="118" t="str">
+      <c r="F52" s="113" t="str">
         <f>IF(t1_raw!I48&lt;&gt;0, t1_raw!I48, "")</f>
         <v/>
       </c>
@@ -3852,19 +3852,19 @@
         <f>IF(t1_raw!D48&gt;0, "("&amp;ROUND(t1_raw!D48, 3)&amp;")", "")</f>
         <v>(0.058)</v>
       </c>
-      <c r="H52" s="118"/>
+      <c r="H52" s="113"/>
       <c r="I52" s="3" t="str">
         <f>IF(t1_raw!E48&gt;0, "("&amp;ROUND(t1_raw!E48, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J52" s="116"/>
+      <c r="J52" s="111"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="str">
         <f>IF(t1_raw!A49&lt;&gt;"",t1_raw!A49,"")</f>
         <v>Stephenson 1993</v>
       </c>
-      <c r="B53" s="118" t="str">
+      <c r="B53" s="113" t="str">
         <f>IF(t1_raw!G49&lt;&gt;0, t1_raw!G49, "")</f>
         <v>188</v>
       </c>
@@ -3872,7 +3872,7 @@
         <f>IF(t1_raw!B49&lt;&gt;0, t1_raw!B49, "")</f>
         <v>0.89999997615814209</v>
       </c>
-      <c r="D53" s="118" t="str">
+      <c r="D53" s="113" t="str">
         <f>IF(t1_raw!H49&lt;&gt;0, t1_raw!H49, "")</f>
         <v>188</v>
       </c>
@@ -3880,7 +3880,7 @@
         <f>IF(t1_raw!C50&lt;&gt;0, t1_raw!C50, "")</f>
         <v>0.16285084187984467</v>
       </c>
-      <c r="F53" s="118" t="str">
+      <c r="F53" s="113" t="str">
         <f>IF(t1_raw!I49&lt;&gt;0, t1_raw!I49, "")</f>
         <v>188</v>
       </c>
@@ -3888,7 +3888,7 @@
         <f>IF(t1_raw!D50&lt;&gt;0, t1_raw!D50, "")</f>
         <v>6.4520172774791718E-2</v>
       </c>
-      <c r="H53" s="118" t="str">
+      <c r="H53" s="113" t="str">
         <f>IF(AND(t1_raw!J49&lt;&gt;"NA",t1_raw!J49&lt;&gt;0), t1_raw!J49, "")</f>
         <v/>
       </c>
@@ -3896,14 +3896,14 @@
         <f>IF(t1_raw!E50&lt;&gt;0, t1_raw!E50, "")</f>
         <v/>
       </c>
-      <c r="J53" s="116">
+      <c r="J53" s="111">
         <f>t1_raw!F49</f>
         <v>0.88</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2"/>
-      <c r="B54" s="118" t="str">
+      <c r="B54" s="113" t="str">
         <f>IF(t1_raw!G50&lt;&gt;0, t1_raw!G50, "")</f>
         <v/>
       </c>
@@ -3911,7 +3911,7 @@
         <f>IF(t1_raw!B50&gt;0, "("&amp;ROUND(t1_raw!B50, 3)&amp;")", "")</f>
         <v>(0.184)</v>
       </c>
-      <c r="D54" s="118" t="str">
+      <c r="D54" s="113" t="str">
         <f>IF(t1_raw!H50&lt;&gt;0, t1_raw!H50, "")</f>
         <v/>
       </c>
@@ -3919,7 +3919,7 @@
         <f>IF(t1_raw!C50&gt;0, "("&amp;ROUND(t1_raw!C50, 3)&amp;")", "")</f>
         <v>(0.163)</v>
       </c>
-      <c r="F54" s="118" t="str">
+      <c r="F54" s="113" t="str">
         <f>IF(t1_raw!I50&lt;&gt;0, t1_raw!I50, "")</f>
         <v/>
       </c>
@@ -3927,19 +3927,19 @@
         <f>IF(t1_raw!D50&gt;0, "("&amp;ROUND(t1_raw!D50, 3)&amp;")", "")</f>
         <v>(0.065)</v>
       </c>
-      <c r="H54" s="118"/>
+      <c r="H54" s="113"/>
       <c r="I54" s="3" t="str">
         <f>IF(t1_raw!E50&gt;0, "("&amp;ROUND(t1_raw!E50, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J54" s="116"/>
+      <c r="J54" s="111"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="str">
         <f>IF(t1_raw!A51&lt;&gt;"",t1_raw!A51,"")</f>
         <v>Stoltzfus 1997a</v>
       </c>
-      <c r="B55" s="118" t="str">
+      <c r="B55" s="113" t="str">
         <f>IF(t1_raw!G51&lt;&gt;0, t1_raw!G51, "")</f>
         <v>12†</v>
       </c>
@@ -3947,7 +3947,7 @@
         <f>IF(t1_raw!B51&lt;&gt;0, t1_raw!B51, "")</f>
         <v>0.23370370268821716</v>
       </c>
-      <c r="D55" s="118" t="str">
+      <c r="D55" s="113" t="str">
         <f>IF(t1_raw!H51&lt;&gt;0, t1_raw!H51, "")</f>
         <v>12†</v>
       </c>
@@ -3955,7 +3955,7 @@
         <f>IF(t1_raw!C52&lt;&gt;0, t1_raw!C52, "")</f>
         <v>8.5782051086425781E-2</v>
       </c>
-      <c r="F55" s="118" t="str">
+      <c r="F55" s="113" t="str">
         <f>IF(AND(t1_raw!I51&lt;&gt;"NA",t1_raw!I51&lt;&gt;0), t1_raw!I51, "")</f>
         <v/>
       </c>
@@ -3963,7 +3963,7 @@
         <f>IF(t1_raw!D52&lt;&gt;0, t1_raw!D52, "")</f>
         <v/>
       </c>
-      <c r="H55" s="118" t="str">
+      <c r="H55" s="113" t="str">
         <f>IF(AND(t1_raw!J51&lt;&gt;"NA",t1_raw!J51&lt;&gt;0), t1_raw!J51, "")</f>
         <v/>
       </c>
@@ -3971,14 +3971,14 @@
         <f>IF(t1_raw!E52&lt;&gt;0, t1_raw!E52, "")</f>
         <v/>
       </c>
-      <c r="J55" s="116">
+      <c r="J55" s="111">
         <f>t1_raw!F51</f>
         <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2"/>
-      <c r="B56" s="118" t="str">
+      <c r="B56" s="113" t="str">
         <f>IF(t1_raw!G52&lt;&gt;0, t1_raw!G52, "")</f>
         <v/>
       </c>
@@ -3986,7 +3986,7 @@
         <f>IF(t1_raw!B52&gt;0, "("&amp;ROUND(t1_raw!B52, 3)&amp;")", "")</f>
         <v>(0.098)</v>
       </c>
-      <c r="D56" s="118" t="str">
+      <c r="D56" s="113" t="str">
         <f>IF(t1_raw!H52&lt;&gt;0, t1_raw!H52, "")</f>
         <v/>
       </c>
@@ -3994,7 +3994,7 @@
         <f>IF(t1_raw!C52&gt;0, "("&amp;ROUND(t1_raw!C52, 3)&amp;")", "")</f>
         <v>(0.086)</v>
       </c>
-      <c r="F56" s="118" t="str">
+      <c r="F56" s="113" t="str">
         <f>IF(t1_raw!I52&lt;&gt;0, t1_raw!I52, "")</f>
         <v/>
       </c>
@@ -4002,19 +4002,19 @@
         <f>IF(t1_raw!D52&gt;0, "("&amp;ROUND(t1_raw!D52, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H56" s="118"/>
+      <c r="H56" s="113"/>
       <c r="I56" s="3" t="str">
         <f>IF(t1_raw!E52&gt;0, "("&amp;ROUND(t1_raw!E52, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J56" s="116"/>
+      <c r="J56" s="111"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="str">
         <f>IF(t1_raw!A53&lt;&gt;"",t1_raw!A53,"")</f>
         <v>Stoltzfus 1997b</v>
       </c>
-      <c r="B57" s="118" t="str">
+      <c r="B57" s="113" t="str">
         <f>IF(t1_raw!G53&lt;&gt;0, t1_raw!G53, "")</f>
         <v>12†</v>
       </c>
@@ -4022,7 +4022,7 @@
         <f>IF(t1_raw!B53&lt;&gt;0, t1_raw!B53, "")</f>
         <v>0.11036663502454758</v>
       </c>
-      <c r="D57" s="118" t="str">
+      <c r="D57" s="113" t="str">
         <f>IF(t1_raw!H53&lt;&gt;0, t1_raw!H53, "")</f>
         <v>12†</v>
       </c>
@@ -4030,7 +4030,7 @@
         <f>IF(t1_raw!C54&lt;&gt;0, t1_raw!C54, "")</f>
         <v>9.7987890243530273E-2</v>
       </c>
-      <c r="F57" s="118" t="str">
+      <c r="F57" s="113" t="str">
         <f>IF(AND(t1_raw!I53&lt;&gt;"NA",t1_raw!I53&lt;&gt;0), t1_raw!I53, "")</f>
         <v/>
       </c>
@@ -4038,7 +4038,7 @@
         <f>IF(t1_raw!D54&lt;&gt;0, t1_raw!D54, "")</f>
         <v/>
       </c>
-      <c r="H57" s="118" t="str">
+      <c r="H57" s="113" t="str">
         <f>IF(AND(t1_raw!J53&lt;&gt;"NA",t1_raw!J53&lt;&gt;0), t1_raw!J53, "")</f>
         <v/>
       </c>
@@ -4046,14 +4046,14 @@
         <f>IF(t1_raw!E54&lt;&gt;0, t1_raw!E54, "")</f>
         <v/>
       </c>
-      <c r="J57" s="116">
+      <c r="J57" s="111">
         <f>t1_raw!F53</f>
         <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2"/>
-      <c r="B58" s="118" t="str">
+      <c r="B58" s="113" t="str">
         <f>IF(t1_raw!G54&lt;&gt;0, t1_raw!G54, "")</f>
         <v/>
       </c>
@@ -4061,7 +4061,7 @@
         <f>IF(t1_raw!B54&gt;0, "("&amp;ROUND(t1_raw!B54, 3)&amp;")", "")</f>
         <v>(0.139)</v>
       </c>
-      <c r="D58" s="118" t="str">
+      <c r="D58" s="113" t="str">
         <f>IF(t1_raw!H54&lt;&gt;0, t1_raw!H54, "")</f>
         <v/>
       </c>
@@ -4069,7 +4069,7 @@
         <f>IF(t1_raw!C54&gt;0, "("&amp;ROUND(t1_raw!C54, 3)&amp;")", "")</f>
         <v>(0.098)</v>
       </c>
-      <c r="F58" s="118" t="str">
+      <c r="F58" s="113" t="str">
         <f>IF(t1_raw!I54&lt;&gt;0, t1_raw!I54, "")</f>
         <v/>
       </c>
@@ -4077,19 +4077,19 @@
         <f>IF(t1_raw!D54&gt;0, "("&amp;ROUND(t1_raw!D54, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H58" s="118"/>
+      <c r="H58" s="113"/>
       <c r="I58" s="3" t="str">
         <f>IF(t1_raw!E54&gt;0, "("&amp;ROUND(t1_raw!E54, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J58" s="116"/>
+      <c r="J58" s="111"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2" t="str">
         <f>IF(t1_raw!A55&lt;&gt;"",t1_raw!A55,"")</f>
         <v>Sur 2005</v>
       </c>
-      <c r="B59" s="118" t="str">
+      <c r="B59" s="113" t="str">
         <f>IF(t1_raw!G55&lt;&gt;0, t1_raw!G55, "")</f>
         <v>682</v>
       </c>
@@ -4097,7 +4097,7 @@
         <f>IF(t1_raw!B55&lt;&gt;0, t1_raw!B55, "")</f>
         <v>0.28999999165534973</v>
       </c>
-      <c r="D59" s="118" t="str">
+      <c r="D59" s="113" t="str">
         <f>IF(AND(t1_raw!H55&lt;&gt;"NA",t1_raw!H55&lt;&gt;0), t1_raw!H55, "")</f>
         <v/>
       </c>
@@ -4105,7 +4105,7 @@
         <f>IF(t1_raw!C56&lt;&gt;0, t1_raw!C56, "")</f>
         <v/>
       </c>
-      <c r="F59" s="118" t="str">
+      <c r="F59" s="113" t="str">
         <f>IF(AND(t1_raw!I55&lt;&gt;"NA",t1_raw!I55&lt;&gt;0), t1_raw!I55, "")</f>
         <v/>
       </c>
@@ -4113,7 +4113,7 @@
         <f>IF(t1_raw!D56&lt;&gt;0, t1_raw!D56, "")</f>
         <v/>
       </c>
-      <c r="H59" s="118" t="str">
+      <c r="H59" s="113" t="str">
         <f>IF(AND(t1_raw!J55&lt;&gt;"NA",t1_raw!J55&lt;&gt;0), t1_raw!J55, "")</f>
         <v/>
       </c>
@@ -4121,14 +4121,14 @@
         <f>IF(t1_raw!E56&lt;&gt;0, t1_raw!E56, "")</f>
         <v/>
       </c>
-      <c r="J59" s="116">
+      <c r="J59" s="111">
         <f>t1_raw!F55</f>
         <v>0.53</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2"/>
-      <c r="B60" s="118" t="str">
+      <c r="B60" s="113" t="str">
         <f>IF(t1_raw!G56&lt;&gt;0, t1_raw!G56, "")</f>
         <v/>
       </c>
@@ -4136,12 +4136,12 @@
         <f>IF(t1_raw!B56&gt;0, "("&amp;ROUND(t1_raw!B56, 3)&amp;")", "")</f>
         <v>(0.09)</v>
       </c>
-      <c r="D60" s="118"/>
+      <c r="D60" s="113"/>
       <c r="E60" s="3" t="str">
         <f>IF(t1_raw!C56&gt;0, "("&amp;ROUND(t1_raw!C56, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F60" s="118" t="str">
+      <c r="F60" s="113" t="str">
         <f>IF(t1_raw!I56&lt;&gt;0, t1_raw!I56, "")</f>
         <v/>
       </c>
@@ -4149,19 +4149,19 @@
         <f>IF(t1_raw!D56&gt;0, "("&amp;ROUND(t1_raw!D56, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H60" s="118"/>
+      <c r="H60" s="113"/>
       <c r="I60" s="3" t="str">
         <f>IF(t1_raw!E56&gt;0, "("&amp;ROUND(t1_raw!E56, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J60" s="116"/>
+      <c r="J60" s="111"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="str">
         <f>IF(t1_raw!A57&lt;&gt;"",t1_raw!A57,"")</f>
         <v>Watkins 1996</v>
       </c>
-      <c r="B61" s="118" t="str">
+      <c r="B61" s="113" t="str">
         <f>IF(t1_raw!G57&lt;&gt;0, t1_raw!G57, "")</f>
         <v>226</v>
       </c>
@@ -4169,7 +4169,7 @@
         <f>IF(t1_raw!B57&lt;&gt;0, t1_raw!B57, "")</f>
         <v>0.12999999523162842</v>
       </c>
-      <c r="D61" s="118" t="str">
+      <c r="D61" s="113" t="str">
         <f>IF(t1_raw!H57&lt;&gt;0, t1_raw!H57, "")</f>
         <v>227</v>
       </c>
@@ -4177,7 +4177,7 @@
         <f>IF(t1_raw!C58&lt;&gt;0, t1_raw!C58, "")</f>
         <v>9.8234608769416809E-2</v>
       </c>
-      <c r="F61" s="118" t="str">
+      <c r="F61" s="113" t="str">
         <f>IF(t1_raw!I57&lt;&gt;0, t1_raw!I57, "")</f>
         <v>207</v>
       </c>
@@ -4185,7 +4185,7 @@
         <f>IF(t1_raw!D58&lt;&gt;0, t1_raw!D58, "")</f>
         <v>7.0206984877586365E-2</v>
       </c>
-      <c r="H61" s="118" t="str">
+      <c r="H61" s="113" t="str">
         <f>IF(AND(t1_raw!J57&lt;&gt;"NA",t1_raw!J57&lt;&gt;0), t1_raw!J57, "")</f>
         <v/>
       </c>
@@ -4193,14 +4193,14 @@
         <f>IF(t1_raw!E58&lt;&gt;0, t1_raw!E58, "")</f>
         <v/>
       </c>
-      <c r="J61" s="116">
+      <c r="J61" s="111">
         <f>t1_raw!F57</f>
         <v>0.91</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2"/>
-      <c r="B62" s="118" t="str">
+      <c r="B62" s="113" t="str">
         <f>IF(t1_raw!G58&lt;&gt;0, t1_raw!G58, "")</f>
         <v/>
       </c>
@@ -4208,7 +4208,7 @@
         <f>IF(t1_raw!B58&gt;0, "("&amp;ROUND(t1_raw!B58, 3)&amp;")", "")</f>
         <v>(0.106)</v>
       </c>
-      <c r="D62" s="118" t="str">
+      <c r="D62" s="113" t="str">
         <f>IF(t1_raw!H58&lt;&gt;0, t1_raw!H58, "")</f>
         <v/>
       </c>
@@ -4216,7 +4216,7 @@
         <f>IF(t1_raw!C58&gt;0, "("&amp;ROUND(t1_raw!C58, 3)&amp;")", "")</f>
         <v>(0.098)</v>
       </c>
-      <c r="F62" s="118" t="str">
+      <c r="F62" s="113" t="str">
         <f>IF(t1_raw!I58&lt;&gt;0, t1_raw!I58, "")</f>
         <v/>
       </c>
@@ -4224,19 +4224,19 @@
         <f>IF(t1_raw!D58&gt;0, "("&amp;ROUND(t1_raw!D58, 3)&amp;")", "")</f>
         <v>(0.07)</v>
       </c>
-      <c r="H62" s="118"/>
+      <c r="H62" s="113"/>
       <c r="I62" s="3" t="str">
         <f>IF(t1_raw!E58&gt;0, "("&amp;ROUND(t1_raw!E58, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J62" s="116"/>
+      <c r="J62" s="111"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2" t="str">
         <f>IF(t1_raw!A59&lt;&gt;"",t1_raw!A59,"")</f>
         <v>Willett 1979</v>
       </c>
-      <c r="B63" s="118" t="str">
+      <c r="B63" s="113" t="str">
         <f>IF(t1_raw!G59&lt;&gt;0, t1_raw!G59, "")</f>
         <v>273</v>
       </c>
@@ -4244,7 +4244,7 @@
         <f>IF(t1_raw!B59&lt;&gt;0, t1_raw!B59, "")</f>
         <v>0.15999999642372131</v>
       </c>
-      <c r="D63" s="118" t="str">
+      <c r="D63" s="113" t="str">
         <f>IF(AND(t1_raw!H59&lt;&gt;"NA",t1_raw!H59&lt;&gt;0), t1_raw!H59, "")</f>
         <v/>
       </c>
@@ -4252,7 +4252,7 @@
         <f>IF(t1_raw!C60&lt;&gt;0, t1_raw!C60, "")</f>
         <v/>
       </c>
-      <c r="F63" s="118" t="str">
+      <c r="F63" s="113" t="str">
         <f>IF(AND(t1_raw!I59&lt;&gt;"NA",t1_raw!I59&lt;&gt;0), t1_raw!I59, "")</f>
         <v/>
       </c>
@@ -4260,7 +4260,7 @@
         <f>IF(t1_raw!D60&lt;&gt;0, t1_raw!D60, "")</f>
         <v/>
       </c>
-      <c r="H63" s="118" t="str">
+      <c r="H63" s="113" t="str">
         <f>IF(AND(t1_raw!J59&lt;&gt;"NA",t1_raw!J59&lt;&gt;0), t1_raw!J59, "")</f>
         <v/>
       </c>
@@ -4268,14 +4268,14 @@
         <f>IF(t1_raw!E60&lt;&gt;0, t1_raw!E60, "")</f>
         <v/>
       </c>
-      <c r="J63" s="116">
+      <c r="J63" s="111">
         <f>t1_raw!F59</f>
         <v>0.53</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2"/>
-      <c r="B64" s="118" t="str">
+      <c r="B64" s="113" t="str">
         <f>IF(t1_raw!G60&lt;&gt;0, t1_raw!G60, "")</f>
         <v/>
       </c>
@@ -4283,12 +4283,12 @@
         <f>IF(t1_raw!B60&gt;0, "("&amp;ROUND(t1_raw!B60, 3)&amp;")", "")</f>
         <v>(0.085)</v>
       </c>
-      <c r="D64" s="118"/>
+      <c r="D64" s="113"/>
       <c r="E64" s="3" t="str">
         <f>IF(t1_raw!C60&gt;0, "("&amp;ROUND(t1_raw!C60, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F64" s="118" t="str">
+      <c r="F64" s="113" t="str">
         <f>IF(t1_raw!I60&lt;&gt;0, t1_raw!I60, "")</f>
         <v/>
       </c>
@@ -4296,19 +4296,19 @@
         <f>IF(t1_raw!D60&gt;0, "("&amp;ROUND(t1_raw!D60, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H64" s="118"/>
+      <c r="H64" s="113"/>
       <c r="I64" s="3" t="str">
         <f>IF(t1_raw!E60&gt;0, "("&amp;ROUND(t1_raw!E60, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J64" s="116"/>
+      <c r="J64" s="111"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2" t="str">
         <f>IF(t1_raw!A61&lt;&gt;"",t1_raw!A61,"")</f>
         <v>Wiria 2013</v>
       </c>
-      <c r="B65" s="118" t="str">
+      <c r="B65" s="113" t="str">
         <f>IF(t1_raw!G61&lt;&gt;0, t1_raw!G61, "")</f>
         <v>954†</v>
       </c>
@@ -4316,7 +4316,7 @@
         <f>IF(t1_raw!B61&lt;&gt;0, t1_raw!B61, "")</f>
         <v>0.18840000033378601</v>
       </c>
-      <c r="D65" s="118" t="str">
+      <c r="D65" s="113" t="str">
         <f>IF(t1_raw!H61&lt;&gt;0, t1_raw!H61, "")</f>
         <v>954†</v>
       </c>
@@ -4324,7 +4324,7 @@
         <f>IF(t1_raw!C62&lt;&gt;0, t1_raw!C62, "")</f>
         <v>0.53475433588027954</v>
       </c>
-      <c r="F65" s="118" t="str">
+      <c r="F65" s="113" t="str">
         <f>IF(AND(t1_raw!I61&lt;&gt;"NA",t1_raw!I61&lt;&gt;0), t1_raw!I61, "")</f>
         <v/>
       </c>
@@ -4332,7 +4332,7 @@
         <f>IF(t1_raw!D62&lt;&gt;0, t1_raw!D62, "")</f>
         <v/>
       </c>
-      <c r="H65" s="118" t="str">
+      <c r="H65" s="113" t="str">
         <f>IF(AND(t1_raw!J61&lt;&gt;"NA",t1_raw!J61&lt;&gt;0), t1_raw!J61, "")</f>
         <v/>
       </c>
@@ -4340,14 +4340,14 @@
         <f>IF(t1_raw!E62&lt;&gt;0, t1_raw!E62, "")</f>
         <v/>
       </c>
-      <c r="J65" s="116">
+      <c r="J65" s="111">
         <f>t1_raw!F61</f>
         <v>0.76</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2"/>
-      <c r="B66" s="118" t="str">
+      <c r="B66" s="113" t="str">
         <f>IF(t1_raw!G62&lt;&gt;0, t1_raw!G62, "")</f>
         <v/>
       </c>
@@ -4355,7 +4355,7 @@
         <f>IF(t1_raw!B62&gt;0, "("&amp;ROUND(t1_raw!B62, 3)&amp;")", "")</f>
         <v>(0.394)</v>
       </c>
-      <c r="D66" s="118" t="str">
+      <c r="D66" s="113" t="str">
         <f>IF(t1_raw!H62&lt;&gt;0, t1_raw!H62, "")</f>
         <v/>
       </c>
@@ -4363,7 +4363,7 @@
         <f>IF(t1_raw!C62&gt;0, "("&amp;ROUND(t1_raw!C62, 3)&amp;")", "")</f>
         <v>(0.535)</v>
       </c>
-      <c r="F66" s="118" t="str">
+      <c r="F66" s="113" t="str">
         <f>IF(t1_raw!I62&lt;&gt;0, t1_raw!I62, "")</f>
         <v/>
       </c>
@@ -4371,254 +4371,254 @@
         <f>IF(t1_raw!D62&gt;0, "("&amp;ROUND(t1_raw!D62, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H66" s="118"/>
+      <c r="H66" s="113"/>
       <c r="I66" s="3" t="str">
         <f>IF(t1_raw!E62&gt;0, "("&amp;ROUND(t1_raw!E62, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J66" s="116"/>
+      <c r="J66" s="111"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="112" t="s">
+      <c r="A67" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="112"/>
-      <c r="C67" s="112"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="112"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="116"/>
+      <c r="D67" s="116"/>
+      <c r="E67" s="116"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="116"/>
+      <c r="H67" s="116"/>
+      <c r="I67" s="116"/>
+      <c r="J67" s="116"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2" t="str">
         <f>IF(t1_raw!A63&lt;&gt;"",t1_raw!A63,"")</f>
         <v>Freij 1979a</v>
       </c>
-      <c r="B68" s="118"/>
+      <c r="B68" s="113"/>
       <c r="C68" s="3">
         <f>IF(t1_raw!B63&lt;&gt;0, t1_raw!B63, "")</f>
         <v>0.20000000298023224</v>
       </c>
-      <c r="D68" s="118"/>
+      <c r="D68" s="113"/>
       <c r="E68" s="3" t="str">
         <f>IF(t1_raw!C63&lt;&gt;0, t1_raw!C63, "")</f>
         <v/>
       </c>
-      <c r="F68" s="118"/>
+      <c r="F68" s="113"/>
       <c r="G68" s="3">
         <f>IF(t1_raw!D63&lt;&gt;0, t1_raw!D63, "")</f>
         <v>-0.30000001192092896</v>
       </c>
-      <c r="H68" s="118"/>
+      <c r="H68" s="113"/>
       <c r="I68" s="3" t="str">
         <f>IF(t1_raw!E63&lt;&gt;0, t1_raw!E63, "")</f>
         <v/>
       </c>
-      <c r="J68" s="116">
+      <c r="J68" s="111">
         <f>t1_raw!F63</f>
         <v>0.48913043737411499</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2"/>
-      <c r="B69" s="118"/>
+      <c r="B69" s="113"/>
       <c r="C69" s="3" t="str">
         <f>IF(t1_raw!B64&gt;0, "("&amp;ROUND(t1_raw!B64, 3)&amp;")", "")</f>
         <v>(1.47)</v>
       </c>
-      <c r="D69" s="118"/>
+      <c r="D69" s="113"/>
       <c r="E69" s="3" t="str">
         <f>IF(t1_raw!C64&gt;0, "("&amp;ROUND(t1_raw!C64, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F69" s="118"/>
+      <c r="F69" s="113"/>
       <c r="G69" s="3" t="str">
         <f>IF(t1_raw!D64&gt;0, "("&amp;ROUND(t1_raw!D64, 3)&amp;")", "")</f>
         <v>(0.713)</v>
       </c>
-      <c r="H69" s="118"/>
+      <c r="H69" s="113"/>
       <c r="I69" s="3" t="str">
         <f>IF(t1_raw!E64&gt;0, "("&amp;ROUND(t1_raw!E64, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J69" s="116"/>
+      <c r="J69" s="111"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="str">
         <f>IF(t1_raw!A65&lt;&gt;"",t1_raw!A65,"")</f>
         <v>Freij 1979b</v>
       </c>
-      <c r="B70" s="118"/>
+      <c r="B70" s="113"/>
       <c r="C70" s="3" t="str">
         <f>IF(t1_raw!B65&lt;&gt;0, t1_raw!B65, "")</f>
         <v/>
       </c>
-      <c r="D70" s="118"/>
+      <c r="D70" s="113"/>
       <c r="E70" s="3" t="str">
         <f>IF(t1_raw!C65&lt;&gt;0, t1_raw!C65, "")</f>
         <v/>
       </c>
-      <c r="F70" s="118"/>
+      <c r="F70" s="113"/>
       <c r="G70" s="3">
         <f>IF(t1_raw!D65&lt;&gt;0, t1_raw!D65, "")</f>
         <v>0.10000000149011612</v>
       </c>
-      <c r="H70" s="118"/>
+      <c r="H70" s="113"/>
       <c r="I70" s="3" t="str">
         <f>IF(t1_raw!E65&lt;&gt;0, t1_raw!E65, "")</f>
         <v/>
       </c>
-      <c r="J70" s="116">
+      <c r="J70" s="111">
         <f>t1_raw!F65</f>
         <v>0.48913043737411499</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2"/>
-      <c r="B71" s="118"/>
+      <c r="B71" s="113"/>
       <c r="C71" s="3" t="str">
         <f>IF(t1_raw!B66&gt;0, "("&amp;ROUND(t1_raw!B66, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="D71" s="118"/>
+      <c r="D71" s="113"/>
       <c r="E71" s="3" t="str">
         <f>IF(t1_raw!C66&gt;0, "("&amp;ROUND(t1_raw!C66, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="F71" s="118"/>
+      <c r="F71" s="113"/>
       <c r="G71" s="3" t="str">
         <f>IF(t1_raw!D66&gt;0, "("&amp;ROUND(t1_raw!D66, 3)&amp;")", "")</f>
         <v>(0.347)</v>
       </c>
-      <c r="H71" s="118"/>
+      <c r="H71" s="113"/>
       <c r="I71" s="3" t="str">
         <f>IF(t1_raw!E66&gt;0, "("&amp;ROUND(t1_raw!E66, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J71" s="116"/>
+      <c r="J71" s="111"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2" t="str">
         <f>IF(t1_raw!A67&lt;&gt;"",t1_raw!A67,"")</f>
         <v>Sarkar 2002</v>
       </c>
-      <c r="B72" s="118"/>
+      <c r="B72" s="113"/>
       <c r="C72" s="3">
         <f>IF(t1_raw!B67&lt;&gt;0, t1_raw!B67, "")</f>
         <v>0.37999999523162842</v>
       </c>
-      <c r="D72" s="118"/>
+      <c r="D72" s="113"/>
       <c r="E72" s="3">
         <f>IF(t1_raw!C67&lt;&gt;0, t1_raw!C67, "")</f>
         <v>0.10000000149011612</v>
       </c>
-      <c r="F72" s="118"/>
+      <c r="F72" s="113"/>
       <c r="G72" s="3" t="str">
         <f>IF(t1_raw!D67&lt;&gt;0, t1_raw!D67, "")</f>
         <v/>
       </c>
-      <c r="H72" s="118"/>
+      <c r="H72" s="113"/>
       <c r="I72" s="3" t="str">
         <f>IF(t1_raw!E67&lt;&gt;0, t1_raw!E67, "")</f>
         <v/>
       </c>
-      <c r="J72" s="116">
+      <c r="J72" s="111">
         <f>t1_raw!F67</f>
         <v>0.78523492813110352</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2"/>
-      <c r="B73" s="118"/>
+      <c r="B73" s="113"/>
       <c r="C73" s="3" t="str">
         <f>IF(t1_raw!B68&gt;0, "("&amp;ROUND(t1_raw!B68, 3)&amp;")", "")</f>
         <v>(0.15)</v>
       </c>
-      <c r="D73" s="118"/>
+      <c r="D73" s="113"/>
       <c r="E73" s="3" t="str">
         <f>IF(t1_raw!C68&gt;0, "("&amp;ROUND(t1_raw!C68, 3)&amp;")", "")</f>
         <v>(0.261)</v>
       </c>
-      <c r="F73" s="118"/>
+      <c r="F73" s="113"/>
       <c r="G73" s="3" t="str">
         <f>IF(t1_raw!D68&gt;0, "("&amp;ROUND(t1_raw!D68, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H73" s="118"/>
+      <c r="H73" s="113"/>
       <c r="I73" s="3" t="str">
         <f>IF(t1_raw!E68&gt;0, "("&amp;ROUND(t1_raw!E68, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J73" s="116"/>
+      <c r="J73" s="111"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="str">
         <f>IF(t1_raw!A69&lt;&gt;"",t1_raw!A69,"")</f>
         <v>Stephenson 1989</v>
       </c>
-      <c r="B74" s="118"/>
+      <c r="B74" s="113"/>
       <c r="C74" s="3">
         <f>IF(t1_raw!B69&lt;&gt;0, t1_raw!B69, "")</f>
         <v>1.2999999523162842</v>
       </c>
-      <c r="D74" s="118"/>
+      <c r="D74" s="113"/>
       <c r="E74" s="3">
         <f>IF(t1_raw!C69&lt;&gt;0, t1_raw!C69, "")</f>
         <v>0.60000002384185791</v>
       </c>
-      <c r="F74" s="118"/>
+      <c r="F74" s="113"/>
       <c r="G74" s="3">
         <f>IF(t1_raw!D69&lt;&gt;0, t1_raw!D69, "")</f>
         <v>0.5</v>
       </c>
-      <c r="H74" s="118"/>
+      <c r="H74" s="113"/>
       <c r="I74" s="3" t="str">
         <f>IF(t1_raw!E69&lt;&gt;0, t1_raw!E69, "")</f>
         <v/>
       </c>
-      <c r="J74" s="116">
+      <c r="J74" s="111">
         <f>t1_raw!F69</f>
         <v>0.97000002861022949</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2"/>
-      <c r="B75" s="118"/>
+      <c r="B75" s="113"/>
       <c r="C75" s="3" t="str">
         <f>IF(t1_raw!B70&gt;0, "("&amp;ROUND(t1_raw!B70, 3)&amp;")", "")</f>
         <v>(0.134)</v>
       </c>
-      <c r="D75" s="118"/>
+      <c r="D75" s="113"/>
       <c r="E75" s="3" t="str">
         <f>IF(t1_raw!C70&gt;0, "("&amp;ROUND(t1_raw!C70, 3)&amp;")", "")</f>
         <v>(0.134)</v>
       </c>
-      <c r="F75" s="118"/>
+      <c r="F75" s="113"/>
       <c r="G75" s="3" t="str">
         <f>IF(t1_raw!D70&gt;0, "("&amp;ROUND(t1_raw!D70, 3)&amp;")", "")</f>
         <v>(0.078)</v>
       </c>
-      <c r="H75" s="118"/>
+      <c r="H75" s="113"/>
       <c r="I75" s="3" t="str">
         <f>IF(t1_raw!E70&gt;0, "("&amp;ROUND(t1_raw!E70, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J75" s="116"/>
+      <c r="J75" s="111"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2" t="str">
         <f>IF(t1_raw!A71&lt;&gt;"",t1_raw!A71,"")</f>
         <v>Tee 2013</v>
       </c>
-      <c r="B76" s="118"/>
+      <c r="B76" s="113"/>
       <c r="C76" s="3" t="str">
         <f>IF(t1_raw!B71&lt;&gt;0, t1_raw!B71, "")</f>
         <v/>
       </c>
-      <c r="D76" s="118" t="str">
+      <c r="D76" s="113" t="str">
         <f>IF(AND(t1_raw!H72&lt;&gt;"NA",t1_raw!H72&lt;&gt;0), t1_raw!H72, "")</f>
         <v/>
       </c>
@@ -4626,112 +4626,112 @@
         <f>IF(t1_raw!C71&lt;&gt;0, t1_raw!C71, "")</f>
         <v>-0.10000000149011612</v>
       </c>
-      <c r="F76" s="118"/>
+      <c r="F76" s="113"/>
       <c r="G76" s="3" t="str">
         <f>IF(t1_raw!D71&lt;&gt;0, t1_raw!D71, "")</f>
         <v/>
       </c>
-      <c r="H76" s="118"/>
+      <c r="H76" s="113"/>
       <c r="I76" s="3" t="str">
         <f>IF(t1_raw!E71&lt;&gt;0, t1_raw!E71, "")</f>
         <v/>
       </c>
-      <c r="J76" s="116">
+      <c r="J76" s="111">
         <f>t1_raw!F71</f>
         <v>0.30578511953353882</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2"/>
-      <c r="B77" s="118"/>
+      <c r="B77" s="113"/>
       <c r="C77" s="3" t="str">
         <f>IF(t1_raw!B72&gt;0, "("&amp;ROUND(t1_raw!B72, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="D77" s="118"/>
+      <c r="D77" s="113"/>
       <c r="E77" s="3" t="str">
         <f>IF(t1_raw!C72&gt;0, "("&amp;ROUND(t1_raw!C72, 3)&amp;")", "")</f>
         <v>(0.404)</v>
       </c>
-      <c r="F77" s="118"/>
+      <c r="F77" s="113"/>
       <c r="G77" s="3" t="str">
         <f>IF(t1_raw!D72&gt;0, "("&amp;ROUND(t1_raw!D72, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H77" s="118"/>
+      <c r="H77" s="113"/>
       <c r="I77" s="3" t="str">
         <f>IF(t1_raw!E72&gt;0, "("&amp;ROUND(t1_raw!E72, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="J77" s="116"/>
+      <c r="J77" s="111"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="str">
         <f>IF(t1_raw!A73&lt;&gt;"",t1_raw!A73,"")</f>
         <v>Yap 2014</v>
       </c>
-      <c r="B78" s="118"/>
+      <c r="B78" s="113"/>
       <c r="C78" s="3">
         <f>IF(t1_raw!B73&lt;&gt;0, t1_raw!B73, "")</f>
         <v>0.30000001192092896</v>
       </c>
-      <c r="D78" s="118"/>
+      <c r="D78" s="113"/>
       <c r="E78" s="3">
         <f>IF(t1_raw!C73&lt;&gt;0, t1_raw!C73, "")</f>
         <v>0.20000000298023224</v>
       </c>
-      <c r="F78" s="118"/>
+      <c r="F78" s="113"/>
       <c r="G78" s="3" t="str">
         <f>IF(t1_raw!D73&lt;&gt;0, t1_raw!D73, "")</f>
         <v/>
       </c>
-      <c r="H78" s="118"/>
+      <c r="H78" s="113"/>
       <c r="I78" s="3">
         <f>IF(t1_raw!E73&lt;&gt;0, t1_raw!E73, "")</f>
         <v>-0.40000000596046448</v>
       </c>
-      <c r="J78" s="116">
+      <c r="J78" s="111">
         <f>t1_raw!F73</f>
         <v>0.93444168567657471</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="8"/>
-      <c r="B79" s="119"/>
+      <c r="B79" s="121"/>
       <c r="C79" s="4" t="str">
         <f>IF(t1_raw!B74&gt;0, "("&amp;ROUND(t1_raw!B74, 3)&amp;")", "")</f>
         <v>(0.179)</v>
       </c>
-      <c r="D79" s="118"/>
+      <c r="D79" s="113"/>
       <c r="E79" s="4" t="str">
         <f>IF(t1_raw!C74&gt;0, "("&amp;ROUND(t1_raw!C74, 3)&amp;")", "")</f>
         <v>(0.128)</v>
       </c>
-      <c r="F79" s="119"/>
+      <c r="F79" s="121"/>
       <c r="G79" s="4" t="str">
         <f>IF(t1_raw!D74&gt;0, "("&amp;ROUND(t1_raw!D74, 3)&amp;")", "")</f>
         <v/>
       </c>
-      <c r="H79" s="119"/>
+      <c r="H79" s="121"/>
       <c r="I79" s="4" t="str">
         <f>IF(t1_raw!E74&gt;0, "("&amp;ROUND(t1_raw!E74, 3)&amp;")", "")</f>
         <v>(0.434)</v>
       </c>
-      <c r="J79" s="117"/>
+      <c r="J79" s="120"/>
     </row>
     <row r="80" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A80" s="120" t="s">
+      <c r="A80" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="B80" s="120"/>
-      <c r="C80" s="120"/>
-      <c r="D80" s="120"/>
-      <c r="E80" s="120"/>
-      <c r="F80" s="120"/>
-      <c r="G80" s="120"/>
-      <c r="H80" s="120"/>
-      <c r="I80" s="120"/>
-      <c r="J80" s="120"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="112"/>
+      <c r="F80" s="112"/>
+      <c r="G80" s="112"/>
+      <c r="H80" s="112"/>
+      <c r="I80" s="112"/>
+      <c r="J80" s="112"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2"/>
@@ -4743,6 +4743,176 @@
     </row>
   </sheetData>
   <mergeCells count="194">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="J33:J34"/>
@@ -4767,176 +4937,6 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="J72:J73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4948,12 +4948,12 @@
   <dimension ref="B2:T8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.8984375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="8.3984375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="10" hidden="1" customWidth="1"/>
@@ -4978,23 +4978,23 @@
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
       <c r="F2" s="82"/>
-      <c r="G2" s="145" t="s">
+      <c r="G2" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="145" t="s">
+      <c r="K2" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
       <c r="N2" s="84"/>
-      <c r="O2" s="145" t="s">
+      <c r="O2" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
       <c r="S2" s="82"/>
       <c r="T2" s="82"/>
     </row>
@@ -5108,21 +5108,21 @@
         <f>t3_raw!$B$6</f>
         <v>144.5737</v>
       </c>
-      <c r="H5" s="20" t="e">
-        <f>'Table 2'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I5" s="28" t="e">
+      <c r="H5" s="20">
+        <f>'Table 2'!C14</f>
+        <v>0.1112569272518158</v>
+      </c>
+      <c r="I5" s="28">
         <f>1/(H5^2)</f>
-        <v>#REF!</v>
+        <v>80.7878178425253</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="28">
         <v>6.2171209947393589</v>
       </c>
-      <c r="L5" s="28" t="e">
+      <c r="L5" s="28">
         <f>((G5/K5)-1)*I5</f>
-        <v>#REF!</v>
+        <v>1797.8620830203986</v>
       </c>
       <c r="M5" s="28">
         <f>((G5/K5)-1)</f>
@@ -5132,9 +5132,9 @@
       <c r="O5" s="28">
         <v>4.9271978865884378</v>
       </c>
-      <c r="P5" s="28" t="e">
+      <c r="P5" s="28">
         <f>((G5/O5)-1)*I5</f>
-        <v>#REF!</v>
+        <v>2289.6860314444411</v>
       </c>
       <c r="Q5" s="28">
         <f>((G5/O5)-1)</f>
@@ -5143,9 +5143,9 @@
       <c r="S5" s="29">
         <v>21</v>
       </c>
-      <c r="T5" s="20" t="e">
+      <c r="T5" s="20">
         <f>1/(S5*(H5^2))</f>
-        <v>#REF!</v>
+        <v>3.8470389448821569</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="25.5" customHeight="1">
@@ -5166,21 +5166,21 @@
         <f>t3_raw!$C$6</f>
         <v>166.4845</v>
       </c>
-      <c r="H6" s="20" t="e">
-        <f>'Table 2'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I6" s="28" t="e">
+      <c r="H6" s="20">
+        <f>'Table 2'!F14</f>
+        <v>0.15404742956161499</v>
+      </c>
+      <c r="I6" s="28">
         <f>1/(H6^2)</f>
-        <v>#REF!</v>
+        <v>42.139665884351004</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="28">
         <v>3.2873806998939559</v>
       </c>
-      <c r="L6" s="28" t="e">
+      <c r="L6" s="28">
         <f>((G6/K6)-1)*I6</f>
-        <v>#REF!</v>
+        <v>2091.9609587100394</v>
       </c>
       <c r="M6" s="28">
         <f>((G6/K6)-1)</f>
@@ -5199,9 +5199,9 @@
       <c r="S6" s="29">
         <v>6</v>
       </c>
-      <c r="T6" s="20" t="e">
+      <c r="T6" s="20">
         <f>1/(S6*(H6^2))</f>
-        <v>#REF!</v>
+        <v>7.0232776473918346</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="25.5" customHeight="1">
@@ -5222,21 +5222,21 @@
         <f>t3_raw!$D$6</f>
         <v>79.992789999999999</v>
       </c>
-      <c r="H7" s="20" t="e">
-        <f>'Table 2'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" s="28" t="e">
+      <c r="H7" s="20">
+        <f>'Table 2'!I14</f>
+        <v>0.18064612150192261</v>
+      </c>
+      <c r="I7" s="28">
         <f>1/(H7^2)</f>
-        <v>#REF!</v>
+        <v>30.643806880515445</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="28">
         <v>6.057707635899888</v>
       </c>
-      <c r="L7" s="28" t="e">
+      <c r="L7" s="28">
         <f>((G7/K7)-1)*I7</f>
-        <v>#REF!</v>
+        <v>374.01151092758516</v>
       </c>
       <c r="M7" s="28">
         <f>((G7/K7)-1)</f>
@@ -5246,9 +5246,9 @@
       <c r="O7" s="28">
         <v>11.086195244823985</v>
       </c>
-      <c r="P7" s="28" t="e">
+      <c r="P7" s="28">
         <f>((G7/O7)-1)*I7</f>
-        <v>#REF!</v>
+        <v>190.46754417007179</v>
       </c>
       <c r="Q7" s="28">
         <f>((G7/O7)-1)</f>
@@ -5257,9 +5257,9 @@
       <c r="S7" s="29">
         <v>16</v>
       </c>
-      <c r="T7" s="20" t="e">
+      <c r="T7" s="20">
         <f>1/(S7*(H7^2))</f>
-        <v>#REF!</v>
+        <v>1.9152379300322153</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="25.5" customHeight="1">
@@ -5280,13 +5280,13 @@
         <f>t3_raw!$E$6</f>
         <v>76.260300000000001</v>
       </c>
-      <c r="H8" s="21" t="e">
-        <f>'Table 2'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I8" s="37" t="e">
+      <c r="H8" s="21">
+        <f>'Table 2'!L14</f>
+        <v>3.7630423903465271E-2</v>
+      </c>
+      <c r="I8" s="37">
         <f>1/(H8^2)</f>
-        <v>#REF!</v>
+        <v>706.19035005878982</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="21" t="s">
@@ -5302,9 +5302,9 @@
       <c r="O8" s="37">
         <v>1.4370993835882944</v>
       </c>
-      <c r="P8" s="37" t="e">
+      <c r="P8" s="37">
         <f>((G8/O8)-1)*I8</f>
-        <v>#REF!</v>
+        <v>36768.105838225361</v>
       </c>
       <c r="Q8" s="37">
         <f>((G8/O8)-1)</f>
@@ -5313,9 +5313,9 @@
       <c r="S8" s="35">
         <v>11</v>
       </c>
-      <c r="T8" s="21" t="e">
+      <c r="T8" s="21">
         <f>1/(S8*(H8^2))</f>
-        <v>#REF!</v>
+        <v>64.199122732617255</v>
       </c>
     </row>
   </sheetData>
@@ -5358,16 +5358,16 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="149" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="3">
@@ -5388,7 +5388,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="147"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="86" t="str">
         <f>"("&amp;ROUND(ts8_raw!B2, 3)&amp;")"</f>
         <v>(0.043)</v>
@@ -5407,7 +5407,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="149" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="3">
@@ -5428,7 +5428,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="147"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="86" t="str">
         <f>"("&amp;ROUND(ts8_raw!B4, 3)&amp;")"</f>
         <v>(0.057)</v>
@@ -5454,16 +5454,16 @@
       <c r="E8" s="86"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="149" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="3">
@@ -5484,7 +5484,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A11" s="148"/>
+      <c r="A11" s="150"/>
       <c r="B11" s="6" t="str">
         <f>"("&amp;ROUND(ts8_raw!B6, 3)&amp;")"</f>
         <v>(5.778)</v>
@@ -5890,10 +5890,10 @@
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="149"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="92"/>
@@ -5902,10 +5902,10 @@
       <c r="D13" s="87"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="149"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8402,7 +8402,7 @@
   <dimension ref="B1:AA42"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="B42" sqref="B3:M42"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8425,40 +8425,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27">
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
     </row>
     <row r="3" spans="2:27">
       <c r="B3" s="15"/>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="126"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="126"/>
+      <c r="G3" s="124"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="126" t="s">
+      <c r="I3" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="126"/>
+      <c r="J3" s="124"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="126" t="s">
+      <c r="L3" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="126"/>
+      <c r="M3" s="124"/>
     </row>
     <row r="4" spans="2:27">
       <c r="B4" s="16"/>
@@ -8523,20 +8523,20 @@
       </c>
     </row>
     <row r="6" spans="2:27">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
     </row>
     <row r="7" spans="2:27">
       <c r="B7" s="16" t="s">
@@ -8577,43 +8577,43 @@
         <f>t2_raw!L3</f>
         <v>2.5549164041876793E-2</v>
       </c>
-      <c r="O7" s="152">
+      <c r="O7" s="110">
         <f>C7-1.95*C8</f>
         <v>5.4254909418523317E-2</v>
       </c>
-      <c r="P7" s="152">
+      <c r="P7" s="110">
         <f>C7+1.96*C8</f>
         <v>0.22720421299338339</v>
       </c>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="152">
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110">
         <f>F7-1.95*F8</f>
         <v>-5.7485498115420336E-2</v>
       </c>
-      <c r="S7" s="152">
+      <c r="S7" s="110">
         <f>F7+1.96*F8</f>
         <v>0.3126272615790367</v>
       </c>
-      <c r="T7" s="152"/>
-      <c r="U7" s="152">
+      <c r="T7" s="110"/>
+      <c r="U7" s="110">
         <f>I7-1.95*I8</f>
         <v>-1.7308167554438106E-2</v>
       </c>
-      <c r="V7" s="152">
+      <c r="V7" s="110">
         <f>I7+1.96*I8</f>
         <v>0.14639669314026832</v>
       </c>
-      <c r="W7" s="152"/>
-      <c r="X7" s="152">
+      <c r="W7" s="110"/>
+      <c r="X7" s="110">
         <f>L7-1.95*L8</f>
         <v>-2.6917533203959461E-2</v>
       </c>
-      <c r="Y7" s="152">
+      <c r="Y7" s="110">
         <f>L7+1.96*L8</f>
         <v>7.8284921273589131E-2</v>
       </c>
-      <c r="Z7" s="152"/>
-      <c r="AA7" s="152"/>
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="110"/>
     </row>
     <row r="8" spans="2:27">
       <c r="B8" s="16" t="s">
@@ -8735,45 +8735,45 @@
     </row>
     <row r="11" spans="2:27">
       <c r="B11" s="16"/>
-      <c r="C11" s="122" t="str">
+      <c r="C11" s="123" t="str">
         <f>"N="&amp;t2_raw!B7</f>
         <v>N=27</v>
       </c>
-      <c r="D11" s="122"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="122" t="str">
+      <c r="F11" s="123" t="str">
         <f>"N="&amp;t2_raw!E7</f>
         <v>N=7</v>
       </c>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122" t="str">
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123" t="str">
         <f>"N="&amp;t2_raw!I7</f>
         <v>N=22</v>
       </c>
-      <c r="J11" s="122"/>
+      <c r="J11" s="123"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="122" t="str">
+      <c r="L11" s="123" t="str">
         <f>"N="&amp;t2_raw!L7</f>
         <v>N=13</v>
       </c>
-      <c r="M11" s="122"/>
+      <c r="M11" s="123"/>
     </row>
     <row r="12" spans="2:27">
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="122" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
     </row>
     <row r="13" spans="2:27">
       <c r="B13" s="16" t="s">
@@ -8935,45 +8935,45 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="16"/>
-      <c r="C17" s="122" t="str">
+      <c r="C17" s="123" t="str">
         <f>"N="&amp;t2_raw!B13</f>
         <v>N=6</v>
       </c>
-      <c r="D17" s="122"/>
+      <c r="D17" s="123"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="122" t="str">
+      <c r="F17" s="123" t="str">
         <f>"N="&amp;t2_raw!E13</f>
         <v>N=1</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122" t="str">
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123" t="str">
         <f>"N="&amp;t2_raw!I13</f>
         <v>N=6</v>
       </c>
-      <c r="J17" s="122"/>
+      <c r="J17" s="123"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="122" t="str">
+      <c r="L17" s="123" t="str">
         <f>"N="&amp;t2_raw!L13</f>
         <v>N=2</v>
       </c>
-      <c r="M17" s="122"/>
+      <c r="M17" s="123"/>
     </row>
     <row r="18" spans="2:25">
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="122" t="s">
         <v>280</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="121"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122"/>
     </row>
     <row r="19" spans="2:25">
       <c r="B19" s="16" t="s">
@@ -9014,38 +9014,38 @@
         <f>t2_raw!L15</f>
         <v>6.3642680644989014E-2</v>
       </c>
-      <c r="O19" s="152">
+      <c r="O19" s="110">
         <f>C19-1.95*C20</f>
         <v>6.9608550705015662E-2</v>
       </c>
-      <c r="P19" s="152">
+      <c r="P19" s="110">
         <f>C19+1.96*C20</f>
         <v>0.2398013187944889</v>
       </c>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="152">
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110">
         <f>F19-1.95*F20</f>
         <v>2.9998692870140092E-2</v>
       </c>
-      <c r="S19" s="152">
+      <c r="S19" s="110">
         <f>F19+1.96*F20</f>
         <v>0.36709662139415744</v>
       </c>
-      <c r="T19" s="152"/>
-      <c r="U19" s="152">
+      <c r="T19" s="110"/>
+      <c r="U19" s="110">
         <f>I19-1.95*I20</f>
         <v>1.1613813973963258E-2</v>
       </c>
-      <c r="V19" s="152">
+      <c r="V19" s="110">
         <f>I19+1.96*I20</f>
         <v>0.16215557172894479</v>
       </c>
-      <c r="W19" s="152"/>
-      <c r="X19" s="152">
+      <c r="W19" s="110"/>
+      <c r="X19" s="110">
         <f>L19-1.95*L20</f>
         <v>-1.1404322274029252E-2</v>
       </c>
-      <c r="Y19" s="152">
+      <c r="Y19" s="110">
         <f>L19+1.96*L20</f>
         <v>0.13907453998923303</v>
       </c>
@@ -9170,45 +9170,45 @@
     </row>
     <row r="23" spans="2:25">
       <c r="B23" s="16"/>
-      <c r="C23" s="122" t="str">
+      <c r="C23" s="123" t="str">
         <f>"N="&amp;t2_raw!B19</f>
         <v>N=21</v>
       </c>
-      <c r="D23" s="122"/>
+      <c r="D23" s="123"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="122" t="str">
+      <c r="F23" s="123" t="str">
         <f>"N="&amp;t2_raw!E19</f>
         <v>N=6</v>
       </c>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122" t="str">
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123" t="str">
         <f>"N="&amp;t2_raw!I19</f>
         <v>N=16</v>
       </c>
-      <c r="J23" s="122"/>
+      <c r="J23" s="123"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="122" t="str">
+      <c r="L23" s="123" t="str">
         <f>"N="&amp;t2_raw!L19</f>
         <v>N=11</v>
       </c>
-      <c r="M23" s="122"/>
+      <c r="M23" s="123"/>
     </row>
     <row r="24" spans="2:25">
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="122" t="s">
         <v>281</v>
       </c>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="16" t="s">
@@ -9370,45 +9370,45 @@
     </row>
     <row r="29" spans="2:25">
       <c r="B29" s="16"/>
-      <c r="C29" s="122" t="str">
+      <c r="C29" s="123" t="str">
         <f>"N="&amp;t2_raw!B25</f>
         <v>N=16</v>
       </c>
-      <c r="D29" s="122"/>
+      <c r="D29" s="123"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="122" t="str">
+      <c r="F29" s="123" t="str">
         <f>"N="&amp;t2_raw!E25</f>
         <v>N=6</v>
       </c>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122" t="str">
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123" t="str">
         <f>"N="&amp;t2_raw!I25</f>
         <v>N=11</v>
       </c>
-      <c r="J29" s="122"/>
+      <c r="J29" s="123"/>
       <c r="K29" s="16"/>
-      <c r="L29" s="122" t="str">
+      <c r="L29" s="123" t="str">
         <f>"N="&amp;t2_raw!L25</f>
         <v>N=5</v>
       </c>
-      <c r="M29" s="122"/>
+      <c r="M29" s="123"/>
     </row>
     <row r="30" spans="2:25">
-      <c r="B30" s="121" t="s">
+      <c r="B30" s="122" t="s">
         <v>282</v>
       </c>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
     </row>
     <row r="31" spans="2:25" ht="15.9" customHeight="1">
       <c r="B31" s="16" t="s">
@@ -9597,45 +9597,45 @@
     </row>
     <row r="35" spans="2:25">
       <c r="B35" s="16"/>
-      <c r="C35" s="122" t="str">
+      <c r="C35" s="123" t="str">
         <f>"N="&amp;t2_raw!B31</f>
         <v>N=4</v>
       </c>
-      <c r="D35" s="122"/>
+      <c r="D35" s="123"/>
       <c r="E35" s="16"/>
-      <c r="F35" s="122" t="str">
+      <c r="F35" s="123" t="str">
         <f>"N="&amp;t2_raw!E31</f>
         <v>N=3</v>
       </c>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122" t="str">
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123" t="str">
         <f>"N="&amp;t2_raw!I31</f>
         <v>N=4</v>
       </c>
-      <c r="J35" s="122"/>
+      <c r="J35" s="123"/>
       <c r="K35" s="16"/>
-      <c r="L35" s="122" t="str">
+      <c r="L35" s="123" t="str">
         <f>"N="&amp;t2_raw!L31</f>
         <v>N=1</v>
       </c>
-      <c r="M35" s="122"/>
+      <c r="M35" s="123"/>
     </row>
     <row r="36" spans="2:25">
-      <c r="B36" s="121" t="s">
+      <c r="B36" s="122" t="s">
         <v>283</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="121"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="122"/>
     </row>
     <row r="37" spans="2:25" ht="15.9" customHeight="1">
       <c r="B37" s="16" t="s">
@@ -9685,38 +9685,38 @@
         <f>t2_raw!L33</f>
         <v>2.3917462676763535E-2</v>
       </c>
-      <c r="O37" s="152">
+      <c r="O37" s="110">
         <f>C37-1.95*C38</f>
         <v>9.0318357758224013E-2</v>
       </c>
-      <c r="P37" s="152">
+      <c r="P37" s="110">
         <f>C37+1.96*C38</f>
         <v>0.29840879127383235</v>
       </c>
-      <c r="Q37" s="152"/>
-      <c r="R37" s="152">
+      <c r="Q37" s="110"/>
+      <c r="R37" s="110">
         <f>F37-1.95*F38</f>
         <v>4.0217824280261438E-4</v>
       </c>
-      <c r="S37" s="152">
+      <c r="S37" s="110">
         <f>F37+1.96*F38</f>
         <v>0.34883763819932934</v>
       </c>
-      <c r="T37" s="152"/>
-      <c r="U37" s="152">
+      <c r="T37" s="110"/>
+      <c r="U37" s="110">
         <f>I37-1.95*I38</f>
         <v>7.4721092358231572E-3</v>
       </c>
-      <c r="V37" s="152">
+      <c r="V37" s="110">
         <f>I37+1.96*I38</f>
         <v>0.19670015856623649</v>
       </c>
-      <c r="W37" s="152"/>
-      <c r="X37" s="152">
+      <c r="W37" s="110"/>
+      <c r="X37" s="110">
         <f>L37-1.95*L38</f>
         <v>-2.8448551148176189E-2</v>
       </c>
-      <c r="Y37" s="152">
+      <c r="Y37" s="110">
         <f>L37+1.96*L38</f>
         <v>7.655202016234397E-2</v>
       </c>
@@ -9859,63 +9859,53 @@
     </row>
     <row r="41" spans="2:25">
       <c r="B41" s="9"/>
-      <c r="C41" s="124" t="str">
+      <c r="C41" s="126" t="str">
         <f>"N="&amp;t2_raw!B37</f>
         <v>N=31</v>
       </c>
-      <c r="D41" s="124"/>
+      <c r="D41" s="126"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="124" t="str">
+      <c r="F41" s="126" t="str">
         <f>"N="&amp;t2_raw!E37</f>
         <v>N=10</v>
       </c>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124" t="str">
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="126" t="str">
         <f>"N="&amp;t2_raw!I37</f>
         <v>N=26</v>
       </c>
-      <c r="J41" s="124"/>
+      <c r="J41" s="126"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="124" t="str">
+      <c r="L41" s="126" t="str">
         <f>"N="&amp;t2_raw!L37</f>
         <v>N=14</v>
       </c>
-      <c r="M41" s="124"/>
+      <c r="M41" s="126"/>
     </row>
     <row r="42" spans="2:25" ht="96.75" customHeight="1">
-      <c r="B42" s="123" t="s">
+      <c r="B42" s="125" t="s">
         <v>222</v>
       </c>
-      <c r="C42" s="123"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="123"/>
-      <c r="J42" s="123"/>
-      <c r="K42" s="123"/>
-      <c r="L42" s="123"/>
-      <c r="M42" s="123"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
     <mergeCell ref="B42:M42"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B1:M1"/>
@@ -9932,11 +9922,21 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L29:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -11242,12 +11242,12 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="100"/>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="152" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="102"/>
@@ -11265,13 +11265,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="153" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="108" t="s">
@@ -11365,13 +11365,13 @@
       <c r="E9" s="106"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="153" t="s">
         <v>230</v>
       </c>
-      <c r="B10" s="151"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="108" t="s">
@@ -12854,7 +12854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
@@ -13063,55 +13063,55 @@
     </row>
     <row r="3" spans="2:21" ht="15.9" customHeight="1">
       <c r="B3" s="31"/>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
       <c r="J3" s="32"/>
-      <c r="K3" s="132" t="s">
+      <c r="K3" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
       <c r="N3" s="18"/>
-      <c r="O3" s="132" t="s">
+      <c r="O3" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
       <c r="R3" s="18"/>
-      <c r="S3" s="132" t="s">
+      <c r="S3" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
     </row>
     <row r="4" spans="2:21">
       <c r="B4" s="33"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
       <c r="J4" s="27"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
       <c r="N4" s="25"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
       <c r="R4" s="25"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="133"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
     </row>
     <row r="5" spans="2:21" ht="72.900000000000006" customHeight="1">
       <c r="B5" s="33"/>
@@ -13229,7 +13229,7 @@
         <f>t3_raw!B$3</f>
         <v>0.15448729999999999</v>
       </c>
-      <c r="H7" s="128">
+      <c r="H7" s="130">
         <f>t3_raw!B$5</f>
         <v>9.8310099999999997E-2</v>
       </c>
@@ -13242,7 +13242,7 @@
         <f>t3_raw!$B$11</f>
         <v>0.17255409999999999</v>
       </c>
-      <c r="L7" s="128">
+      <c r="L7" s="130">
         <f>t3_raw!$B$13</f>
         <v>0.1061872</v>
       </c>
@@ -13254,20 +13254,20 @@
       <c r="O7" s="20">
         <v>0.39</v>
       </c>
-      <c r="P7" s="128">
+      <c r="P7" s="130">
         <v>0.255</v>
       </c>
-      <c r="Q7" s="128">
+      <c r="Q7" s="130">
         <v>6.2</v>
       </c>
       <c r="R7" s="20"/>
       <c r="S7" s="20">
         <v>0.12</v>
       </c>
-      <c r="T7" s="128">
+      <c r="T7" s="130">
         <v>0.24</v>
       </c>
-      <c r="U7" s="128">
+      <c r="U7" s="130">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -13289,7 +13289,7 @@
         <f>"["&amp;ROUND(t3_raw!B$4, 2)&amp;"]"</f>
         <v>[3.14]</v>
       </c>
-      <c r="H8" s="127"/>
+      <c r="H8" s="131"/>
       <c r="I8" s="28" t="str">
         <f>"["&amp;ROUND(t3_raw!B$8,1)&amp;", "&amp;ROUND(t3_raw!B$7,1)&amp;"]"</f>
         <v>[63.8, 258.7]</v>
@@ -13299,7 +13299,7 @@
         <f>"["&amp;ROUND(t3_raw!$B$12, 2)&amp;"]"</f>
         <v>[3.25]</v>
       </c>
-      <c r="L8" s="127"/>
+      <c r="L8" s="131"/>
       <c r="M8" s="28" t="str">
         <f>"["&amp;ROUND(t3_raw!$B$16,1)&amp;", "&amp;ROUND(t3_raw!$B$15,1)&amp;"]"</f>
         <v>[69, 279.4]</v>
@@ -13308,14 +13308,14 @@
       <c r="O8" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
+      <c r="P8" s="131"/>
+      <c r="Q8" s="131"/>
       <c r="R8" s="20"/>
       <c r="S8" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="T8" s="127"/>
-      <c r="U8" s="127"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="131"/>
     </row>
     <row r="9" spans="2:21">
       <c r="B9" s="25"/>
@@ -13351,7 +13351,7 @@
         <f>t3_raw!C$3</f>
         <v>0.1981166</v>
       </c>
-      <c r="H10" s="127">
+      <c r="H10" s="131">
         <f>t3_raw!C$5</f>
         <v>0.1132095</v>
       </c>
@@ -13364,7 +13364,7 @@
         <f>t3_raw!$C$11</f>
         <v>0.1981166</v>
       </c>
-      <c r="L10" s="127">
+      <c r="L10" s="131">
         <f>t3_raw!$C$13</f>
         <v>0.1132095</v>
       </c>
@@ -13376,20 +13376,20 @@
       <c r="O10" s="20">
         <v>0.31</v>
       </c>
-      <c r="P10" s="127">
+      <c r="P10" s="131">
         <v>0.13500000000000001</v>
       </c>
-      <c r="Q10" s="127">
+      <c r="Q10" s="131">
         <v>3.3</v>
       </c>
       <c r="R10" s="20"/>
-      <c r="S10" s="127" t="s">
+      <c r="S10" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="127" t="s">
+      <c r="T10" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="127" t="s">
+      <c r="U10" s="131" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13411,7 +13411,7 @@
         <f>"["&amp;ROUND(t3_raw!C$4, 2)&amp;"]"</f>
         <v>[3.5]</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="131"/>
       <c r="I11" s="28" t="str">
         <f>"["&amp;ROUND(t3_raw!C$8,1)&amp;", "&amp;ROUND(t3_raw!B$7,1)&amp;"]"</f>
         <v>[73.5, 258.7]</v>
@@ -13421,7 +13421,7 @@
         <f>"["&amp;ROUND(t3_raw!$C$12, 2)&amp;"]"</f>
         <v>[3.5]</v>
       </c>
-      <c r="L11" s="127"/>
+      <c r="L11" s="131"/>
       <c r="M11" s="28" t="str">
         <f>"["&amp;ROUND(t3_raw!$C$16,1)&amp;", "&amp;ROUND(t3_raw!$C$15,1)&amp;"]"</f>
         <v>[73.5, 297.9]</v>
@@ -13430,12 +13430,12 @@
       <c r="O11" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
       <c r="R11" s="20"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="127"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
     </row>
     <row r="12" spans="2:21">
       <c r="B12" s="25"/>
@@ -13471,7 +13471,7 @@
         <f>t3_raw!D$3</f>
         <v>8.6692199999999997E-2</v>
       </c>
-      <c r="H13" s="127">
+      <c r="H13" s="131">
         <f>t3_raw!D$5</f>
         <v>5.4395100000000002E-2</v>
       </c>
@@ -13484,7 +13484,7 @@
         <f>t3_raw!$D$11</f>
         <v>9.4919500000000004E-2</v>
       </c>
-      <c r="L13" s="127">
+      <c r="L13" s="131">
         <f>t3_raw!$D$13</f>
         <v>5.6438599999999998E-2</v>
       </c>
@@ -13496,20 +13496,20 @@
       <c r="O13" s="20">
         <v>0.38</v>
       </c>
-      <c r="P13" s="127">
+      <c r="P13" s="131">
         <v>0.248</v>
       </c>
-      <c r="Q13" s="127">
+      <c r="Q13" s="131">
         <v>6.1</v>
       </c>
       <c r="R13" s="20"/>
       <c r="S13" s="20">
         <v>0.27</v>
       </c>
-      <c r="T13" s="127">
+      <c r="T13" s="131">
         <v>0.54</v>
       </c>
-      <c r="U13" s="127">
+      <c r="U13" s="131">
         <v>11.1</v>
       </c>
     </row>
@@ -13531,7 +13531,7 @@
         <f>"["&amp;ROUND(t3_raw!D$4, 2)&amp;"]"</f>
         <v>[3.19]</v>
       </c>
-      <c r="H14" s="127"/>
+      <c r="H14" s="131"/>
       <c r="I14" s="28" t="str">
         <f>"["&amp;ROUND(t3_raw!D$8,1)&amp;", "&amp;ROUND(t3_raw!D$7,1)&amp;"]"</f>
         <v>[35.3, 143.1]</v>
@@ -13541,7 +13541,7 @@
         <f>"["&amp;ROUND(t3_raw!$D$12, 2)&amp;"]"</f>
         <v>[3.36]</v>
       </c>
-      <c r="L14" s="127"/>
+      <c r="L14" s="131"/>
       <c r="M14" s="28" t="str">
         <f>"["&amp;ROUND(t3_raw!$D$16,1)&amp;", "&amp;ROUND(t3_raw!$D$15,1)&amp;"]"</f>
         <v>[36.6, 148.5]</v>
@@ -13550,14 +13550,14 @@
       <c r="O14" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="131"/>
       <c r="R14" s="20"/>
       <c r="S14" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="T14" s="127"/>
-      <c r="U14" s="127"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="131"/>
     </row>
     <row r="15" spans="2:21">
       <c r="B15" s="27"/>
@@ -13593,7 +13593,7 @@
         <f>t3_raw!E$3</f>
         <v>6.3642699999999996E-2</v>
       </c>
-      <c r="H16" s="127">
+      <c r="H16" s="131">
         <f>t3_raw!E$5</f>
         <v>5.1857E-2</v>
       </c>
@@ -13606,7 +13606,7 @@
         <f>t3_raw!$E$11</f>
         <v>2.0411499999999999E-2</v>
       </c>
-      <c r="L16" s="127">
+      <c r="L16" s="131">
         <f>t3_raw!$E$13</f>
         <v>2.0411499999999999E-2</v>
       </c>
@@ -13618,20 +13618,20 @@
       <c r="O16" s="20">
         <v>-0.4</v>
       </c>
-      <c r="P16" s="130">
+      <c r="P16" s="133">
         <v>-0.17399999999999999</v>
       </c>
-      <c r="Q16" s="153" t="s">
+      <c r="Q16" s="135" t="s">
         <v>8</v>
       </c>
       <c r="R16" s="22"/>
       <c r="S16" s="20">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="T16" s="130">
+      <c r="T16" s="133">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U16" s="130">
+      <c r="U16" s="133">
         <v>1.4</v>
       </c>
     </row>
@@ -13653,7 +13653,7 @@
         <f>"["&amp;ROUND(t3_raw!E$4, 2)&amp;"]"</f>
         <v>[2.45]</v>
       </c>
-      <c r="H17" s="129"/>
+      <c r="H17" s="132"/>
       <c r="I17" s="37" t="str">
         <f>"["&amp;ROUND(t3_raw!E$8,1)&amp;", "&amp;ROUND(t3_raw!E$7,1)&amp;"]"</f>
         <v>[33.7, 136.5]</v>
@@ -13663,7 +13663,7 @@
         <f>"["&amp;ROUND(t3_raw!$E$12, 2)&amp;"]"</f>
         <v>[2]</v>
       </c>
-      <c r="L17" s="129"/>
+      <c r="L17" s="132"/>
       <c r="M17" s="37" t="str">
         <f>"["&amp;ROUND(t3_raw!$E$16,1)&amp;", "&amp;ROUND(t3_raw!$E$15,1)&amp;"]"</f>
         <v>[13.3, 53.7]</v>
@@ -13672,22 +13672,25 @@
       <c r="O17" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="134"/>
       <c r="R17" s="23"/>
       <c r="S17" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="T17" s="131"/>
-      <c r="U17" s="131"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C3:I4"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="O3:Q4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="T10:T11"/>
     <mergeCell ref="T13:T14"/>
@@ -13704,14 +13707,11 @@
     <mergeCell ref="P13:P14"/>
     <mergeCell ref="S10:S11"/>
     <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="C3:I4"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="T7:T8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -13891,44 +13891,44 @@
       <c r="P5" s="20"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="137"/>
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="48"/>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
       <c r="G7" s="49"/>
-      <c r="H7" s="137" t="s">
+      <c r="H7" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
       <c r="N7" s="49"/>
-      <c r="O7" s="137" t="s">
+      <c r="O7" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="137"/>
+      <c r="P7" s="139"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1">
       <c r="B8" s="39"/>
@@ -14013,23 +14013,23 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.9" customHeight="1">
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="136"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="136"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="138"/>
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="39" t="s">
@@ -14302,23 +14302,23 @@
       <c r="P16" s="44"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
     </row>
     <row r="18" spans="2:16" ht="22.5" customHeight="1">
       <c r="B18" s="39" t="s">
@@ -14391,23 +14391,23 @@
       <c r="P19" s="53"/>
     </row>
     <row r="20" spans="2:16" ht="24.9" customHeight="1">
-      <c r="B20" s="136" t="s">
+      <c r="B20" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="138"/>
     </row>
     <row r="21" spans="2:16" ht="15.9" customHeight="1">
       <c r="B21" s="39" t="s">
@@ -14516,23 +14516,23 @@
       </c>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="134"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14577,13 +14577,13 @@
         <v>30</v>
       </c>
       <c r="D3" s="57"/>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
     </row>
     <row r="4" spans="1:9" ht="54.9" customHeight="1">
       <c r="B4" s="16"/>
@@ -15308,14 +15308,14 @@
       <c r="G21" s="70"/>
     </row>
     <row r="22" spans="2:7" ht="25.5" customHeight="1">
-      <c r="B22" s="138" t="s">
+      <c r="B22" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="63" t="s">
@@ -15396,7 +15396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -15410,11 +15410,11 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.9" customHeight="1">
       <c r="B2" s="31"/>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
     </row>
     <row r="3" spans="2:5" ht="53.1" customHeight="1">
       <c r="B3" s="33"/>
@@ -15448,7 +15448,7 @@
         <f>ts5_raw!B3</f>
         <v>0.14050839841365814</v>
       </c>
-      <c r="D5" s="140">
+      <c r="D5" s="142">
         <f>ts5_raw!D3</f>
         <v>7.3664598166942596E-2</v>
       </c>
@@ -15465,7 +15465,7 @@
         <f>"["&amp;ROUND(ts5_raw!C3, 2)&amp;"]"</f>
         <v>[3.81]</v>
       </c>
-      <c r="D6" s="141"/>
+      <c r="D6" s="143"/>
       <c r="E6" s="13" t="str">
         <f>"["&amp;ROUND(ts5_raw!G3,1)&amp;", "&amp;ROUND(ts5_raw!F3, 1)&amp;"]"</f>
         <v>[47.8, 193.9]</v>
@@ -15616,14 +15616,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="15"/>
@@ -15662,16 +15662,16 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="16" t="s">
@@ -15780,28 +15780,28 @@
       <c r="I10" s="64"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="16" t="s">
@@ -15910,16 +15910,16 @@
       <c r="I17" s="64"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="16" t="s">
@@ -16028,16 +16028,16 @@
       <c r="I23" s="64"/>
     </row>
     <row r="24" spans="2:9" ht="26.1" customHeight="1">
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="16" t="s">
@@ -16146,16 +16146,16 @@
       <c r="I29" s="64"/>
     </row>
     <row r="30" spans="2:9" ht="26.1" customHeight="1">
-      <c r="B30" s="143" t="s">
+      <c r="B30" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="16" t="s">
